--- a/public/Database.template.xlsx
+++ b/public/Database.template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22810"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="-440" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="-80" yWindow="-440" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Code" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1156" uniqueCount="806">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1156" uniqueCount="807">
   <si>
     <t>Form A</t>
   </si>
@@ -2442,6 +2442,9 @@
   </si>
   <si>
     <t>Gracillia spp</t>
+  </si>
+  <si>
+    <t>Graticule</t>
   </si>
 </sst>
 </file>
@@ -3333,8 +3336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3359,7 +3362,7 @@
         <v>9</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>11</v>
+        <v>806</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>13</v>
@@ -4390,10 +4393,7 @@
       <c r="P51" s="9"/>
     </row>
   </sheetData>
-  <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E50">
-      <formula1>"long-tail,outboard,inboard"</formula1>
-    </dataValidation>
+  <dataValidations count="8">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F51 K2:K51">
       <formula1>0</formula1>
       <formula2>1000</formula2>
@@ -4416,6 +4416,12 @@
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P51">
       <formula1>0</formula1>
       <formula2>100000000</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E51">
+      <formula1>"OB,LT,IB"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G51">
+      <formula1>"1234,2345"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -6507,7 +6513,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3451"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G1" sqref="G1:H1048576"/>
     </sheetView>
   </sheetViews>

--- a/public/Database.template.xlsx
+++ b/public/Database.template.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22810"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23613"/>
   <workbookPr autoCompressPictures="0"/>
   <workbookProtection workbookPassword="C470" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="-440" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="-80" yWindow="-440" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Code" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Fishery Codes" sheetId="8" r:id="rId8"/>
     <sheet name="Desa Codes" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="140001" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1169" uniqueCount="816">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1185" uniqueCount="835">
   <si>
     <t>Form A</t>
   </si>
@@ -2445,9 +2445,6 @@
     <t>Gracillia spp</t>
   </si>
   <si>
-    <t>Graticule</t>
-  </si>
-  <si>
     <t>Fish</t>
   </si>
   <si>
@@ -2469,24 +2466,83 @@
     <t>Lombok Strait large pelagic</t>
   </si>
   <si>
-    <t>001</t>
-  </si>
-  <si>
-    <t>003</t>
-  </si>
-  <si>
-    <t>002</t>
+    <t>Padang Bai</t>
+  </si>
+  <si>
+    <t>Pantai Jasi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Banjar Pengalon </t>
+  </si>
+  <si>
+    <t>Tanah Ampo</t>
+  </si>
+  <si>
+    <t>Anantelo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ahmad </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gemelut </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bunutun </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seraya </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kusamba </t>
+  </si>
+  <si>
+    <t>Pessinggahan</t>
+  </si>
+  <si>
+    <t>Candidasa</t>
+  </si>
+  <si>
+    <t>Desa</t>
+  </si>
+  <si>
+    <t>Sekotong Barat</t>
+  </si>
+  <si>
+    <t>Ampenan</t>
+  </si>
+  <si>
+    <t>Bangko Bangko</t>
+  </si>
+  <si>
+    <t>51a</t>
+  </si>
+  <si>
+    <t>51b</t>
+  </si>
+  <si>
+    <t>52a</t>
+  </si>
+  <si>
+    <t>52b</t>
+  </si>
+  <si>
+    <t>Fishing ground</t>
+  </si>
+  <si>
+    <t>Sampling Factor</t>
+  </si>
+  <si>
+    <t>Fleet No.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="mm/dd/yy\ hh:mm\ AM/PM"/>
+  <numFmts count="1">
     <numFmt numFmtId="165" formatCode="[$-409]h:mm\ AM/PM;@"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2554,6 +2610,11 @@
       <color theme="1"/>
       <name val="Optima"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -2575,7 +2636,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -2711,51 +2772,6 @@
       </top>
       <bottom style="thin">
         <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color theme="3" tint="0.79998168889431442"/>
-      </left>
-      <right style="medium">
-        <color theme="3" tint="0.79998168889431442"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="thick">
-        <color theme="3" tint="0.79998168889431442"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="3" tint="0.79998168889431442"/>
-      </left>
-      <right style="medium">
-        <color theme="3" tint="0.79998168889431442"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="thick">
-        <color theme="3" tint="0.79998168889431442"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="3" tint="0.79998168889431442"/>
-      </left>
-      <right style="thick">
-        <color theme="3" tint="0.79998168889431442"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="thick">
-        <color theme="3" tint="0.79998168889431442"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3025,6 +3041,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="3" tint="0.79998168889431442"/>
+      </right>
+      <top style="thick">
+        <color theme="3" tint="0.79998168889431442"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="3" tint="0.79998168889431442"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3040,7 +3082,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3060,7 +3102,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -3070,39 +3111,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="7" applyFont="1" applyAlignment="1">
@@ -3120,37 +3152,52 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -3561,7 +3608,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -3722,6 +3769,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <extLst>
@@ -3736,8 +3784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="56.5" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -3746,61 +3794,61 @@
     <col min="2" max="16384" width="56.5" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="37" customFormat="1" ht="28" customHeight="1" thickTop="1">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:3" s="33" customFormat="1" ht="28" customHeight="1" thickTop="1">
+      <c r="A1" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="38"/>
-    </row>
-    <row r="2" spans="1:3" s="37" customFormat="1" ht="28" customHeight="1">
-      <c r="A2" s="40" t="s">
+      <c r="B1" s="39"/>
+      <c r="C1" s="34"/>
+    </row>
+    <row r="2" spans="1:3" s="33" customFormat="1" ht="28" customHeight="1">
+      <c r="A2" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="38"/>
-    </row>
-    <row r="3" spans="1:3" s="37" customFormat="1" ht="28" customHeight="1">
-      <c r="A3" s="40" t="s">
+      <c r="B2" s="40"/>
+      <c r="C2" s="34"/>
+    </row>
+    <row r="3" spans="1:3" s="33" customFormat="1" ht="28" customHeight="1">
+      <c r="A3" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="38"/>
-    </row>
-    <row r="4" spans="1:3" s="37" customFormat="1" ht="28" customHeight="1">
-      <c r="A4" s="40" t="s">
+      <c r="B3" s="41"/>
+      <c r="C3" s="34"/>
+    </row>
+    <row r="4" spans="1:3" s="33" customFormat="1" ht="28" customHeight="1">
+      <c r="A4" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="38"/>
-    </row>
-    <row r="5" spans="1:3" s="37" customFormat="1" ht="28" customHeight="1">
-      <c r="A5" s="40" t="s">
+      <c r="B4" s="42"/>
+      <c r="C4" s="34"/>
+    </row>
+    <row r="5" spans="1:3" s="33" customFormat="1" ht="28" customHeight="1">
+      <c r="A5" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="47"/>
-      <c r="C5" s="38"/>
-    </row>
-    <row r="6" spans="1:3" s="37" customFormat="1" ht="28" customHeight="1">
-      <c r="A6" s="40" t="s">
+      <c r="B5" s="42"/>
+      <c r="C5" s="34"/>
+    </row>
+    <row r="6" spans="1:3" s="33" customFormat="1" ht="28" customHeight="1">
+      <c r="A6" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="38"/>
-    </row>
-    <row r="7" spans="1:3" s="37" customFormat="1" ht="28" customHeight="1">
-      <c r="A7" s="40" t="s">
+      <c r="B6" s="41"/>
+      <c r="C6" s="34"/>
+    </row>
+    <row r="7" spans="1:3" s="33" customFormat="1" ht="28" customHeight="1">
+      <c r="A7" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="38"/>
-    </row>
-    <row r="8" spans="1:3" s="37" customFormat="1" ht="28" customHeight="1" thickBot="1">
-      <c r="A8" s="41" t="s">
+      <c r="B7" s="41"/>
+      <c r="C7" s="34"/>
+    </row>
+    <row r="8" spans="1:3" s="33" customFormat="1" ht="28" customHeight="1" thickBot="1">
+      <c r="A8" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="48"/>
-      <c r="C8" s="38"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="34"/>
     </row>
     <row r="9" spans="1:3" ht="14" thickTop="1">
       <c r="A9" s="8"/>
@@ -3858,1238 +3906,1238 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" thickBottom="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="4" style="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="8" width="10.83203125" style="19"/>
-    <col min="9" max="9" width="15.5" style="19" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="10.83203125" style="19"/>
+    <col min="1" max="1" width="4" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="10.83203125" style="16"/>
+    <col min="9" max="9" width="15.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15" thickTop="1" thickBot="1">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="20" t="s">
+        <v>832</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" s="20" t="s">
         <v>805</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="P1" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q1" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="S1" s="17"/>
+    </row>
+    <row r="2" spans="1:19" thickBot="1">
+      <c r="A2" s="22">
+        <v>1</v>
+      </c>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="17"/>
+    </row>
+    <row r="3" spans="1:19" thickBot="1">
+      <c r="A3" s="22">
+        <v>2</v>
+      </c>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="25"/>
+      <c r="S3" s="17"/>
+    </row>
+    <row r="4" spans="1:19" thickBot="1">
+      <c r="A4" s="22">
+        <v>3</v>
+      </c>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="17"/>
+    </row>
+    <row r="5" spans="1:19" thickBot="1">
+      <c r="A5" s="22">
+        <v>4</v>
+      </c>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="25"/>
+      <c r="S5" s="17"/>
+    </row>
+    <row r="6" spans="1:19" thickBot="1">
+      <c r="A6" s="22">
+        <v>5</v>
+      </c>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="25"/>
+      <c r="S6" s="17"/>
+    </row>
+    <row r="7" spans="1:19" thickBot="1">
+      <c r="A7" s="22">
+        <v>6</v>
+      </c>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="25"/>
+      <c r="S7" s="17"/>
+    </row>
+    <row r="8" spans="1:19" thickBot="1">
+      <c r="A8" s="22">
+        <v>7</v>
+      </c>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="25"/>
+      <c r="S8" s="17"/>
+    </row>
+    <row r="9" spans="1:19" thickBot="1">
+      <c r="A9" s="22">
+        <v>8</v>
+      </c>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="25"/>
+      <c r="S9" s="17"/>
+    </row>
+    <row r="10" spans="1:19" thickBot="1">
+      <c r="A10" s="22">
+        <v>9</v>
+      </c>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="24"/>
+      <c r="R10" s="25"/>
+      <c r="S10" s="17"/>
+    </row>
+    <row r="11" spans="1:19" thickBot="1">
+      <c r="A11" s="22">
+        <v>10</v>
+      </c>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="25"/>
+      <c r="S11" s="17"/>
+    </row>
+    <row r="12" spans="1:19" thickBot="1">
+      <c r="A12" s="22">
+        <v>11</v>
+      </c>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="25"/>
+      <c r="S12" s="17"/>
+    </row>
+    <row r="13" spans="1:19" thickBot="1">
+      <c r="A13" s="22">
+        <v>12</v>
+      </c>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="25"/>
+      <c r="S13" s="17"/>
+    </row>
+    <row r="14" spans="1:19" thickBot="1">
+      <c r="A14" s="22">
         <v>13</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="24"/>
+      <c r="R14" s="25"/>
+      <c r="S14" s="17"/>
+    </row>
+    <row r="15" spans="1:19" thickBot="1">
+      <c r="A15" s="22">
+        <v>14</v>
+      </c>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="24"/>
+      <c r="R15" s="25"/>
+      <c r="S15" s="17"/>
+    </row>
+    <row r="16" spans="1:19" thickBot="1">
+      <c r="A16" s="22">
         <v>15</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="24"/>
+      <c r="Q16" s="24"/>
+      <c r="R16" s="25"/>
+      <c r="S16" s="17"/>
+    </row>
+    <row r="17" spans="1:19" thickBot="1">
+      <c r="A17" s="22">
+        <v>16</v>
+      </c>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="25"/>
+      <c r="S17" s="17"/>
+    </row>
+    <row r="18" spans="1:19" thickBot="1">
+      <c r="A18" s="22">
         <v>17</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="24"/>
+      <c r="Q18" s="24"/>
+      <c r="R18" s="25"/>
+      <c r="S18" s="17"/>
+    </row>
+    <row r="19" spans="1:19" thickBot="1">
+      <c r="A19" s="22">
+        <v>18</v>
+      </c>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="24"/>
+      <c r="R19" s="25"/>
+      <c r="S19" s="17"/>
+    </row>
+    <row r="20" spans="1:19" thickBot="1">
+      <c r="A20" s="22">
         <v>19</v>
       </c>
-      <c r="M1" s="23" t="s">
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="24"/>
+      <c r="O20" s="24"/>
+      <c r="P20" s="24"/>
+      <c r="Q20" s="24"/>
+      <c r="R20" s="25"/>
+      <c r="S20" s="17"/>
+    </row>
+    <row r="21" spans="1:19" thickBot="1">
+      <c r="A21" s="22">
+        <v>20</v>
+      </c>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="24"/>
+      <c r="O21" s="24"/>
+      <c r="P21" s="24"/>
+      <c r="Q21" s="24"/>
+      <c r="R21" s="25"/>
+      <c r="S21" s="17"/>
+    </row>
+    <row r="22" spans="1:19" thickBot="1">
+      <c r="A22" s="22">
         <v>21</v>
       </c>
-      <c r="N1" s="23" t="s">
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="24"/>
+      <c r="O22" s="24"/>
+      <c r="P22" s="24"/>
+      <c r="Q22" s="24"/>
+      <c r="R22" s="25"/>
+      <c r="S22" s="17"/>
+    </row>
+    <row r="23" spans="1:19" thickBot="1">
+      <c r="A23" s="22">
+        <v>22</v>
+      </c>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="24"/>
+      <c r="O23" s="24"/>
+      <c r="P23" s="24"/>
+      <c r="Q23" s="24"/>
+      <c r="R23" s="25"/>
+      <c r="S23" s="17"/>
+    </row>
+    <row r="24" spans="1:19" thickBot="1">
+      <c r="A24" s="22">
         <v>23</v>
       </c>
-      <c r="O1" s="23" t="s">
-        <v>806</v>
-      </c>
-      <c r="P1" s="23" t="s">
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="24"/>
+      <c r="N24" s="24"/>
+      <c r="O24" s="24"/>
+      <c r="P24" s="24"/>
+      <c r="Q24" s="24"/>
+      <c r="R24" s="25"/>
+      <c r="S24" s="17"/>
+    </row>
+    <row r="25" spans="1:19" thickBot="1">
+      <c r="A25" s="22">
+        <v>24</v>
+      </c>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="25"/>
+      <c r="S25" s="17"/>
+    </row>
+    <row r="26" spans="1:19" thickBot="1">
+      <c r="A26" s="22">
         <v>25</v>
       </c>
-      <c r="Q1" s="23" t="s">
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="24"/>
+      <c r="O26" s="24"/>
+      <c r="P26" s="24"/>
+      <c r="Q26" s="24"/>
+      <c r="R26" s="25"/>
+      <c r="S26" s="17"/>
+    </row>
+    <row r="27" spans="1:19" thickBot="1">
+      <c r="A27" s="22">
+        <v>26</v>
+      </c>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="24"/>
+      <c r="O27" s="24"/>
+      <c r="P27" s="24"/>
+      <c r="Q27" s="24"/>
+      <c r="R27" s="25"/>
+      <c r="S27" s="17"/>
+    </row>
+    <row r="28" spans="1:19" thickBot="1">
+      <c r="A28" s="22">
         <v>27</v>
       </c>
-      <c r="R1" s="24" t="s">
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="24"/>
+      <c r="N28" s="24"/>
+      <c r="O28" s="24"/>
+      <c r="P28" s="24"/>
+      <c r="Q28" s="24"/>
+      <c r="R28" s="25"/>
+      <c r="S28" s="17"/>
+    </row>
+    <row r="29" spans="1:19" thickBot="1">
+      <c r="A29" s="22">
+        <v>28</v>
+      </c>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="24"/>
+      <c r="N29" s="24"/>
+      <c r="O29" s="24"/>
+      <c r="P29" s="24"/>
+      <c r="Q29" s="24"/>
+      <c r="R29" s="25"/>
+      <c r="S29" s="17"/>
+    </row>
+    <row r="30" spans="1:19" thickBot="1">
+      <c r="A30" s="22">
         <v>29</v>
       </c>
-      <c r="S1" s="20"/>
-    </row>
-    <row r="2" spans="1:19" thickBot="1">
-      <c r="A2" s="25">
-        <v>1</v>
-      </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="20"/>
-    </row>
-    <row r="3" spans="1:19" thickBot="1">
-      <c r="A3" s="25">
-        <v>2</v>
-      </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="27"/>
-      <c r="R3" s="29"/>
-      <c r="S3" s="20"/>
-    </row>
-    <row r="4" spans="1:19" thickBot="1">
-      <c r="A4" s="25">
-        <v>3</v>
-      </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="27"/>
-      <c r="P4" s="27"/>
-      <c r="Q4" s="27"/>
-      <c r="R4" s="29"/>
-      <c r="S4" s="20"/>
-    </row>
-    <row r="5" spans="1:19" thickBot="1">
-      <c r="A5" s="25">
-        <v>4</v>
-      </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="27"/>
-      <c r="O5" s="27"/>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="27"/>
-      <c r="R5" s="29"/>
-      <c r="S5" s="20"/>
-    </row>
-    <row r="6" spans="1:19" thickBot="1">
-      <c r="A6" s="25">
-        <v>5</v>
-      </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="27"/>
-      <c r="R6" s="29"/>
-      <c r="S6" s="20"/>
-    </row>
-    <row r="7" spans="1:19" thickBot="1">
-      <c r="A7" s="25">
-        <v>6</v>
-      </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="27"/>
-      <c r="O7" s="27"/>
-      <c r="P7" s="27"/>
-      <c r="Q7" s="27"/>
-      <c r="R7" s="29"/>
-      <c r="S7" s="20"/>
-    </row>
-    <row r="8" spans="1:19" thickBot="1">
-      <c r="A8" s="25">
-        <v>7</v>
-      </c>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="27"/>
-      <c r="O8" s="27"/>
-      <c r="P8" s="27"/>
-      <c r="Q8" s="27"/>
-      <c r="R8" s="29"/>
-      <c r="S8" s="20"/>
-    </row>
-    <row r="9" spans="1:19" thickBot="1">
-      <c r="A9" s="25">
-        <v>8</v>
-      </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="27"/>
-      <c r="O9" s="27"/>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="27"/>
-      <c r="R9" s="29"/>
-      <c r="S9" s="20"/>
-    </row>
-    <row r="10" spans="1:19" thickBot="1">
-      <c r="A10" s="25">
-        <v>9</v>
-      </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="27"/>
-      <c r="O10" s="27"/>
-      <c r="P10" s="27"/>
-      <c r="Q10" s="27"/>
-      <c r="R10" s="29"/>
-      <c r="S10" s="20"/>
-    </row>
-    <row r="11" spans="1:19" thickBot="1">
-      <c r="A11" s="25">
-        <v>10</v>
-      </c>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="27"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="27"/>
-      <c r="P11" s="27"/>
-      <c r="Q11" s="27"/>
-      <c r="R11" s="29"/>
-      <c r="S11" s="20"/>
-    </row>
-    <row r="12" spans="1:19" thickBot="1">
-      <c r="A12" s="25">
-        <v>11</v>
-      </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="27"/>
-      <c r="N12" s="27"/>
-      <c r="O12" s="27"/>
-      <c r="P12" s="27"/>
-      <c r="Q12" s="27"/>
-      <c r="R12" s="29"/>
-      <c r="S12" s="20"/>
-    </row>
-    <row r="13" spans="1:19" thickBot="1">
-      <c r="A13" s="25">
-        <v>12</v>
-      </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="27"/>
-      <c r="O13" s="27"/>
-      <c r="P13" s="27"/>
-      <c r="Q13" s="27"/>
-      <c r="R13" s="29"/>
-      <c r="S13" s="20"/>
-    </row>
-    <row r="14" spans="1:19" thickBot="1">
-      <c r="A14" s="25">
-        <v>13</v>
-      </c>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="27"/>
-      <c r="M14" s="27"/>
-      <c r="N14" s="27"/>
-      <c r="O14" s="27"/>
-      <c r="P14" s="27"/>
-      <c r="Q14" s="27"/>
-      <c r="R14" s="29"/>
-      <c r="S14" s="20"/>
-    </row>
-    <row r="15" spans="1:19" thickBot="1">
-      <c r="A15" s="25">
-        <v>14</v>
-      </c>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="27"/>
-      <c r="O15" s="27"/>
-      <c r="P15" s="27"/>
-      <c r="Q15" s="27"/>
-      <c r="R15" s="29"/>
-      <c r="S15" s="20"/>
-    </row>
-    <row r="16" spans="1:19" thickBot="1">
-      <c r="A16" s="25">
-        <v>15</v>
-      </c>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="27"/>
-      <c r="N16" s="27"/>
-      <c r="O16" s="27"/>
-      <c r="P16" s="27"/>
-      <c r="Q16" s="27"/>
-      <c r="R16" s="29"/>
-      <c r="S16" s="20"/>
-    </row>
-    <row r="17" spans="1:19" thickBot="1">
-      <c r="A17" s="25">
-        <v>16</v>
-      </c>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="27"/>
-      <c r="O17" s="27"/>
-      <c r="P17" s="27"/>
-      <c r="Q17" s="27"/>
-      <c r="R17" s="29"/>
-      <c r="S17" s="20"/>
-    </row>
-    <row r="18" spans="1:19" thickBot="1">
-      <c r="A18" s="25">
-        <v>17</v>
-      </c>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="27"/>
-      <c r="N18" s="27"/>
-      <c r="O18" s="27"/>
-      <c r="P18" s="27"/>
-      <c r="Q18" s="27"/>
-      <c r="R18" s="29"/>
-      <c r="S18" s="20"/>
-    </row>
-    <row r="19" spans="1:19" thickBot="1">
-      <c r="A19" s="25">
-        <v>18</v>
-      </c>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27"/>
-      <c r="N19" s="27"/>
-      <c r="O19" s="27"/>
-      <c r="P19" s="27"/>
-      <c r="Q19" s="27"/>
-      <c r="R19" s="29"/>
-      <c r="S19" s="20"/>
-    </row>
-    <row r="20" spans="1:19" thickBot="1">
-      <c r="A20" s="25">
-        <v>19</v>
-      </c>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="27"/>
-      <c r="N20" s="27"/>
-      <c r="O20" s="27"/>
-      <c r="P20" s="27"/>
-      <c r="Q20" s="27"/>
-      <c r="R20" s="29"/>
-      <c r="S20" s="20"/>
-    </row>
-    <row r="21" spans="1:19" thickBot="1">
-      <c r="A21" s="25">
-        <v>20</v>
-      </c>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="27"/>
-      <c r="N21" s="27"/>
-      <c r="O21" s="27"/>
-      <c r="P21" s="27"/>
-      <c r="Q21" s="27"/>
-      <c r="R21" s="29"/>
-      <c r="S21" s="20"/>
-    </row>
-    <row r="22" spans="1:19" thickBot="1">
-      <c r="A22" s="25">
-        <v>21</v>
-      </c>
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="27"/>
-      <c r="N22" s="27"/>
-      <c r="O22" s="27"/>
-      <c r="P22" s="27"/>
-      <c r="Q22" s="27"/>
-      <c r="R22" s="29"/>
-      <c r="S22" s="20"/>
-    </row>
-    <row r="23" spans="1:19" thickBot="1">
-      <c r="A23" s="25">
-        <v>22</v>
-      </c>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="27"/>
-      <c r="M23" s="27"/>
-      <c r="N23" s="27"/>
-      <c r="O23" s="27"/>
-      <c r="P23" s="27"/>
-      <c r="Q23" s="27"/>
-      <c r="R23" s="29"/>
-      <c r="S23" s="20"/>
-    </row>
-    <row r="24" spans="1:19" thickBot="1">
-      <c r="A24" s="25">
-        <v>23</v>
-      </c>
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="27"/>
-      <c r="L24" s="27"/>
-      <c r="M24" s="27"/>
-      <c r="N24" s="27"/>
-      <c r="O24" s="27"/>
-      <c r="P24" s="27"/>
-      <c r="Q24" s="27"/>
-      <c r="R24" s="29"/>
-      <c r="S24" s="20"/>
-    </row>
-    <row r="25" spans="1:19" thickBot="1">
-      <c r="A25" s="25">
-        <v>24</v>
-      </c>
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="27"/>
-      <c r="M25" s="27"/>
-      <c r="N25" s="27"/>
-      <c r="O25" s="27"/>
-      <c r="P25" s="27"/>
-      <c r="Q25" s="27"/>
-      <c r="R25" s="29"/>
-      <c r="S25" s="20"/>
-    </row>
-    <row r="26" spans="1:19" thickBot="1">
-      <c r="A26" s="25">
-        <v>25</v>
-      </c>
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="27"/>
-      <c r="K26" s="27"/>
-      <c r="L26" s="27"/>
-      <c r="M26" s="27"/>
-      <c r="N26" s="27"/>
-      <c r="O26" s="27"/>
-      <c r="P26" s="27"/>
-      <c r="Q26" s="27"/>
-      <c r="R26" s="29"/>
-      <c r="S26" s="20"/>
-    </row>
-    <row r="27" spans="1:19" thickBot="1">
-      <c r="A27" s="25">
-        <v>26</v>
-      </c>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="27"/>
-      <c r="L27" s="27"/>
-      <c r="M27" s="27"/>
-      <c r="N27" s="27"/>
-      <c r="O27" s="27"/>
-      <c r="P27" s="27"/>
-      <c r="Q27" s="27"/>
-      <c r="R27" s="29"/>
-      <c r="S27" s="20"/>
-    </row>
-    <row r="28" spans="1:19" thickBot="1">
-      <c r="A28" s="25">
-        <v>27</v>
-      </c>
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="27"/>
-      <c r="J28" s="27"/>
-      <c r="K28" s="27"/>
-      <c r="L28" s="27"/>
-      <c r="M28" s="27"/>
-      <c r="N28" s="27"/>
-      <c r="O28" s="27"/>
-      <c r="P28" s="27"/>
-      <c r="Q28" s="27"/>
-      <c r="R28" s="29"/>
-      <c r="S28" s="20"/>
-    </row>
-    <row r="29" spans="1:19" thickBot="1">
-      <c r="A29" s="25">
-        <v>28</v>
-      </c>
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="27"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="27"/>
-      <c r="M29" s="27"/>
-      <c r="N29" s="27"/>
-      <c r="O29" s="27"/>
-      <c r="P29" s="27"/>
-      <c r="Q29" s="27"/>
-      <c r="R29" s="29"/>
-      <c r="S29" s="20"/>
-    </row>
-    <row r="30" spans="1:19" thickBot="1">
-      <c r="A30" s="25">
-        <v>29</v>
-      </c>
-      <c r="B30" s="27"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="27"/>
-      <c r="K30" s="27"/>
-      <c r="L30" s="27"/>
-      <c r="M30" s="27"/>
-      <c r="N30" s="27"/>
-      <c r="O30" s="27"/>
-      <c r="P30" s="27"/>
-      <c r="Q30" s="27"/>
-      <c r="R30" s="29"/>
-      <c r="S30" s="20"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="24"/>
+      <c r="N30" s="24"/>
+      <c r="O30" s="24"/>
+      <c r="P30" s="24"/>
+      <c r="Q30" s="24"/>
+      <c r="R30" s="25"/>
+      <c r="S30" s="17"/>
     </row>
     <row r="31" spans="1:19" thickBot="1">
-      <c r="A31" s="25">
+      <c r="A31" s="22">
         <v>30</v>
       </c>
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="27"/>
-      <c r="K31" s="27"/>
-      <c r="L31" s="27"/>
-      <c r="M31" s="27"/>
-      <c r="N31" s="27"/>
-      <c r="O31" s="27"/>
-      <c r="P31" s="27"/>
-      <c r="Q31" s="27"/>
-      <c r="R31" s="29"/>
-      <c r="S31" s="20"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="24"/>
+      <c r="K31" s="24"/>
+      <c r="L31" s="24"/>
+      <c r="M31" s="24"/>
+      <c r="N31" s="24"/>
+      <c r="O31" s="24"/>
+      <c r="P31" s="24"/>
+      <c r="Q31" s="24"/>
+      <c r="R31" s="25"/>
+      <c r="S31" s="17"/>
     </row>
     <row r="32" spans="1:19" thickBot="1">
-      <c r="A32" s="25">
+      <c r="A32" s="22">
         <v>31</v>
       </c>
-      <c r="B32" s="27"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="27"/>
-      <c r="K32" s="27"/>
-      <c r="L32" s="27"/>
-      <c r="M32" s="27"/>
-      <c r="N32" s="27"/>
-      <c r="O32" s="27"/>
-      <c r="P32" s="27"/>
-      <c r="Q32" s="27"/>
-      <c r="R32" s="29"/>
-      <c r="S32" s="20"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="24"/>
+      <c r="K32" s="24"/>
+      <c r="L32" s="24"/>
+      <c r="M32" s="24"/>
+      <c r="N32" s="24"/>
+      <c r="O32" s="24"/>
+      <c r="P32" s="24"/>
+      <c r="Q32" s="24"/>
+      <c r="R32" s="25"/>
+      <c r="S32" s="17"/>
     </row>
     <row r="33" spans="1:19" thickBot="1">
-      <c r="A33" s="25">
+      <c r="A33" s="22">
         <v>32</v>
       </c>
-      <c r="B33" s="27"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="27"/>
-      <c r="K33" s="27"/>
-      <c r="L33" s="27"/>
-      <c r="M33" s="27"/>
-      <c r="N33" s="27"/>
-      <c r="O33" s="27"/>
-      <c r="P33" s="27"/>
-      <c r="Q33" s="27"/>
-      <c r="R33" s="29"/>
-      <c r="S33" s="20"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="24"/>
+      <c r="M33" s="24"/>
+      <c r="N33" s="24"/>
+      <c r="O33" s="24"/>
+      <c r="P33" s="24"/>
+      <c r="Q33" s="24"/>
+      <c r="R33" s="25"/>
+      <c r="S33" s="17"/>
     </row>
     <row r="34" spans="1:19" thickBot="1">
-      <c r="A34" s="25">
+      <c r="A34" s="22">
         <v>33</v>
       </c>
-      <c r="B34" s="27"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="27"/>
-      <c r="K34" s="27"/>
-      <c r="L34" s="27"/>
-      <c r="M34" s="27"/>
-      <c r="N34" s="27"/>
-      <c r="O34" s="27"/>
-      <c r="P34" s="27"/>
-      <c r="Q34" s="27"/>
-      <c r="R34" s="29"/>
-      <c r="S34" s="20"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="24"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="24"/>
+      <c r="M34" s="24"/>
+      <c r="N34" s="24"/>
+      <c r="O34" s="24"/>
+      <c r="P34" s="24"/>
+      <c r="Q34" s="24"/>
+      <c r="R34" s="25"/>
+      <c r="S34" s="17"/>
     </row>
     <row r="35" spans="1:19" thickBot="1">
-      <c r="A35" s="25">
+      <c r="A35" s="22">
         <v>34</v>
       </c>
-      <c r="B35" s="27"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="27"/>
-      <c r="K35" s="27"/>
-      <c r="L35" s="27"/>
-      <c r="M35" s="27"/>
-      <c r="N35" s="27"/>
-      <c r="O35" s="27"/>
-      <c r="P35" s="27"/>
-      <c r="Q35" s="27"/>
-      <c r="R35" s="29"/>
-      <c r="S35" s="20"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="24"/>
+      <c r="K35" s="24"/>
+      <c r="L35" s="24"/>
+      <c r="M35" s="24"/>
+      <c r="N35" s="24"/>
+      <c r="O35" s="24"/>
+      <c r="P35" s="24"/>
+      <c r="Q35" s="24"/>
+      <c r="R35" s="25"/>
+      <c r="S35" s="17"/>
     </row>
     <row r="36" spans="1:19" thickBot="1">
-      <c r="A36" s="25">
+      <c r="A36" s="22">
         <v>35</v>
       </c>
-      <c r="B36" s="27"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="27"/>
-      <c r="I36" s="27"/>
-      <c r="J36" s="27"/>
-      <c r="K36" s="27"/>
-      <c r="L36" s="27"/>
-      <c r="M36" s="27"/>
-      <c r="N36" s="27"/>
-      <c r="O36" s="27"/>
-      <c r="P36" s="27"/>
-      <c r="Q36" s="27"/>
-      <c r="R36" s="29"/>
-      <c r="S36" s="20"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="24"/>
+      <c r="J36" s="24"/>
+      <c r="K36" s="24"/>
+      <c r="L36" s="24"/>
+      <c r="M36" s="24"/>
+      <c r="N36" s="24"/>
+      <c r="O36" s="24"/>
+      <c r="P36" s="24"/>
+      <c r="Q36" s="24"/>
+      <c r="R36" s="25"/>
+      <c r="S36" s="17"/>
     </row>
     <row r="37" spans="1:19" thickBot="1">
-      <c r="A37" s="25">
+      <c r="A37" s="22">
         <v>36</v>
       </c>
-      <c r="B37" s="27"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="27"/>
-      <c r="I37" s="27"/>
-      <c r="J37" s="27"/>
-      <c r="K37" s="27"/>
-      <c r="L37" s="27"/>
-      <c r="M37" s="27"/>
-      <c r="N37" s="27"/>
-      <c r="O37" s="27"/>
-      <c r="P37" s="27"/>
-      <c r="Q37" s="27"/>
-      <c r="R37" s="29"/>
-      <c r="S37" s="20"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="24"/>
+      <c r="J37" s="24"/>
+      <c r="K37" s="24"/>
+      <c r="L37" s="24"/>
+      <c r="M37" s="24"/>
+      <c r="N37" s="24"/>
+      <c r="O37" s="24"/>
+      <c r="P37" s="24"/>
+      <c r="Q37" s="24"/>
+      <c r="R37" s="25"/>
+      <c r="S37" s="17"/>
     </row>
     <row r="38" spans="1:19" thickBot="1">
-      <c r="A38" s="25">
+      <c r="A38" s="22">
         <v>37</v>
       </c>
-      <c r="B38" s="27"/>
-      <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="27"/>
-      <c r="I38" s="27"/>
-      <c r="J38" s="27"/>
-      <c r="K38" s="27"/>
-      <c r="L38" s="27"/>
-      <c r="M38" s="27"/>
-      <c r="N38" s="27"/>
-      <c r="O38" s="27"/>
-      <c r="P38" s="27"/>
-      <c r="Q38" s="27"/>
-      <c r="R38" s="29"/>
-      <c r="S38" s="20"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="24"/>
+      <c r="J38" s="24"/>
+      <c r="K38" s="24"/>
+      <c r="L38" s="24"/>
+      <c r="M38" s="24"/>
+      <c r="N38" s="24"/>
+      <c r="O38" s="24"/>
+      <c r="P38" s="24"/>
+      <c r="Q38" s="24"/>
+      <c r="R38" s="25"/>
+      <c r="S38" s="17"/>
     </row>
     <row r="39" spans="1:19" thickBot="1">
-      <c r="A39" s="25">
+      <c r="A39" s="22">
         <v>38</v>
       </c>
-      <c r="B39" s="27"/>
-      <c r="C39" s="27"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="27"/>
-      <c r="I39" s="27"/>
-      <c r="J39" s="27"/>
-      <c r="K39" s="27"/>
-      <c r="L39" s="27"/>
-      <c r="M39" s="27"/>
-      <c r="N39" s="27"/>
-      <c r="O39" s="27"/>
-      <c r="P39" s="27"/>
-      <c r="Q39" s="27"/>
-      <c r="R39" s="29"/>
-      <c r="S39" s="20"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="24"/>
+      <c r="J39" s="24"/>
+      <c r="K39" s="24"/>
+      <c r="L39" s="24"/>
+      <c r="M39" s="24"/>
+      <c r="N39" s="24"/>
+      <c r="O39" s="24"/>
+      <c r="P39" s="24"/>
+      <c r="Q39" s="24"/>
+      <c r="R39" s="25"/>
+      <c r="S39" s="17"/>
     </row>
     <row r="40" spans="1:19" thickBot="1">
-      <c r="A40" s="25">
+      <c r="A40" s="22">
         <v>39</v>
       </c>
-      <c r="B40" s="27"/>
-      <c r="C40" s="27"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="27"/>
-      <c r="I40" s="27"/>
-      <c r="J40" s="27"/>
-      <c r="K40" s="27"/>
-      <c r="L40" s="27"/>
-      <c r="M40" s="27"/>
-      <c r="N40" s="27"/>
-      <c r="O40" s="27"/>
-      <c r="P40" s="27"/>
-      <c r="Q40" s="27"/>
-      <c r="R40" s="29"/>
-      <c r="S40" s="20"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="24"/>
+      <c r="J40" s="24"/>
+      <c r="K40" s="24"/>
+      <c r="L40" s="24"/>
+      <c r="M40" s="24"/>
+      <c r="N40" s="24"/>
+      <c r="O40" s="24"/>
+      <c r="P40" s="24"/>
+      <c r="Q40" s="24"/>
+      <c r="R40" s="25"/>
+      <c r="S40" s="17"/>
     </row>
     <row r="41" spans="1:19" thickBot="1">
-      <c r="A41" s="25">
+      <c r="A41" s="22">
         <v>40</v>
       </c>
-      <c r="B41" s="27"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="27"/>
-      <c r="I41" s="27"/>
-      <c r="J41" s="27"/>
-      <c r="K41" s="27"/>
-      <c r="L41" s="27"/>
-      <c r="M41" s="27"/>
-      <c r="N41" s="27"/>
-      <c r="O41" s="27"/>
-      <c r="P41" s="27"/>
-      <c r="Q41" s="27"/>
-      <c r="R41" s="29"/>
-      <c r="S41" s="20"/>
+      <c r="B41" s="24"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="24"/>
+      <c r="J41" s="24"/>
+      <c r="K41" s="24"/>
+      <c r="L41" s="24"/>
+      <c r="M41" s="24"/>
+      <c r="N41" s="24"/>
+      <c r="O41" s="24"/>
+      <c r="P41" s="24"/>
+      <c r="Q41" s="24"/>
+      <c r="R41" s="25"/>
+      <c r="S41" s="17"/>
     </row>
     <row r="42" spans="1:19" thickBot="1">
-      <c r="A42" s="25">
+      <c r="A42" s="22">
         <v>41</v>
       </c>
-      <c r="B42" s="27"/>
-      <c r="C42" s="27"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="27"/>
-      <c r="I42" s="27"/>
-      <c r="J42" s="27"/>
-      <c r="K42" s="27"/>
-      <c r="L42" s="27"/>
-      <c r="M42" s="27"/>
-      <c r="N42" s="27"/>
-      <c r="O42" s="27"/>
-      <c r="P42" s="27"/>
-      <c r="Q42" s="27"/>
-      <c r="R42" s="29"/>
-      <c r="S42" s="20"/>
+      <c r="B42" s="24"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="24"/>
+      <c r="J42" s="24"/>
+      <c r="K42" s="24"/>
+      <c r="L42" s="24"/>
+      <c r="M42" s="24"/>
+      <c r="N42" s="24"/>
+      <c r="O42" s="24"/>
+      <c r="P42" s="24"/>
+      <c r="Q42" s="24"/>
+      <c r="R42" s="25"/>
+      <c r="S42" s="17"/>
     </row>
     <row r="43" spans="1:19" thickBot="1">
-      <c r="A43" s="25">
+      <c r="A43" s="22">
         <v>42</v>
       </c>
-      <c r="B43" s="27"/>
-      <c r="C43" s="27"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="27"/>
-      <c r="H43" s="27"/>
-      <c r="I43" s="27"/>
-      <c r="J43" s="27"/>
-      <c r="K43" s="27"/>
-      <c r="L43" s="27"/>
-      <c r="M43" s="27"/>
-      <c r="N43" s="27"/>
-      <c r="O43" s="27"/>
-      <c r="P43" s="27"/>
-      <c r="Q43" s="27"/>
-      <c r="R43" s="29"/>
-      <c r="S43" s="20"/>
+      <c r="B43" s="24"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="24"/>
+      <c r="J43" s="24"/>
+      <c r="K43" s="24"/>
+      <c r="L43" s="24"/>
+      <c r="M43" s="24"/>
+      <c r="N43" s="24"/>
+      <c r="O43" s="24"/>
+      <c r="P43" s="24"/>
+      <c r="Q43" s="24"/>
+      <c r="R43" s="25"/>
+      <c r="S43" s="17"/>
     </row>
     <row r="44" spans="1:19" thickBot="1">
-      <c r="A44" s="25">
+      <c r="A44" s="22">
         <v>43</v>
       </c>
-      <c r="B44" s="27"/>
-      <c r="C44" s="27"/>
-      <c r="D44" s="27"/>
-      <c r="E44" s="27"/>
-      <c r="F44" s="27"/>
-      <c r="G44" s="27"/>
-      <c r="H44" s="27"/>
-      <c r="I44" s="27"/>
-      <c r="J44" s="27"/>
-      <c r="K44" s="27"/>
-      <c r="L44" s="27"/>
-      <c r="M44" s="27"/>
-      <c r="N44" s="27"/>
-      <c r="O44" s="27"/>
-      <c r="P44" s="27"/>
-      <c r="Q44" s="27"/>
-      <c r="R44" s="29"/>
-      <c r="S44" s="20"/>
+      <c r="B44" s="24"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="24"/>
+      <c r="J44" s="24"/>
+      <c r="K44" s="24"/>
+      <c r="L44" s="24"/>
+      <c r="M44" s="24"/>
+      <c r="N44" s="24"/>
+      <c r="O44" s="24"/>
+      <c r="P44" s="24"/>
+      <c r="Q44" s="24"/>
+      <c r="R44" s="25"/>
+      <c r="S44" s="17"/>
     </row>
     <row r="45" spans="1:19" thickBot="1">
-      <c r="A45" s="25">
+      <c r="A45" s="22">
         <v>44</v>
       </c>
-      <c r="B45" s="27"/>
-      <c r="C45" s="27"/>
-      <c r="D45" s="27"/>
-      <c r="E45" s="27"/>
-      <c r="F45" s="27"/>
-      <c r="G45" s="27"/>
-      <c r="H45" s="27"/>
-      <c r="I45" s="27"/>
-      <c r="J45" s="27"/>
-      <c r="K45" s="27"/>
-      <c r="L45" s="27"/>
-      <c r="M45" s="27"/>
-      <c r="N45" s="27"/>
-      <c r="O45" s="27"/>
-      <c r="P45" s="27"/>
-      <c r="Q45" s="27"/>
-      <c r="R45" s="29"/>
-      <c r="S45" s="20"/>
+      <c r="B45" s="24"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="24"/>
+      <c r="H45" s="24"/>
+      <c r="I45" s="24"/>
+      <c r="J45" s="24"/>
+      <c r="K45" s="24"/>
+      <c r="L45" s="24"/>
+      <c r="M45" s="24"/>
+      <c r="N45" s="24"/>
+      <c r="O45" s="24"/>
+      <c r="P45" s="24"/>
+      <c r="Q45" s="24"/>
+      <c r="R45" s="25"/>
+      <c r="S45" s="17"/>
     </row>
     <row r="46" spans="1:19" thickBot="1">
-      <c r="A46" s="25">
+      <c r="A46" s="22">
         <v>45</v>
       </c>
-      <c r="B46" s="27"/>
-      <c r="C46" s="27"/>
-      <c r="D46" s="27"/>
-      <c r="E46" s="27"/>
-      <c r="F46" s="27"/>
-      <c r="G46" s="27"/>
-      <c r="H46" s="27"/>
-      <c r="I46" s="27"/>
-      <c r="J46" s="27"/>
-      <c r="K46" s="27"/>
-      <c r="L46" s="27"/>
-      <c r="M46" s="27"/>
-      <c r="N46" s="27"/>
-      <c r="O46" s="27"/>
-      <c r="P46" s="27"/>
-      <c r="Q46" s="27"/>
-      <c r="R46" s="29"/>
-      <c r="S46" s="20"/>
+      <c r="B46" s="24"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="24"/>
+      <c r="H46" s="24"/>
+      <c r="I46" s="24"/>
+      <c r="J46" s="24"/>
+      <c r="K46" s="24"/>
+      <c r="L46" s="24"/>
+      <c r="M46" s="24"/>
+      <c r="N46" s="24"/>
+      <c r="O46" s="24"/>
+      <c r="P46" s="24"/>
+      <c r="Q46" s="24"/>
+      <c r="R46" s="25"/>
+      <c r="S46" s="17"/>
     </row>
     <row r="47" spans="1:19" thickBot="1">
-      <c r="A47" s="25">
+      <c r="A47" s="22">
         <v>46</v>
       </c>
-      <c r="B47" s="27"/>
-      <c r="C47" s="27"/>
-      <c r="D47" s="27"/>
-      <c r="E47" s="27"/>
-      <c r="F47" s="27"/>
-      <c r="G47" s="27"/>
-      <c r="H47" s="27"/>
-      <c r="I47" s="27"/>
-      <c r="J47" s="27"/>
-      <c r="K47" s="27"/>
-      <c r="L47" s="27"/>
-      <c r="M47" s="27"/>
-      <c r="N47" s="27"/>
-      <c r="O47" s="27"/>
-      <c r="P47" s="27"/>
-      <c r="Q47" s="27"/>
-      <c r="R47" s="29"/>
-      <c r="S47" s="20"/>
+      <c r="B47" s="24"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="24"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="24"/>
+      <c r="H47" s="24"/>
+      <c r="I47" s="24"/>
+      <c r="J47" s="24"/>
+      <c r="K47" s="24"/>
+      <c r="L47" s="24"/>
+      <c r="M47" s="24"/>
+      <c r="N47" s="24"/>
+      <c r="O47" s="24"/>
+      <c r="P47" s="24"/>
+      <c r="Q47" s="24"/>
+      <c r="R47" s="25"/>
+      <c r="S47" s="17"/>
     </row>
     <row r="48" spans="1:19" thickBot="1">
-      <c r="A48" s="25">
+      <c r="A48" s="22">
         <v>47</v>
       </c>
-      <c r="B48" s="27"/>
-      <c r="C48" s="27"/>
-      <c r="D48" s="27"/>
-      <c r="E48" s="27"/>
-      <c r="F48" s="27"/>
-      <c r="G48" s="27"/>
-      <c r="H48" s="27"/>
-      <c r="I48" s="27"/>
-      <c r="J48" s="27"/>
-      <c r="K48" s="27"/>
-      <c r="L48" s="27"/>
-      <c r="M48" s="27"/>
-      <c r="N48" s="27"/>
-      <c r="O48" s="27"/>
-      <c r="P48" s="27"/>
-      <c r="Q48" s="27"/>
-      <c r="R48" s="29"/>
-      <c r="S48" s="20"/>
+      <c r="B48" s="24"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="24"/>
+      <c r="H48" s="24"/>
+      <c r="I48" s="24"/>
+      <c r="J48" s="24"/>
+      <c r="K48" s="24"/>
+      <c r="L48" s="24"/>
+      <c r="M48" s="24"/>
+      <c r="N48" s="24"/>
+      <c r="O48" s="24"/>
+      <c r="P48" s="24"/>
+      <c r="Q48" s="24"/>
+      <c r="R48" s="25"/>
+      <c r="S48" s="17"/>
     </row>
     <row r="49" spans="1:19" thickBot="1">
-      <c r="A49" s="25">
+      <c r="A49" s="22">
         <v>48</v>
       </c>
-      <c r="B49" s="27"/>
-      <c r="C49" s="27"/>
-      <c r="D49" s="27"/>
-      <c r="E49" s="27"/>
-      <c r="F49" s="27"/>
-      <c r="G49" s="27"/>
-      <c r="H49" s="27"/>
-      <c r="I49" s="27"/>
-      <c r="J49" s="27"/>
-      <c r="K49" s="27"/>
-      <c r="L49" s="27"/>
-      <c r="M49" s="27"/>
-      <c r="N49" s="27"/>
-      <c r="O49" s="27"/>
-      <c r="P49" s="27"/>
-      <c r="Q49" s="27"/>
-      <c r="R49" s="29"/>
-      <c r="S49" s="20"/>
+      <c r="B49" s="24"/>
+      <c r="C49" s="24"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="24"/>
+      <c r="G49" s="24"/>
+      <c r="H49" s="24"/>
+      <c r="I49" s="24"/>
+      <c r="J49" s="24"/>
+      <c r="K49" s="24"/>
+      <c r="L49" s="24"/>
+      <c r="M49" s="24"/>
+      <c r="N49" s="24"/>
+      <c r="O49" s="24"/>
+      <c r="P49" s="24"/>
+      <c r="Q49" s="24"/>
+      <c r="R49" s="25"/>
+      <c r="S49" s="17"/>
     </row>
     <row r="50" spans="1:19" thickBot="1">
-      <c r="A50" s="25">
+      <c r="A50" s="22">
         <v>49</v>
       </c>
-      <c r="B50" s="27"/>
-      <c r="C50" s="27"/>
-      <c r="D50" s="27"/>
-      <c r="E50" s="27"/>
-      <c r="F50" s="27"/>
-      <c r="G50" s="27"/>
-      <c r="H50" s="27"/>
-      <c r="I50" s="27"/>
-      <c r="J50" s="27"/>
-      <c r="K50" s="27"/>
-      <c r="L50" s="27"/>
-      <c r="M50" s="27"/>
-      <c r="N50" s="27"/>
-      <c r="O50" s="27"/>
-      <c r="P50" s="27"/>
-      <c r="Q50" s="27"/>
-      <c r="R50" s="29"/>
-      <c r="S50" s="20"/>
+      <c r="B50" s="24"/>
+      <c r="C50" s="24"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="24"/>
+      <c r="F50" s="24"/>
+      <c r="G50" s="24"/>
+      <c r="H50" s="24"/>
+      <c r="I50" s="24"/>
+      <c r="J50" s="24"/>
+      <c r="K50" s="24"/>
+      <c r="L50" s="24"/>
+      <c r="M50" s="24"/>
+      <c r="N50" s="24"/>
+      <c r="O50" s="24"/>
+      <c r="P50" s="24"/>
+      <c r="Q50" s="24"/>
+      <c r="R50" s="25"/>
+      <c r="S50" s="17"/>
     </row>
     <row r="51" spans="1:19" thickBot="1">
-      <c r="A51" s="26">
+      <c r="A51" s="23">
         <v>50</v>
       </c>
-      <c r="B51" s="30"/>
-      <c r="C51" s="30"/>
-      <c r="D51" s="30"/>
-      <c r="E51" s="30"/>
-      <c r="F51" s="30"/>
-      <c r="G51" s="30"/>
-      <c r="H51" s="30"/>
-      <c r="I51" s="30"/>
-      <c r="J51" s="30"/>
-      <c r="K51" s="30"/>
-      <c r="L51" s="30"/>
-      <c r="M51" s="30"/>
-      <c r="N51" s="30"/>
-      <c r="O51" s="30"/>
-      <c r="P51" s="30"/>
-      <c r="Q51" s="30"/>
-      <c r="R51" s="31"/>
-      <c r="S51" s="20"/>
+      <c r="B51" s="26"/>
+      <c r="C51" s="26"/>
+      <c r="D51" s="26"/>
+      <c r="E51" s="26"/>
+      <c r="F51" s="26"/>
+      <c r="G51" s="26"/>
+      <c r="H51" s="26"/>
+      <c r="I51" s="26"/>
+      <c r="J51" s="26"/>
+      <c r="K51" s="26"/>
+      <c r="L51" s="26"/>
+      <c r="M51" s="26"/>
+      <c r="N51" s="26"/>
+      <c r="O51" s="26"/>
+      <c r="P51" s="26"/>
+      <c r="Q51" s="26"/>
+      <c r="R51" s="27"/>
+      <c r="S51" s="17"/>
     </row>
     <row r="52" spans="1:19" ht="15" thickTop="1" thickBot="1">
-      <c r="A52" s="21"/>
-      <c r="B52" s="21"/>
-      <c r="C52" s="21"/>
-      <c r="D52" s="21"/>
-      <c r="E52" s="21"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="21"/>
-      <c r="H52" s="21"/>
-      <c r="I52" s="21"/>
-      <c r="J52" s="21"/>
-      <c r="K52" s="21"/>
-      <c r="L52" s="21"/>
-      <c r="M52" s="21"/>
-      <c r="N52" s="21"/>
-      <c r="O52" s="21"/>
-      <c r="P52" s="21"/>
-      <c r="Q52" s="21"/>
-      <c r="R52" s="21"/>
+      <c r="A52" s="18"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="18"/>
+      <c r="F52" s="18"/>
+      <c r="G52" s="18"/>
+      <c r="H52" s="18"/>
+      <c r="I52" s="18"/>
+      <c r="J52" s="18"/>
+      <c r="K52" s="18"/>
+      <c r="L52" s="18"/>
+      <c r="M52" s="18"/>
+      <c r="N52" s="18"/>
+      <c r="O52" s="18"/>
+      <c r="P52" s="18"/>
+      <c r="Q52" s="18"/>
+      <c r="R52" s="18"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
@@ -5171,943 +5219,4632 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E102"/>
+  <dimension ref="A1:F500"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="4.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="10.83203125" style="5"/>
+    <col min="2" max="2" width="15" style="5" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14" thickTop="1">
+    <row r="1" spans="1:6" ht="14" thickTop="1">
       <c r="A1" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="50" t="s">
+        <v>834</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="7"/>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="E1" s="11" t="s">
+        <v>833</v>
+      </c>
+      <c r="F1" s="7"/>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="12">
         <v>1</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="7"/>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="B2" s="51"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="7"/>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="12">
         <v>2</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="7"/>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="B3" s="51"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="12">
         <v>3</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="7"/>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="B4" s="51"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="12">
         <v>4</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="7"/>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="B5" s="51"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="12">
         <v>5</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="7"/>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="B6" s="51"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="12">
         <v>6</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="7"/>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="B7" s="51"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="12">
         <v>7</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="7"/>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="B8" s="51"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="12">
         <v>8</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="7"/>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="B9" s="51"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="12">
         <v>9</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="7"/>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="B10" s="51"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="12">
         <v>10</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="7"/>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="B11" s="51"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="12">
         <v>11</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="7"/>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="B12" s="51"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="12">
         <v>12</v>
       </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="7"/>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="B13" s="51"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="12">
         <v>13</v>
       </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="7"/>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="B14" s="51"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="12">
         <v>14</v>
       </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="7"/>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="B15" s="51"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="12">
         <v>15</v>
       </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="7"/>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="B16" s="51"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="7"/>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="12">
         <v>16</v>
       </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="7"/>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="B17" s="51"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="12">
         <v>17</v>
       </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="7"/>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="B18" s="51"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="7"/>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="12">
         <v>18</v>
       </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="7"/>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="B19" s="51"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="7"/>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="12">
         <v>19</v>
       </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="7"/>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="B20" s="51"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="7"/>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="12">
         <v>20</v>
       </c>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="7"/>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="B21" s="51"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="7"/>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="12">
         <v>21</v>
       </c>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="7"/>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="B22" s="51"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="7"/>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="12">
         <v>22</v>
       </c>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="7"/>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="B23" s="51"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="7"/>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="12">
         <v>23</v>
       </c>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="7"/>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="B24" s="51"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="7"/>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="12">
         <v>24</v>
       </c>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="7"/>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="B25" s="51"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="7"/>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="12">
         <v>25</v>
       </c>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="7"/>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="B26" s="51"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="7"/>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="12">
         <v>26</v>
       </c>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="7"/>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="B27" s="51"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="7"/>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="12">
         <v>27</v>
       </c>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="7"/>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="B28" s="51"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="7"/>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="12">
         <v>28</v>
       </c>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="7"/>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="B29" s="51"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="7"/>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="12">
         <v>29</v>
       </c>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="7"/>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="B30" s="51"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="7"/>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="12">
         <v>30</v>
       </c>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="7"/>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="B31" s="51"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="7"/>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="12">
         <v>31</v>
       </c>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="7"/>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="B32" s="51"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="7"/>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="12">
         <v>32</v>
       </c>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="7"/>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="B33" s="51"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="7"/>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="12">
         <v>33</v>
       </c>
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="7"/>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="B34" s="51"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="7"/>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="12">
         <v>34</v>
       </c>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="7"/>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="B35" s="51"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="7"/>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="12">
         <v>35</v>
       </c>
-      <c r="B36" s="15"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="7"/>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="B36" s="51"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="7"/>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="12">
         <v>36</v>
       </c>
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="7"/>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="B37" s="51"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="7"/>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="12">
         <v>37</v>
       </c>
-      <c r="B38" s="15"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="7"/>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="B38" s="51"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="7"/>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="12">
         <v>38</v>
       </c>
-      <c r="B39" s="15"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="7"/>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="B39" s="51"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="7"/>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="12">
         <v>39</v>
       </c>
-      <c r="B40" s="15"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="7"/>
-    </row>
-    <row r="41" spans="1:5">
+      <c r="B40" s="51"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="7"/>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="12">
         <v>40</v>
       </c>
-      <c r="B41" s="15"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="7"/>
-    </row>
-    <row r="42" spans="1:5">
+      <c r="B41" s="51"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="7"/>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="12">
         <v>41</v>
       </c>
-      <c r="B42" s="15"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="7"/>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="B42" s="51"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="7"/>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="12">
         <v>42</v>
       </c>
-      <c r="B43" s="15"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="7"/>
-    </row>
-    <row r="44" spans="1:5">
+      <c r="B43" s="51"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="7"/>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="12">
         <v>43</v>
       </c>
-      <c r="B44" s="15"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="7"/>
-    </row>
-    <row r="45" spans="1:5">
+      <c r="B44" s="51"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="7"/>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="12">
         <v>44</v>
       </c>
-      <c r="B45" s="15"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="7"/>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="B45" s="51"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="7"/>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="12">
         <v>45</v>
       </c>
-      <c r="B46" s="15"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="7"/>
-    </row>
-    <row r="47" spans="1:5">
+      <c r="B46" s="51"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="7"/>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="12">
         <v>46</v>
       </c>
-      <c r="B47" s="15"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="7"/>
-    </row>
-    <row r="48" spans="1:5">
+      <c r="B47" s="51"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="7"/>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="12">
         <v>47</v>
       </c>
-      <c r="B48" s="15"/>
-      <c r="C48" s="15"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="7"/>
-    </row>
-    <row r="49" spans="1:5">
+      <c r="B48" s="51"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="7"/>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="12">
         <v>48</v>
       </c>
-      <c r="B49" s="15"/>
-      <c r="C49" s="15"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="7"/>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="B49" s="51"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="7"/>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="12">
         <v>49</v>
       </c>
-      <c r="B50" s="15"/>
-      <c r="C50" s="15"/>
-      <c r="D50" s="16"/>
-      <c r="E50" s="7"/>
-    </row>
-    <row r="51" spans="1:5">
+      <c r="B50" s="51"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="7"/>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="12">
         <v>50</v>
       </c>
-      <c r="B51" s="15"/>
-      <c r="C51" s="15"/>
-      <c r="D51" s="16"/>
-      <c r="E51" s="7"/>
-    </row>
-    <row r="52" spans="1:5">
+      <c r="B51" s="51"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="7"/>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="12">
         <v>51</v>
       </c>
-      <c r="B52" s="15"/>
-      <c r="C52" s="15"/>
-      <c r="D52" s="16"/>
-      <c r="E52" s="7"/>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="B52" s="51"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="7"/>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="12">
         <v>52</v>
       </c>
-      <c r="B53" s="15"/>
-      <c r="C53" s="15"/>
-      <c r="D53" s="16"/>
-      <c r="E53" s="7"/>
-    </row>
-    <row r="54" spans="1:5">
+      <c r="B53" s="51"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="7"/>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="12">
         <v>53</v>
       </c>
-      <c r="B54" s="15"/>
-      <c r="C54" s="15"/>
-      <c r="D54" s="16"/>
-      <c r="E54" s="7"/>
-    </row>
-    <row r="55" spans="1:5">
+      <c r="B54" s="51"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="7"/>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="12">
         <v>54</v>
       </c>
-      <c r="B55" s="15"/>
-      <c r="C55" s="15"/>
-      <c r="D55" s="16"/>
-      <c r="E55" s="7"/>
-    </row>
-    <row r="56" spans="1:5">
+      <c r="B55" s="51"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="7"/>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="12">
         <v>55</v>
       </c>
-      <c r="B56" s="15"/>
-      <c r="C56" s="15"/>
-      <c r="D56" s="16"/>
-      <c r="E56" s="7"/>
-    </row>
-    <row r="57" spans="1:5">
+      <c r="B56" s="51"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="7"/>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="12">
         <v>56</v>
       </c>
-      <c r="B57" s="15"/>
-      <c r="C57" s="15"/>
-      <c r="D57" s="16"/>
-      <c r="E57" s="7"/>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="B57" s="51"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="7"/>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="12">
         <v>57</v>
       </c>
-      <c r="B58" s="15"/>
-      <c r="C58" s="15"/>
-      <c r="D58" s="16"/>
-      <c r="E58" s="7"/>
-    </row>
-    <row r="59" spans="1:5">
+      <c r="B58" s="51"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="7"/>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="12">
         <v>58</v>
       </c>
-      <c r="B59" s="15"/>
-      <c r="C59" s="15"/>
-      <c r="D59" s="16"/>
-      <c r="E59" s="7"/>
-    </row>
-    <row r="60" spans="1:5">
+      <c r="B59" s="51"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="7"/>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="12">
         <v>59</v>
       </c>
-      <c r="B60" s="15"/>
-      <c r="C60" s="15"/>
-      <c r="D60" s="16"/>
-      <c r="E60" s="7"/>
-    </row>
-    <row r="61" spans="1:5">
+      <c r="B60" s="51"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="15"/>
+      <c r="F60" s="7"/>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="12">
         <v>60</v>
       </c>
-      <c r="B61" s="15"/>
-      <c r="C61" s="15"/>
-      <c r="D61" s="16"/>
-      <c r="E61" s="7"/>
-    </row>
-    <row r="62" spans="1:5">
+      <c r="B61" s="51"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="15"/>
+      <c r="F61" s="7"/>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="12">
         <v>61</v>
       </c>
-      <c r="B62" s="15"/>
-      <c r="C62" s="15"/>
-      <c r="D62" s="16"/>
-      <c r="E62" s="7"/>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="B62" s="51"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="15"/>
+      <c r="F62" s="7"/>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="12">
         <v>62</v>
       </c>
-      <c r="B63" s="15"/>
-      <c r="C63" s="15"/>
-      <c r="D63" s="16"/>
-      <c r="E63" s="7"/>
-    </row>
-    <row r="64" spans="1:5">
+      <c r="B63" s="51"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="15"/>
+      <c r="F63" s="7"/>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="12">
         <v>63</v>
       </c>
-      <c r="B64" s="15"/>
-      <c r="C64" s="15"/>
-      <c r="D64" s="16"/>
-      <c r="E64" s="7"/>
-    </row>
-    <row r="65" spans="1:5">
+      <c r="B64" s="51"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="15"/>
+      <c r="F64" s="7"/>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="12">
         <v>64</v>
       </c>
-      <c r="B65" s="15"/>
-      <c r="C65" s="15"/>
-      <c r="D65" s="16"/>
-      <c r="E65" s="7"/>
-    </row>
-    <row r="66" spans="1:5">
+      <c r="B65" s="51"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="15"/>
+      <c r="F65" s="7"/>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="12">
         <v>65</v>
       </c>
-      <c r="B66" s="15"/>
-      <c r="C66" s="15"/>
-      <c r="D66" s="16"/>
-      <c r="E66" s="7"/>
-    </row>
-    <row r="67" spans="1:5">
+      <c r="B66" s="51"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="15"/>
+      <c r="F66" s="7"/>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="12">
         <v>66</v>
       </c>
-      <c r="B67" s="15"/>
-      <c r="C67" s="15"/>
-      <c r="D67" s="16"/>
-      <c r="E67" s="7"/>
-    </row>
-    <row r="68" spans="1:5">
+      <c r="B67" s="51"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="15"/>
+      <c r="F67" s="7"/>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="12">
         <v>67</v>
       </c>
-      <c r="B68" s="15"/>
-      <c r="C68" s="15"/>
-      <c r="D68" s="16"/>
-      <c r="E68" s="7"/>
-    </row>
-    <row r="69" spans="1:5">
+      <c r="B68" s="51"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="15"/>
+      <c r="F68" s="7"/>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="12">
         <v>68</v>
       </c>
-      <c r="B69" s="15"/>
-      <c r="C69" s="15"/>
-      <c r="D69" s="16"/>
-      <c r="E69" s="7"/>
-    </row>
-    <row r="70" spans="1:5">
+      <c r="B69" s="51"/>
+      <c r="C69" s="14"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="15"/>
+      <c r="F69" s="7"/>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="12">
         <v>69</v>
       </c>
-      <c r="B70" s="15"/>
-      <c r="C70" s="15"/>
-      <c r="D70" s="16"/>
-      <c r="E70" s="7"/>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="B70" s="51"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="15"/>
+      <c r="F70" s="7"/>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="12">
         <v>70</v>
       </c>
-      <c r="B71" s="15"/>
-      <c r="C71" s="15"/>
-      <c r="D71" s="16"/>
-      <c r="E71" s="7"/>
-    </row>
-    <row r="72" spans="1:5">
+      <c r="B71" s="51"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="15"/>
+      <c r="F71" s="7"/>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="12">
         <v>71</v>
       </c>
-      <c r="B72" s="15"/>
-      <c r="C72" s="15"/>
-      <c r="D72" s="16"/>
-      <c r="E72" s="7"/>
-    </row>
-    <row r="73" spans="1:5">
+      <c r="B72" s="51"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="15"/>
+      <c r="F72" s="7"/>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="12">
         <v>72</v>
       </c>
-      <c r="B73" s="15"/>
-      <c r="C73" s="15"/>
-      <c r="D73" s="16"/>
-      <c r="E73" s="7"/>
-    </row>
-    <row r="74" spans="1:5">
+      <c r="B73" s="51"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="15"/>
+      <c r="F73" s="7"/>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="12">
         <v>73</v>
       </c>
-      <c r="B74" s="15"/>
-      <c r="C74" s="15"/>
-      <c r="D74" s="16"/>
-      <c r="E74" s="7"/>
-    </row>
-    <row r="75" spans="1:5">
+      <c r="B74" s="51"/>
+      <c r="C74" s="14"/>
+      <c r="D74" s="14"/>
+      <c r="E74" s="15"/>
+      <c r="F74" s="7"/>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="12">
         <v>74</v>
       </c>
-      <c r="B75" s="15"/>
-      <c r="C75" s="15"/>
-      <c r="D75" s="16"/>
-      <c r="E75" s="7"/>
-    </row>
-    <row r="76" spans="1:5">
+      <c r="B75" s="51"/>
+      <c r="C75" s="14"/>
+      <c r="D75" s="14"/>
+      <c r="E75" s="15"/>
+      <c r="F75" s="7"/>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="12">
         <v>75</v>
       </c>
-      <c r="B76" s="15"/>
-      <c r="C76" s="15"/>
-      <c r="D76" s="16"/>
-      <c r="E76" s="7"/>
-    </row>
-    <row r="77" spans="1:5">
+      <c r="B76" s="51"/>
+      <c r="C76" s="14"/>
+      <c r="D76" s="14"/>
+      <c r="E76" s="15"/>
+      <c r="F76" s="7"/>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="12">
         <v>76</v>
       </c>
-      <c r="B77" s="15"/>
-      <c r="C77" s="15"/>
-      <c r="D77" s="16"/>
-      <c r="E77" s="7"/>
-    </row>
-    <row r="78" spans="1:5">
+      <c r="B77" s="51"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="15"/>
+      <c r="F77" s="7"/>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="12">
         <v>77</v>
       </c>
-      <c r="B78" s="15"/>
-      <c r="C78" s="15"/>
-      <c r="D78" s="16"/>
-      <c r="E78" s="7"/>
-    </row>
-    <row r="79" spans="1:5">
+      <c r="B78" s="51"/>
+      <c r="C78" s="14"/>
+      <c r="D78" s="14"/>
+      <c r="E78" s="15"/>
+      <c r="F78" s="7"/>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="12">
         <v>78</v>
       </c>
-      <c r="B79" s="15"/>
-      <c r="C79" s="15"/>
-      <c r="D79" s="16"/>
-      <c r="E79" s="7"/>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="B79" s="51"/>
+      <c r="C79" s="14"/>
+      <c r="D79" s="14"/>
+      <c r="E79" s="15"/>
+      <c r="F79" s="7"/>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="12">
         <v>79</v>
       </c>
-      <c r="B80" s="15"/>
-      <c r="C80" s="15"/>
-      <c r="D80" s="16"/>
-      <c r="E80" s="7"/>
-    </row>
-    <row r="81" spans="1:5">
+      <c r="B80" s="51"/>
+      <c r="C80" s="14"/>
+      <c r="D80" s="14"/>
+      <c r="E80" s="15"/>
+      <c r="F80" s="7"/>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="12">
         <v>80</v>
       </c>
-      <c r="B81" s="15"/>
-      <c r="C81" s="15"/>
-      <c r="D81" s="16"/>
-      <c r="E81" s="7"/>
-    </row>
-    <row r="82" spans="1:5">
+      <c r="B81" s="51"/>
+      <c r="C81" s="14"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="15"/>
+      <c r="F81" s="7"/>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="12">
         <v>81</v>
       </c>
-      <c r="B82" s="15"/>
-      <c r="C82" s="15"/>
-      <c r="D82" s="16"/>
-      <c r="E82" s="7"/>
-    </row>
-    <row r="83" spans="1:5">
+      <c r="B82" s="51"/>
+      <c r="C82" s="14"/>
+      <c r="D82" s="14"/>
+      <c r="E82" s="15"/>
+      <c r="F82" s="7"/>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="12">
         <v>82</v>
       </c>
-      <c r="B83" s="15"/>
-      <c r="C83" s="15"/>
-      <c r="D83" s="16"/>
-      <c r="E83" s="7"/>
-    </row>
-    <row r="84" spans="1:5">
+      <c r="B83" s="51"/>
+      <c r="C83" s="14"/>
+      <c r="D83" s="14"/>
+      <c r="E83" s="15"/>
+      <c r="F83" s="7"/>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="12">
         <v>83</v>
       </c>
-      <c r="B84" s="15"/>
-      <c r="C84" s="15"/>
-      <c r="D84" s="16"/>
-      <c r="E84" s="7"/>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="B84" s="51"/>
+      <c r="C84" s="14"/>
+      <c r="D84" s="14"/>
+      <c r="E84" s="15"/>
+      <c r="F84" s="7"/>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="12">
         <v>84</v>
       </c>
-      <c r="B85" s="15"/>
-      <c r="C85" s="15"/>
-      <c r="D85" s="16"/>
-      <c r="E85" s="7"/>
-    </row>
-    <row r="86" spans="1:5">
+      <c r="B85" s="51"/>
+      <c r="C85" s="14"/>
+      <c r="D85" s="14"/>
+      <c r="E85" s="15"/>
+      <c r="F85" s="7"/>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="12">
         <v>85</v>
       </c>
-      <c r="B86" s="15"/>
-      <c r="C86" s="15"/>
-      <c r="D86" s="16"/>
-      <c r="E86" s="7"/>
-    </row>
-    <row r="87" spans="1:5">
+      <c r="B86" s="51"/>
+      <c r="C86" s="14"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="15"/>
+      <c r="F86" s="7"/>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="12">
         <v>86</v>
       </c>
-      <c r="B87" s="15"/>
-      <c r="C87" s="15"/>
-      <c r="D87" s="16"/>
-      <c r="E87" s="7"/>
-    </row>
-    <row r="88" spans="1:5">
+      <c r="B87" s="51"/>
+      <c r="C87" s="14"/>
+      <c r="D87" s="14"/>
+      <c r="E87" s="15"/>
+      <c r="F87" s="7"/>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="12">
         <v>87</v>
       </c>
-      <c r="B88" s="15"/>
-      <c r="C88" s="15"/>
-      <c r="D88" s="16"/>
-      <c r="E88" s="7"/>
-    </row>
-    <row r="89" spans="1:5">
+      <c r="B88" s="51"/>
+      <c r="C88" s="14"/>
+      <c r="D88" s="14"/>
+      <c r="E88" s="15"/>
+      <c r="F88" s="7"/>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="12">
         <v>88</v>
       </c>
-      <c r="B89" s="15"/>
-      <c r="C89" s="15"/>
-      <c r="D89" s="16"/>
-      <c r="E89" s="7"/>
-    </row>
-    <row r="90" spans="1:5">
+      <c r="B89" s="51"/>
+      <c r="C89" s="14"/>
+      <c r="D89" s="14"/>
+      <c r="E89" s="15"/>
+      <c r="F89" s="7"/>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="12">
         <v>89</v>
       </c>
-      <c r="B90" s="15"/>
-      <c r="C90" s="15"/>
-      <c r="D90" s="16"/>
-      <c r="E90" s="7"/>
-    </row>
-    <row r="91" spans="1:5">
+      <c r="B90" s="51"/>
+      <c r="C90" s="14"/>
+      <c r="D90" s="14"/>
+      <c r="E90" s="15"/>
+      <c r="F90" s="7"/>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="12">
         <v>90</v>
       </c>
-      <c r="B91" s="15"/>
-      <c r="C91" s="15"/>
-      <c r="D91" s="16"/>
-      <c r="E91" s="7"/>
-    </row>
-    <row r="92" spans="1:5">
+      <c r="B91" s="51"/>
+      <c r="C91" s="14"/>
+      <c r="D91" s="14"/>
+      <c r="E91" s="15"/>
+      <c r="F91" s="7"/>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="12">
         <v>91</v>
       </c>
-      <c r="B92" s="15"/>
-      <c r="C92" s="15"/>
-      <c r="D92" s="16"/>
-      <c r="E92" s="7"/>
-    </row>
-    <row r="93" spans="1:5">
+      <c r="B92" s="51"/>
+      <c r="C92" s="14"/>
+      <c r="D92" s="14"/>
+      <c r="E92" s="15"/>
+      <c r="F92" s="7"/>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="12">
         <v>92</v>
       </c>
-      <c r="B93" s="15"/>
-      <c r="C93" s="15"/>
-      <c r="D93" s="16"/>
-      <c r="E93" s="7"/>
-    </row>
-    <row r="94" spans="1:5">
+      <c r="B93" s="51"/>
+      <c r="C93" s="14"/>
+      <c r="D93" s="14"/>
+      <c r="E93" s="15"/>
+      <c r="F93" s="7"/>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="12">
         <v>93</v>
       </c>
-      <c r="B94" s="15"/>
-      <c r="C94" s="15"/>
-      <c r="D94" s="16"/>
-      <c r="E94" s="7"/>
-    </row>
-    <row r="95" spans="1:5">
+      <c r="B94" s="51"/>
+      <c r="C94" s="14"/>
+      <c r="D94" s="14"/>
+      <c r="E94" s="15"/>
+      <c r="F94" s="7"/>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="12">
         <v>94</v>
       </c>
-      <c r="B95" s="15"/>
-      <c r="C95" s="15"/>
-      <c r="D95" s="16"/>
-      <c r="E95" s="7"/>
-    </row>
-    <row r="96" spans="1:5">
+      <c r="B95" s="51"/>
+      <c r="C95" s="14"/>
+      <c r="D95" s="14"/>
+      <c r="E95" s="15"/>
+      <c r="F95" s="7"/>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="12">
         <v>95</v>
       </c>
-      <c r="B96" s="15"/>
-      <c r="C96" s="15"/>
-      <c r="D96" s="16"/>
-      <c r="E96" s="7"/>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="B96" s="51"/>
+      <c r="C96" s="14"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="15"/>
+      <c r="F96" s="7"/>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="12">
         <v>96</v>
       </c>
-      <c r="B97" s="15"/>
-      <c r="C97" s="15"/>
-      <c r="D97" s="16"/>
-      <c r="E97" s="7"/>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="B97" s="51"/>
+      <c r="C97" s="14"/>
+      <c r="D97" s="14"/>
+      <c r="E97" s="15"/>
+      <c r="F97" s="7"/>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="12">
         <v>97</v>
       </c>
-      <c r="B98" s="15"/>
-      <c r="C98" s="15"/>
-      <c r="D98" s="16"/>
-      <c r="E98" s="7"/>
-    </row>
-    <row r="99" spans="1:5">
+      <c r="B98" s="51"/>
+      <c r="C98" s="14"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="15"/>
+      <c r="F98" s="7"/>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="12">
         <v>98</v>
       </c>
-      <c r="B99" s="15"/>
-      <c r="C99" s="15"/>
-      <c r="D99" s="16"/>
-      <c r="E99" s="7"/>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="B99" s="51"/>
+      <c r="C99" s="14"/>
+      <c r="D99" s="14"/>
+      <c r="E99" s="15"/>
+      <c r="F99" s="7"/>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="12">
         <v>99</v>
       </c>
-      <c r="B100" s="15"/>
-      <c r="C100" s="15"/>
-      <c r="D100" s="16"/>
-      <c r="E100" s="7"/>
-    </row>
-    <row r="101" spans="1:5" ht="14" thickBot="1">
-      <c r="A101" s="13">
+      <c r="B100" s="51"/>
+      <c r="C100" s="14"/>
+      <c r="D100" s="14"/>
+      <c r="E100" s="15"/>
+      <c r="F100" s="7"/>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" s="12">
         <v>100</v>
       </c>
-      <c r="B101" s="17"/>
-      <c r="C101" s="17"/>
-      <c r="D101" s="18"/>
-      <c r="E101" s="7"/>
-    </row>
-    <row r="102" spans="1:5" ht="14" thickTop="1">
-      <c r="A102" s="8"/>
-      <c r="B102" s="8"/>
-      <c r="C102" s="8"/>
-      <c r="D102" s="8"/>
+      <c r="B101" s="51"/>
+      <c r="C101" s="14"/>
+      <c r="D101" s="14"/>
+      <c r="E101" s="15"/>
+      <c r="F101" s="7"/>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" s="12">
+        <v>101</v>
+      </c>
+      <c r="B102" s="51"/>
+      <c r="C102" s="14"/>
+      <c r="D102" s="14"/>
+      <c r="E102" s="15"/>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" s="12">
+        <v>102</v>
+      </c>
+      <c r="B103" s="51"/>
+      <c r="C103" s="14"/>
+      <c r="D103" s="14"/>
+      <c r="E103" s="15"/>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" s="12">
+        <v>103</v>
+      </c>
+      <c r="B104" s="51"/>
+      <c r="C104" s="14"/>
+      <c r="D104" s="14"/>
+      <c r="E104" s="15"/>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" s="12">
+        <v>104</v>
+      </c>
+      <c r="B105" s="51"/>
+      <c r="C105" s="14"/>
+      <c r="D105" s="14"/>
+      <c r="E105" s="15"/>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" s="12">
+        <v>105</v>
+      </c>
+      <c r="B106" s="51"/>
+      <c r="C106" s="14"/>
+      <c r="D106" s="14"/>
+      <c r="E106" s="15"/>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" s="12">
+        <v>106</v>
+      </c>
+      <c r="B107" s="51"/>
+      <c r="C107" s="14"/>
+      <c r="D107" s="14"/>
+      <c r="E107" s="15"/>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" s="12">
+        <v>107</v>
+      </c>
+      <c r="B108" s="51"/>
+      <c r="C108" s="14"/>
+      <c r="D108" s="14"/>
+      <c r="E108" s="15"/>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" s="12">
+        <v>108</v>
+      </c>
+      <c r="B109" s="51"/>
+      <c r="C109" s="14"/>
+      <c r="D109" s="14"/>
+      <c r="E109" s="15"/>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" s="12">
+        <v>109</v>
+      </c>
+      <c r="B110" s="51"/>
+      <c r="C110" s="14"/>
+      <c r="D110" s="14"/>
+      <c r="E110" s="15"/>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" s="12">
+        <v>110</v>
+      </c>
+      <c r="B111" s="51"/>
+      <c r="C111" s="14"/>
+      <c r="D111" s="14"/>
+      <c r="E111" s="15"/>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" s="12">
+        <v>111</v>
+      </c>
+      <c r="B112" s="51"/>
+      <c r="C112" s="14"/>
+      <c r="D112" s="14"/>
+      <c r="E112" s="15"/>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="12">
+        <v>112</v>
+      </c>
+      <c r="B113" s="51"/>
+      <c r="C113" s="14"/>
+      <c r="D113" s="14"/>
+      <c r="E113" s="15"/>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="12">
+        <v>113</v>
+      </c>
+      <c r="B114" s="51"/>
+      <c r="C114" s="14"/>
+      <c r="D114" s="14"/>
+      <c r="E114" s="15"/>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" s="12">
+        <v>114</v>
+      </c>
+      <c r="B115" s="51"/>
+      <c r="C115" s="14"/>
+      <c r="D115" s="14"/>
+      <c r="E115" s="15"/>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="12">
+        <v>115</v>
+      </c>
+      <c r="B116" s="51"/>
+      <c r="C116" s="14"/>
+      <c r="D116" s="14"/>
+      <c r="E116" s="15"/>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="12">
+        <v>116</v>
+      </c>
+      <c r="B117" s="51"/>
+      <c r="C117" s="14"/>
+      <c r="D117" s="14"/>
+      <c r="E117" s="15"/>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="12">
+        <v>117</v>
+      </c>
+      <c r="B118" s="51"/>
+      <c r="C118" s="14"/>
+      <c r="D118" s="14"/>
+      <c r="E118" s="15"/>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" s="12">
+        <v>118</v>
+      </c>
+      <c r="B119" s="51"/>
+      <c r="C119" s="14"/>
+      <c r="D119" s="14"/>
+      <c r="E119" s="15"/>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" s="12">
+        <v>119</v>
+      </c>
+      <c r="B120" s="51"/>
+      <c r="C120" s="14"/>
+      <c r="D120" s="14"/>
+      <c r="E120" s="15"/>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" s="12">
+        <v>120</v>
+      </c>
+      <c r="B121" s="51"/>
+      <c r="C121" s="14"/>
+      <c r="D121" s="14"/>
+      <c r="E121" s="15"/>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" s="12">
+        <v>121</v>
+      </c>
+      <c r="B122" s="51"/>
+      <c r="C122" s="14"/>
+      <c r="D122" s="14"/>
+      <c r="E122" s="15"/>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" s="12">
+        <v>122</v>
+      </c>
+      <c r="B123" s="51"/>
+      <c r="C123" s="14"/>
+      <c r="D123" s="14"/>
+      <c r="E123" s="15"/>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" s="12">
+        <v>123</v>
+      </c>
+      <c r="B124" s="51"/>
+      <c r="C124" s="14"/>
+      <c r="D124" s="14"/>
+      <c r="E124" s="15"/>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="12">
+        <v>124</v>
+      </c>
+      <c r="B125" s="51"/>
+      <c r="C125" s="14"/>
+      <c r="D125" s="14"/>
+      <c r="E125" s="15"/>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" s="12">
+        <v>125</v>
+      </c>
+      <c r="B126" s="51"/>
+      <c r="C126" s="14"/>
+      <c r="D126" s="14"/>
+      <c r="E126" s="15"/>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" s="12">
+        <v>126</v>
+      </c>
+      <c r="B127" s="51"/>
+      <c r="C127" s="14"/>
+      <c r="D127" s="14"/>
+      <c r="E127" s="15"/>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" s="12">
+        <v>127</v>
+      </c>
+      <c r="B128" s="51"/>
+      <c r="C128" s="14"/>
+      <c r="D128" s="14"/>
+      <c r="E128" s="15"/>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="12">
+        <v>128</v>
+      </c>
+      <c r="B129" s="51"/>
+      <c r="C129" s="14"/>
+      <c r="D129" s="14"/>
+      <c r="E129" s="15"/>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" s="12">
+        <v>129</v>
+      </c>
+      <c r="B130" s="51"/>
+      <c r="C130" s="14"/>
+      <c r="D130" s="14"/>
+      <c r="E130" s="15"/>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="12">
+        <v>130</v>
+      </c>
+      <c r="B131" s="51"/>
+      <c r="C131" s="14"/>
+      <c r="D131" s="14"/>
+      <c r="E131" s="15"/>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="12">
+        <v>131</v>
+      </c>
+      <c r="B132" s="51"/>
+      <c r="C132" s="14"/>
+      <c r="D132" s="14"/>
+      <c r="E132" s="15"/>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" s="12">
+        <v>132</v>
+      </c>
+      <c r="B133" s="51"/>
+      <c r="C133" s="14"/>
+      <c r="D133" s="14"/>
+      <c r="E133" s="15"/>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" s="12">
+        <v>133</v>
+      </c>
+      <c r="B134" s="51"/>
+      <c r="C134" s="14"/>
+      <c r="D134" s="14"/>
+      <c r="E134" s="15"/>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" s="12">
+        <v>134</v>
+      </c>
+      <c r="B135" s="51"/>
+      <c r="C135" s="14"/>
+      <c r="D135" s="14"/>
+      <c r="E135" s="15"/>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" s="12">
+        <v>135</v>
+      </c>
+      <c r="B136" s="51"/>
+      <c r="C136" s="14"/>
+      <c r="D136" s="14"/>
+      <c r="E136" s="15"/>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" s="12">
+        <v>136</v>
+      </c>
+      <c r="B137" s="51"/>
+      <c r="C137" s="14"/>
+      <c r="D137" s="14"/>
+      <c r="E137" s="15"/>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" s="12">
+        <v>137</v>
+      </c>
+      <c r="B138" s="51"/>
+      <c r="C138" s="14"/>
+      <c r="D138" s="14"/>
+      <c r="E138" s="15"/>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" s="12">
+        <v>138</v>
+      </c>
+      <c r="B139" s="51"/>
+      <c r="C139" s="14"/>
+      <c r="D139" s="14"/>
+      <c r="E139" s="15"/>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" s="12">
+        <v>139</v>
+      </c>
+      <c r="B140" s="51"/>
+      <c r="C140" s="14"/>
+      <c r="D140" s="14"/>
+      <c r="E140" s="15"/>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" s="12">
+        <v>140</v>
+      </c>
+      <c r="B141" s="51"/>
+      <c r="C141" s="14"/>
+      <c r="D141" s="14"/>
+      <c r="E141" s="15"/>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" s="12">
+        <v>141</v>
+      </c>
+      <c r="B142" s="51"/>
+      <c r="C142" s="14"/>
+      <c r="D142" s="14"/>
+      <c r="E142" s="15"/>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" s="12">
+        <v>142</v>
+      </c>
+      <c r="B143" s="51"/>
+      <c r="C143" s="14"/>
+      <c r="D143" s="14"/>
+      <c r="E143" s="15"/>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" s="12">
+        <v>143</v>
+      </c>
+      <c r="B144" s="51"/>
+      <c r="C144" s="14"/>
+      <c r="D144" s="14"/>
+      <c r="E144" s="15"/>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" s="12">
+        <v>144</v>
+      </c>
+      <c r="B145" s="51"/>
+      <c r="C145" s="14"/>
+      <c r="D145" s="14"/>
+      <c r="E145" s="15"/>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" s="12">
+        <v>145</v>
+      </c>
+      <c r="B146" s="51"/>
+      <c r="C146" s="14"/>
+      <c r="D146" s="14"/>
+      <c r="E146" s="15"/>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" s="12">
+        <v>146</v>
+      </c>
+      <c r="B147" s="51"/>
+      <c r="C147" s="14"/>
+      <c r="D147" s="14"/>
+      <c r="E147" s="15"/>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" s="12">
+        <v>147</v>
+      </c>
+      <c r="B148" s="51"/>
+      <c r="C148" s="14"/>
+      <c r="D148" s="14"/>
+      <c r="E148" s="15"/>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" s="12">
+        <v>148</v>
+      </c>
+      <c r="B149" s="51"/>
+      <c r="C149" s="14"/>
+      <c r="D149" s="14"/>
+      <c r="E149" s="15"/>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" s="12">
+        <v>149</v>
+      </c>
+      <c r="B150" s="51"/>
+      <c r="C150" s="14"/>
+      <c r="D150" s="14"/>
+      <c r="E150" s="15"/>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" s="12">
+        <v>150</v>
+      </c>
+      <c r="B151" s="51"/>
+      <c r="C151" s="14"/>
+      <c r="D151" s="14"/>
+      <c r="E151" s="15"/>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" s="12">
+        <v>151</v>
+      </c>
+      <c r="B152" s="51"/>
+      <c r="C152" s="14"/>
+      <c r="D152" s="14"/>
+      <c r="E152" s="15"/>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" s="12">
+        <v>152</v>
+      </c>
+      <c r="B153" s="51"/>
+      <c r="C153" s="14"/>
+      <c r="D153" s="14"/>
+      <c r="E153" s="15"/>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" s="12">
+        <v>153</v>
+      </c>
+      <c r="B154" s="51"/>
+      <c r="C154" s="14"/>
+      <c r="D154" s="14"/>
+      <c r="E154" s="15"/>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" s="12">
+        <v>154</v>
+      </c>
+      <c r="B155" s="51"/>
+      <c r="C155" s="14"/>
+      <c r="D155" s="14"/>
+      <c r="E155" s="15"/>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" s="12">
+        <v>155</v>
+      </c>
+      <c r="B156" s="51"/>
+      <c r="C156" s="14"/>
+      <c r="D156" s="14"/>
+      <c r="E156" s="15"/>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" s="12">
+        <v>156</v>
+      </c>
+      <c r="B157" s="51"/>
+      <c r="C157" s="14"/>
+      <c r="D157" s="14"/>
+      <c r="E157" s="15"/>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" s="12">
+        <v>157</v>
+      </c>
+      <c r="B158" s="51"/>
+      <c r="C158" s="14"/>
+      <c r="D158" s="14"/>
+      <c r="E158" s="15"/>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" s="12">
+        <v>158</v>
+      </c>
+      <c r="B159" s="51"/>
+      <c r="C159" s="14"/>
+      <c r="D159" s="14"/>
+      <c r="E159" s="15"/>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" s="12">
+        <v>159</v>
+      </c>
+      <c r="B160" s="51"/>
+      <c r="C160" s="14"/>
+      <c r="D160" s="14"/>
+      <c r="E160" s="15"/>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" s="12">
+        <v>160</v>
+      </c>
+      <c r="B161" s="51"/>
+      <c r="C161" s="14"/>
+      <c r="D161" s="14"/>
+      <c r="E161" s="15"/>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" s="12">
+        <v>161</v>
+      </c>
+      <c r="B162" s="51"/>
+      <c r="C162" s="14"/>
+      <c r="D162" s="14"/>
+      <c r="E162" s="15"/>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" s="12">
+        <v>162</v>
+      </c>
+      <c r="B163" s="51"/>
+      <c r="C163" s="14"/>
+      <c r="D163" s="14"/>
+      <c r="E163" s="15"/>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" s="12">
+        <v>163</v>
+      </c>
+      <c r="B164" s="51"/>
+      <c r="C164" s="14"/>
+      <c r="D164" s="14"/>
+      <c r="E164" s="15"/>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" s="12">
+        <v>164</v>
+      </c>
+      <c r="B165" s="51"/>
+      <c r="C165" s="14"/>
+      <c r="D165" s="14"/>
+      <c r="E165" s="15"/>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" s="12">
+        <v>165</v>
+      </c>
+      <c r="B166" s="51"/>
+      <c r="C166" s="14"/>
+      <c r="D166" s="14"/>
+      <c r="E166" s="15"/>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" s="12">
+        <v>166</v>
+      </c>
+      <c r="B167" s="51"/>
+      <c r="C167" s="14"/>
+      <c r="D167" s="14"/>
+      <c r="E167" s="15"/>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" s="12">
+        <v>167</v>
+      </c>
+      <c r="B168" s="51"/>
+      <c r="C168" s="14"/>
+      <c r="D168" s="14"/>
+      <c r="E168" s="15"/>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" s="12">
+        <v>168</v>
+      </c>
+      <c r="B169" s="51"/>
+      <c r="C169" s="14"/>
+      <c r="D169" s="14"/>
+      <c r="E169" s="15"/>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170" s="12">
+        <v>169</v>
+      </c>
+      <c r="B170" s="51"/>
+      <c r="C170" s="14"/>
+      <c r="D170" s="14"/>
+      <c r="E170" s="15"/>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171" s="12">
+        <v>170</v>
+      </c>
+      <c r="B171" s="51"/>
+      <c r="C171" s="14"/>
+      <c r="D171" s="14"/>
+      <c r="E171" s="15"/>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172" s="12">
+        <v>171</v>
+      </c>
+      <c r="B172" s="51"/>
+      <c r="C172" s="14"/>
+      <c r="D172" s="14"/>
+      <c r="E172" s="15"/>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173" s="12">
+        <v>172</v>
+      </c>
+      <c r="B173" s="51"/>
+      <c r="C173" s="14"/>
+      <c r="D173" s="14"/>
+      <c r="E173" s="15"/>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" s="12">
+        <v>173</v>
+      </c>
+      <c r="B174" s="51"/>
+      <c r="C174" s="14"/>
+      <c r="D174" s="14"/>
+      <c r="E174" s="15"/>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175" s="12">
+        <v>174</v>
+      </c>
+      <c r="B175" s="51"/>
+      <c r="C175" s="14"/>
+      <c r="D175" s="14"/>
+      <c r="E175" s="15"/>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176" s="12">
+        <v>175</v>
+      </c>
+      <c r="B176" s="51"/>
+      <c r="C176" s="14"/>
+      <c r="D176" s="14"/>
+      <c r="E176" s="15"/>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" s="12">
+        <v>176</v>
+      </c>
+      <c r="B177" s="51"/>
+      <c r="C177" s="14"/>
+      <c r="D177" s="14"/>
+      <c r="E177" s="15"/>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178" s="12">
+        <v>177</v>
+      </c>
+      <c r="B178" s="51"/>
+      <c r="C178" s="14"/>
+      <c r="D178" s="14"/>
+      <c r="E178" s="15"/>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179" s="12">
+        <v>178</v>
+      </c>
+      <c r="B179" s="51"/>
+      <c r="C179" s="14"/>
+      <c r="D179" s="14"/>
+      <c r="E179" s="15"/>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180" s="12">
+        <v>179</v>
+      </c>
+      <c r="B180" s="51"/>
+      <c r="C180" s="14"/>
+      <c r="D180" s="14"/>
+      <c r="E180" s="15"/>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" s="12">
+        <v>180</v>
+      </c>
+      <c r="B181" s="51"/>
+      <c r="C181" s="14"/>
+      <c r="D181" s="14"/>
+      <c r="E181" s="15"/>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182" s="12">
+        <v>181</v>
+      </c>
+      <c r="B182" s="51"/>
+      <c r="C182" s="14"/>
+      <c r="D182" s="14"/>
+      <c r="E182" s="15"/>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183" s="12">
+        <v>182</v>
+      </c>
+      <c r="B183" s="51"/>
+      <c r="C183" s="14"/>
+      <c r="D183" s="14"/>
+      <c r="E183" s="15"/>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184" s="12">
+        <v>183</v>
+      </c>
+      <c r="B184" s="51"/>
+      <c r="C184" s="14"/>
+      <c r="D184" s="14"/>
+      <c r="E184" s="15"/>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185" s="12">
+        <v>184</v>
+      </c>
+      <c r="B185" s="51"/>
+      <c r="C185" s="14"/>
+      <c r="D185" s="14"/>
+      <c r="E185" s="15"/>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186" s="12">
+        <v>185</v>
+      </c>
+      <c r="B186" s="51"/>
+      <c r="C186" s="14"/>
+      <c r="D186" s="14"/>
+      <c r="E186" s="15"/>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187" s="12">
+        <v>186</v>
+      </c>
+      <c r="B187" s="51"/>
+      <c r="C187" s="14"/>
+      <c r="D187" s="14"/>
+      <c r="E187" s="15"/>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188" s="12">
+        <v>187</v>
+      </c>
+      <c r="B188" s="51"/>
+      <c r="C188" s="14"/>
+      <c r="D188" s="14"/>
+      <c r="E188" s="15"/>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189" s="12">
+        <v>188</v>
+      </c>
+      <c r="B189" s="51"/>
+      <c r="C189" s="14"/>
+      <c r="D189" s="14"/>
+      <c r="E189" s="15"/>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190" s="12">
+        <v>189</v>
+      </c>
+      <c r="B190" s="51"/>
+      <c r="C190" s="14"/>
+      <c r="D190" s="14"/>
+      <c r="E190" s="15"/>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191" s="12">
+        <v>190</v>
+      </c>
+      <c r="B191" s="51"/>
+      <c r="C191" s="14"/>
+      <c r="D191" s="14"/>
+      <c r="E191" s="15"/>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192" s="12">
+        <v>191</v>
+      </c>
+      <c r="B192" s="51"/>
+      <c r="C192" s="14"/>
+      <c r="D192" s="14"/>
+      <c r="E192" s="15"/>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193" s="12">
+        <v>192</v>
+      </c>
+      <c r="B193" s="51"/>
+      <c r="C193" s="14"/>
+      <c r="D193" s="14"/>
+      <c r="E193" s="15"/>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194" s="12">
+        <v>193</v>
+      </c>
+      <c r="B194" s="51"/>
+      <c r="C194" s="14"/>
+      <c r="D194" s="14"/>
+      <c r="E194" s="15"/>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195" s="12">
+        <v>194</v>
+      </c>
+      <c r="B195" s="51"/>
+      <c r="C195" s="14"/>
+      <c r="D195" s="14"/>
+      <c r="E195" s="15"/>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196" s="12">
+        <v>195</v>
+      </c>
+      <c r="B196" s="51"/>
+      <c r="C196" s="14"/>
+      <c r="D196" s="14"/>
+      <c r="E196" s="15"/>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197" s="12">
+        <v>196</v>
+      </c>
+      <c r="B197" s="51"/>
+      <c r="C197" s="14"/>
+      <c r="D197" s="14"/>
+      <c r="E197" s="15"/>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198" s="12">
+        <v>197</v>
+      </c>
+      <c r="B198" s="51"/>
+      <c r="C198" s="14"/>
+      <c r="D198" s="14"/>
+      <c r="E198" s="15"/>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="A199" s="12">
+        <v>198</v>
+      </c>
+      <c r="B199" s="51"/>
+      <c r="C199" s="14"/>
+      <c r="D199" s="14"/>
+      <c r="E199" s="15"/>
+    </row>
+    <row r="200" spans="1:5">
+      <c r="A200" s="12">
+        <v>199</v>
+      </c>
+      <c r="B200" s="51"/>
+      <c r="C200" s="14"/>
+      <c r="D200" s="14"/>
+      <c r="E200" s="15"/>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="A201" s="12">
+        <v>200</v>
+      </c>
+      <c r="B201" s="51"/>
+      <c r="C201" s="14"/>
+      <c r="D201" s="14"/>
+      <c r="E201" s="15"/>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="A202" s="12">
+        <v>201</v>
+      </c>
+      <c r="B202" s="51"/>
+      <c r="C202" s="14"/>
+      <c r="D202" s="14"/>
+      <c r="E202" s="15"/>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203" s="12">
+        <v>202</v>
+      </c>
+      <c r="B203" s="51"/>
+      <c r="C203" s="14"/>
+      <c r="D203" s="14"/>
+      <c r="E203" s="15"/>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="A204" s="12">
+        <v>203</v>
+      </c>
+      <c r="B204" s="51"/>
+      <c r="C204" s="14"/>
+      <c r="D204" s="14"/>
+      <c r="E204" s="15"/>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205" s="12">
+        <v>204</v>
+      </c>
+      <c r="B205" s="51"/>
+      <c r="C205" s="14"/>
+      <c r="D205" s="14"/>
+      <c r="E205" s="15"/>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="A206" s="12">
+        <v>205</v>
+      </c>
+      <c r="B206" s="51"/>
+      <c r="C206" s="14"/>
+      <c r="D206" s="14"/>
+      <c r="E206" s="15"/>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="A207" s="12">
+        <v>206</v>
+      </c>
+      <c r="B207" s="51"/>
+      <c r="C207" s="14"/>
+      <c r="D207" s="14"/>
+      <c r="E207" s="15"/>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="A208" s="12">
+        <v>207</v>
+      </c>
+      <c r="B208" s="51"/>
+      <c r="C208" s="14"/>
+      <c r="D208" s="14"/>
+      <c r="E208" s="15"/>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="A209" s="12">
+        <v>208</v>
+      </c>
+      <c r="B209" s="51"/>
+      <c r="C209" s="14"/>
+      <c r="D209" s="14"/>
+      <c r="E209" s="15"/>
+    </row>
+    <row r="210" spans="1:5">
+      <c r="A210" s="12">
+        <v>209</v>
+      </c>
+      <c r="B210" s="51"/>
+      <c r="C210" s="14"/>
+      <c r="D210" s="14"/>
+      <c r="E210" s="15"/>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="A211" s="12">
+        <v>210</v>
+      </c>
+      <c r="B211" s="51"/>
+      <c r="C211" s="14"/>
+      <c r="D211" s="14"/>
+      <c r="E211" s="15"/>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="A212" s="12">
+        <v>211</v>
+      </c>
+      <c r="B212" s="51"/>
+      <c r="C212" s="14"/>
+      <c r="D212" s="14"/>
+      <c r="E212" s="15"/>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="A213" s="12">
+        <v>212</v>
+      </c>
+      <c r="B213" s="51"/>
+      <c r="C213" s="14"/>
+      <c r="D213" s="14"/>
+      <c r="E213" s="15"/>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="A214" s="12">
+        <v>213</v>
+      </c>
+      <c r="B214" s="51"/>
+      <c r="C214" s="14"/>
+      <c r="D214" s="14"/>
+      <c r="E214" s="15"/>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="A215" s="12">
+        <v>214</v>
+      </c>
+      <c r="B215" s="51"/>
+      <c r="C215" s="14"/>
+      <c r="D215" s="14"/>
+      <c r="E215" s="15"/>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="A216" s="12">
+        <v>215</v>
+      </c>
+      <c r="B216" s="51"/>
+      <c r="C216" s="14"/>
+      <c r="D216" s="14"/>
+      <c r="E216" s="15"/>
+    </row>
+    <row r="217" spans="1:5">
+      <c r="A217" s="12">
+        <v>216</v>
+      </c>
+      <c r="B217" s="51"/>
+      <c r="C217" s="14"/>
+      <c r="D217" s="14"/>
+      <c r="E217" s="15"/>
+    </row>
+    <row r="218" spans="1:5">
+      <c r="A218" s="12">
+        <v>217</v>
+      </c>
+      <c r="B218" s="51"/>
+      <c r="C218" s="14"/>
+      <c r="D218" s="14"/>
+      <c r="E218" s="15"/>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="A219" s="12">
+        <v>218</v>
+      </c>
+      <c r="B219" s="51"/>
+      <c r="C219" s="14"/>
+      <c r="D219" s="14"/>
+      <c r="E219" s="15"/>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="A220" s="12">
+        <v>219</v>
+      </c>
+      <c r="B220" s="51"/>
+      <c r="C220" s="14"/>
+      <c r="D220" s="14"/>
+      <c r="E220" s="15"/>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="A221" s="12">
+        <v>220</v>
+      </c>
+      <c r="B221" s="51"/>
+      <c r="C221" s="14"/>
+      <c r="D221" s="14"/>
+      <c r="E221" s="15"/>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="A222" s="12">
+        <v>221</v>
+      </c>
+      <c r="B222" s="51"/>
+      <c r="C222" s="14"/>
+      <c r="D222" s="14"/>
+      <c r="E222" s="15"/>
+    </row>
+    <row r="223" spans="1:5">
+      <c r="A223" s="12">
+        <v>222</v>
+      </c>
+      <c r="B223" s="51"/>
+      <c r="C223" s="14"/>
+      <c r="D223" s="14"/>
+      <c r="E223" s="15"/>
+    </row>
+    <row r="224" spans="1:5">
+      <c r="A224" s="12">
+        <v>223</v>
+      </c>
+      <c r="B224" s="51"/>
+      <c r="C224" s="14"/>
+      <c r="D224" s="14"/>
+      <c r="E224" s="15"/>
+    </row>
+    <row r="225" spans="1:5">
+      <c r="A225" s="12">
+        <v>224</v>
+      </c>
+      <c r="B225" s="51"/>
+      <c r="C225" s="14"/>
+      <c r="D225" s="14"/>
+      <c r="E225" s="15"/>
+    </row>
+    <row r="226" spans="1:5">
+      <c r="A226" s="12">
+        <v>225</v>
+      </c>
+      <c r="B226" s="51"/>
+      <c r="C226" s="14"/>
+      <c r="D226" s="14"/>
+      <c r="E226" s="15"/>
+    </row>
+    <row r="227" spans="1:5">
+      <c r="A227" s="12">
+        <v>226</v>
+      </c>
+      <c r="B227" s="51"/>
+      <c r="C227" s="14"/>
+      <c r="D227" s="14"/>
+      <c r="E227" s="15"/>
+    </row>
+    <row r="228" spans="1:5">
+      <c r="A228" s="12">
+        <v>227</v>
+      </c>
+      <c r="B228" s="51"/>
+      <c r="C228" s="14"/>
+      <c r="D228" s="14"/>
+      <c r="E228" s="15"/>
+    </row>
+    <row r="229" spans="1:5">
+      <c r="A229" s="12">
+        <v>228</v>
+      </c>
+      <c r="B229" s="51"/>
+      <c r="C229" s="14"/>
+      <c r="D229" s="14"/>
+      <c r="E229" s="15"/>
+    </row>
+    <row r="230" spans="1:5">
+      <c r="A230" s="12">
+        <v>229</v>
+      </c>
+      <c r="B230" s="51"/>
+      <c r="C230" s="14"/>
+      <c r="D230" s="14"/>
+      <c r="E230" s="15"/>
+    </row>
+    <row r="231" spans="1:5">
+      <c r="A231" s="12">
+        <v>230</v>
+      </c>
+      <c r="B231" s="51"/>
+      <c r="C231" s="14"/>
+      <c r="D231" s="14"/>
+      <c r="E231" s="15"/>
+    </row>
+    <row r="232" spans="1:5">
+      <c r="A232" s="12">
+        <v>231</v>
+      </c>
+      <c r="B232" s="51"/>
+      <c r="C232" s="14"/>
+      <c r="D232" s="14"/>
+      <c r="E232" s="15"/>
+    </row>
+    <row r="233" spans="1:5">
+      <c r="A233" s="12">
+        <v>232</v>
+      </c>
+      <c r="B233" s="51"/>
+      <c r="C233" s="14"/>
+      <c r="D233" s="14"/>
+      <c r="E233" s="15"/>
+    </row>
+    <row r="234" spans="1:5">
+      <c r="A234" s="12">
+        <v>233</v>
+      </c>
+      <c r="B234" s="51"/>
+      <c r="C234" s="14"/>
+      <c r="D234" s="14"/>
+      <c r="E234" s="15"/>
+    </row>
+    <row r="235" spans="1:5">
+      <c r="A235" s="12">
+        <v>234</v>
+      </c>
+      <c r="B235" s="51"/>
+      <c r="C235" s="14"/>
+      <c r="D235" s="14"/>
+      <c r="E235" s="15"/>
+    </row>
+    <row r="236" spans="1:5">
+      <c r="A236" s="12">
+        <v>235</v>
+      </c>
+      <c r="B236" s="51"/>
+      <c r="C236" s="14"/>
+      <c r="D236" s="14"/>
+      <c r="E236" s="15"/>
+    </row>
+    <row r="237" spans="1:5">
+      <c r="A237" s="12">
+        <v>236</v>
+      </c>
+      <c r="B237" s="51"/>
+      <c r="C237" s="14"/>
+      <c r="D237" s="14"/>
+      <c r="E237" s="15"/>
+    </row>
+    <row r="238" spans="1:5">
+      <c r="A238" s="12">
+        <v>237</v>
+      </c>
+      <c r="B238" s="51"/>
+      <c r="C238" s="14"/>
+      <c r="D238" s="14"/>
+      <c r="E238" s="15"/>
+    </row>
+    <row r="239" spans="1:5">
+      <c r="A239" s="12">
+        <v>238</v>
+      </c>
+      <c r="B239" s="51"/>
+      <c r="C239" s="14"/>
+      <c r="D239" s="14"/>
+      <c r="E239" s="15"/>
+    </row>
+    <row r="240" spans="1:5">
+      <c r="A240" s="12">
+        <v>239</v>
+      </c>
+      <c r="B240" s="51"/>
+      <c r="C240" s="14"/>
+      <c r="D240" s="14"/>
+      <c r="E240" s="15"/>
+    </row>
+    <row r="241" spans="1:5">
+      <c r="A241" s="12">
+        <v>240</v>
+      </c>
+      <c r="B241" s="51"/>
+      <c r="C241" s="14"/>
+      <c r="D241" s="14"/>
+      <c r="E241" s="15"/>
+    </row>
+    <row r="242" spans="1:5">
+      <c r="A242" s="12">
+        <v>241</v>
+      </c>
+      <c r="B242" s="51"/>
+      <c r="C242" s="14"/>
+      <c r="D242" s="14"/>
+      <c r="E242" s="15"/>
+    </row>
+    <row r="243" spans="1:5">
+      <c r="A243" s="12">
+        <v>242</v>
+      </c>
+      <c r="B243" s="51"/>
+      <c r="C243" s="14"/>
+      <c r="D243" s="14"/>
+      <c r="E243" s="15"/>
+    </row>
+    <row r="244" spans="1:5">
+      <c r="A244" s="12">
+        <v>243</v>
+      </c>
+      <c r="B244" s="51"/>
+      <c r="C244" s="14"/>
+      <c r="D244" s="14"/>
+      <c r="E244" s="15"/>
+    </row>
+    <row r="245" spans="1:5">
+      <c r="A245" s="12">
+        <v>244</v>
+      </c>
+      <c r="B245" s="51"/>
+      <c r="C245" s="14"/>
+      <c r="D245" s="14"/>
+      <c r="E245" s="15"/>
+    </row>
+    <row r="246" spans="1:5">
+      <c r="A246" s="12">
+        <v>245</v>
+      </c>
+      <c r="B246" s="51"/>
+      <c r="C246" s="14"/>
+      <c r="D246" s="14"/>
+      <c r="E246" s="15"/>
+    </row>
+    <row r="247" spans="1:5">
+      <c r="A247" s="12">
+        <v>246</v>
+      </c>
+      <c r="B247" s="51"/>
+      <c r="C247" s="14"/>
+      <c r="D247" s="14"/>
+      <c r="E247" s="15"/>
+    </row>
+    <row r="248" spans="1:5">
+      <c r="A248" s="12">
+        <v>247</v>
+      </c>
+      <c r="B248" s="51"/>
+      <c r="C248" s="14"/>
+      <c r="D248" s="14"/>
+      <c r="E248" s="15"/>
+    </row>
+    <row r="249" spans="1:5">
+      <c r="A249" s="12">
+        <v>248</v>
+      </c>
+      <c r="B249" s="51"/>
+      <c r="C249" s="14"/>
+      <c r="D249" s="14"/>
+      <c r="E249" s="15"/>
+    </row>
+    <row r="250" spans="1:5">
+      <c r="A250" s="12">
+        <v>249</v>
+      </c>
+      <c r="B250" s="51"/>
+      <c r="C250" s="14"/>
+      <c r="D250" s="14"/>
+      <c r="E250" s="15"/>
+    </row>
+    <row r="251" spans="1:5">
+      <c r="A251" s="12">
+        <v>250</v>
+      </c>
+      <c r="B251" s="51"/>
+      <c r="C251" s="14"/>
+      <c r="D251" s="14"/>
+      <c r="E251" s="15"/>
+    </row>
+    <row r="252" spans="1:5">
+      <c r="A252" s="12">
+        <v>251</v>
+      </c>
+      <c r="B252" s="51"/>
+      <c r="C252" s="14"/>
+      <c r="D252" s="14"/>
+      <c r="E252" s="15"/>
+    </row>
+    <row r="253" spans="1:5">
+      <c r="A253" s="12">
+        <v>252</v>
+      </c>
+      <c r="B253" s="51"/>
+      <c r="C253" s="14"/>
+      <c r="D253" s="14"/>
+      <c r="E253" s="15"/>
+    </row>
+    <row r="254" spans="1:5">
+      <c r="A254" s="12">
+        <v>253</v>
+      </c>
+      <c r="B254" s="51"/>
+      <c r="C254" s="14"/>
+      <c r="D254" s="14"/>
+      <c r="E254" s="15"/>
+    </row>
+    <row r="255" spans="1:5">
+      <c r="A255" s="12">
+        <v>254</v>
+      </c>
+      <c r="B255" s="51"/>
+      <c r="C255" s="14"/>
+      <c r="D255" s="14"/>
+      <c r="E255" s="15"/>
+    </row>
+    <row r="256" spans="1:5">
+      <c r="A256" s="12">
+        <v>255</v>
+      </c>
+      <c r="B256" s="51"/>
+      <c r="C256" s="14"/>
+      <c r="D256" s="14"/>
+      <c r="E256" s="15"/>
+    </row>
+    <row r="257" spans="1:5">
+      <c r="A257" s="12">
+        <v>256</v>
+      </c>
+      <c r="B257" s="51"/>
+      <c r="C257" s="14"/>
+      <c r="D257" s="14"/>
+      <c r="E257" s="15"/>
+    </row>
+    <row r="258" spans="1:5">
+      <c r="A258" s="12">
+        <v>257</v>
+      </c>
+      <c r="B258" s="51"/>
+      <c r="C258" s="14"/>
+      <c r="D258" s="14"/>
+      <c r="E258" s="15"/>
+    </row>
+    <row r="259" spans="1:5">
+      <c r="A259" s="12">
+        <v>258</v>
+      </c>
+      <c r="B259" s="51"/>
+      <c r="C259" s="14"/>
+      <c r="D259" s="14"/>
+      <c r="E259" s="15"/>
+    </row>
+    <row r="260" spans="1:5">
+      <c r="A260" s="12">
+        <v>259</v>
+      </c>
+      <c r="B260" s="51"/>
+      <c r="C260" s="14"/>
+      <c r="D260" s="14"/>
+      <c r="E260" s="15"/>
+    </row>
+    <row r="261" spans="1:5">
+      <c r="A261" s="12">
+        <v>260</v>
+      </c>
+      <c r="B261" s="51"/>
+      <c r="C261" s="14"/>
+      <c r="D261" s="14"/>
+      <c r="E261" s="15"/>
+    </row>
+    <row r="262" spans="1:5">
+      <c r="A262" s="12">
+        <v>261</v>
+      </c>
+      <c r="B262" s="51"/>
+      <c r="C262" s="14"/>
+      <c r="D262" s="14"/>
+      <c r="E262" s="15"/>
+    </row>
+    <row r="263" spans="1:5">
+      <c r="A263" s="12">
+        <v>262</v>
+      </c>
+      <c r="B263" s="51"/>
+      <c r="C263" s="14"/>
+      <c r="D263" s="14"/>
+      <c r="E263" s="15"/>
+    </row>
+    <row r="264" spans="1:5">
+      <c r="A264" s="12">
+        <v>263</v>
+      </c>
+      <c r="B264" s="51"/>
+      <c r="C264" s="14"/>
+      <c r="D264" s="14"/>
+      <c r="E264" s="15"/>
+    </row>
+    <row r="265" spans="1:5">
+      <c r="A265" s="12">
+        <v>264</v>
+      </c>
+      <c r="B265" s="51"/>
+      <c r="C265" s="14"/>
+      <c r="D265" s="14"/>
+      <c r="E265" s="15"/>
+    </row>
+    <row r="266" spans="1:5">
+      <c r="A266" s="12">
+        <v>265</v>
+      </c>
+      <c r="B266" s="51"/>
+      <c r="C266" s="14"/>
+      <c r="D266" s="14"/>
+      <c r="E266" s="15"/>
+    </row>
+    <row r="267" spans="1:5">
+      <c r="A267" s="12">
+        <v>266</v>
+      </c>
+      <c r="B267" s="51"/>
+      <c r="C267" s="14"/>
+      <c r="D267" s="14"/>
+      <c r="E267" s="15"/>
+    </row>
+    <row r="268" spans="1:5">
+      <c r="A268" s="12">
+        <v>267</v>
+      </c>
+      <c r="B268" s="51"/>
+      <c r="C268" s="14"/>
+      <c r="D268" s="14"/>
+      <c r="E268" s="15"/>
+    </row>
+    <row r="269" spans="1:5">
+      <c r="A269" s="12">
+        <v>268</v>
+      </c>
+      <c r="B269" s="51"/>
+      <c r="C269" s="14"/>
+      <c r="D269" s="14"/>
+      <c r="E269" s="15"/>
+    </row>
+    <row r="270" spans="1:5">
+      <c r="A270" s="12">
+        <v>269</v>
+      </c>
+      <c r="B270" s="51"/>
+      <c r="C270" s="14"/>
+      <c r="D270" s="14"/>
+      <c r="E270" s="15"/>
+    </row>
+    <row r="271" spans="1:5">
+      <c r="A271" s="12">
+        <v>270</v>
+      </c>
+      <c r="B271" s="51"/>
+      <c r="C271" s="14"/>
+      <c r="D271" s="14"/>
+      <c r="E271" s="15"/>
+    </row>
+    <row r="272" spans="1:5">
+      <c r="A272" s="12">
+        <v>271</v>
+      </c>
+      <c r="B272" s="51"/>
+      <c r="C272" s="14"/>
+      <c r="D272" s="14"/>
+      <c r="E272" s="15"/>
+    </row>
+    <row r="273" spans="1:5">
+      <c r="A273" s="12">
+        <v>272</v>
+      </c>
+      <c r="B273" s="51"/>
+      <c r="C273" s="14"/>
+      <c r="D273" s="14"/>
+      <c r="E273" s="15"/>
+    </row>
+    <row r="274" spans="1:5">
+      <c r="A274" s="12">
+        <v>273</v>
+      </c>
+      <c r="B274" s="51"/>
+      <c r="C274" s="14"/>
+      <c r="D274" s="14"/>
+      <c r="E274" s="15"/>
+    </row>
+    <row r="275" spans="1:5">
+      <c r="A275" s="12">
+        <v>274</v>
+      </c>
+      <c r="B275" s="51"/>
+      <c r="C275" s="14"/>
+      <c r="D275" s="14"/>
+      <c r="E275" s="15"/>
+    </row>
+    <row r="276" spans="1:5">
+      <c r="A276" s="12">
+        <v>275</v>
+      </c>
+      <c r="B276" s="51"/>
+      <c r="C276" s="14"/>
+      <c r="D276" s="14"/>
+      <c r="E276" s="15"/>
+    </row>
+    <row r="277" spans="1:5">
+      <c r="A277" s="12">
+        <v>276</v>
+      </c>
+      <c r="B277" s="51"/>
+      <c r="C277" s="14"/>
+      <c r="D277" s="14"/>
+      <c r="E277" s="15"/>
+    </row>
+    <row r="278" spans="1:5">
+      <c r="A278" s="12">
+        <v>277</v>
+      </c>
+      <c r="B278" s="51"/>
+      <c r="C278" s="14"/>
+      <c r="D278" s="14"/>
+      <c r="E278" s="15"/>
+    </row>
+    <row r="279" spans="1:5">
+      <c r="A279" s="12">
+        <v>278</v>
+      </c>
+      <c r="B279" s="51"/>
+      <c r="C279" s="14"/>
+      <c r="D279" s="14"/>
+      <c r="E279" s="15"/>
+    </row>
+    <row r="280" spans="1:5">
+      <c r="A280" s="12">
+        <v>279</v>
+      </c>
+      <c r="B280" s="51"/>
+      <c r="C280" s="14"/>
+      <c r="D280" s="14"/>
+      <c r="E280" s="15"/>
+    </row>
+    <row r="281" spans="1:5">
+      <c r="A281" s="12">
+        <v>280</v>
+      </c>
+      <c r="B281" s="51"/>
+      <c r="C281" s="14"/>
+      <c r="D281" s="14"/>
+      <c r="E281" s="15"/>
+    </row>
+    <row r="282" spans="1:5">
+      <c r="A282" s="12">
+        <v>281</v>
+      </c>
+      <c r="B282" s="51"/>
+      <c r="C282" s="14"/>
+      <c r="D282" s="14"/>
+      <c r="E282" s="15"/>
+    </row>
+    <row r="283" spans="1:5">
+      <c r="A283" s="12">
+        <v>282</v>
+      </c>
+      <c r="B283" s="51"/>
+      <c r="C283" s="14"/>
+      <c r="D283" s="14"/>
+      <c r="E283" s="15"/>
+    </row>
+    <row r="284" spans="1:5">
+      <c r="A284" s="12">
+        <v>283</v>
+      </c>
+      <c r="B284" s="51"/>
+      <c r="C284" s="14"/>
+      <c r="D284" s="14"/>
+      <c r="E284" s="15"/>
+    </row>
+    <row r="285" spans="1:5">
+      <c r="A285" s="12">
+        <v>284</v>
+      </c>
+      <c r="B285" s="51"/>
+      <c r="C285" s="14"/>
+      <c r="D285" s="14"/>
+      <c r="E285" s="15"/>
+    </row>
+    <row r="286" spans="1:5">
+      <c r="A286" s="12">
+        <v>285</v>
+      </c>
+      <c r="B286" s="51"/>
+      <c r="C286" s="14"/>
+      <c r="D286" s="14"/>
+      <c r="E286" s="15"/>
+    </row>
+    <row r="287" spans="1:5">
+      <c r="A287" s="12">
+        <v>286</v>
+      </c>
+      <c r="B287" s="51"/>
+      <c r="C287" s="14"/>
+      <c r="D287" s="14"/>
+      <c r="E287" s="15"/>
+    </row>
+    <row r="288" spans="1:5">
+      <c r="A288" s="12">
+        <v>287</v>
+      </c>
+      <c r="B288" s="51"/>
+      <c r="C288" s="14"/>
+      <c r="D288" s="14"/>
+      <c r="E288" s="15"/>
+    </row>
+    <row r="289" spans="1:5">
+      <c r="A289" s="12">
+        <v>288</v>
+      </c>
+      <c r="B289" s="51"/>
+      <c r="C289" s="14"/>
+      <c r="D289" s="14"/>
+      <c r="E289" s="15"/>
+    </row>
+    <row r="290" spans="1:5">
+      <c r="A290" s="12">
+        <v>289</v>
+      </c>
+      <c r="B290" s="51"/>
+      <c r="C290" s="14"/>
+      <c r="D290" s="14"/>
+      <c r="E290" s="15"/>
+    </row>
+    <row r="291" spans="1:5">
+      <c r="A291" s="12">
+        <v>290</v>
+      </c>
+      <c r="B291" s="51"/>
+      <c r="C291" s="14"/>
+      <c r="D291" s="14"/>
+      <c r="E291" s="15"/>
+    </row>
+    <row r="292" spans="1:5">
+      <c r="A292" s="12">
+        <v>291</v>
+      </c>
+      <c r="B292" s="51"/>
+      <c r="C292" s="14"/>
+      <c r="D292" s="14"/>
+      <c r="E292" s="15"/>
+    </row>
+    <row r="293" spans="1:5">
+      <c r="A293" s="12">
+        <v>292</v>
+      </c>
+      <c r="B293" s="51"/>
+      <c r="C293" s="14"/>
+      <c r="D293" s="14"/>
+      <c r="E293" s="15"/>
+    </row>
+    <row r="294" spans="1:5">
+      <c r="A294" s="12">
+        <v>293</v>
+      </c>
+      <c r="B294" s="51"/>
+      <c r="C294" s="14"/>
+      <c r="D294" s="14"/>
+      <c r="E294" s="15"/>
+    </row>
+    <row r="295" spans="1:5">
+      <c r="A295" s="12">
+        <v>294</v>
+      </c>
+      <c r="B295" s="51"/>
+      <c r="C295" s="14"/>
+      <c r="D295" s="14"/>
+      <c r="E295" s="15"/>
+    </row>
+    <row r="296" spans="1:5">
+      <c r="A296" s="12">
+        <v>295</v>
+      </c>
+      <c r="B296" s="51"/>
+      <c r="C296" s="14"/>
+      <c r="D296" s="14"/>
+      <c r="E296" s="15"/>
+    </row>
+    <row r="297" spans="1:5">
+      <c r="A297" s="12">
+        <v>296</v>
+      </c>
+      <c r="B297" s="51"/>
+      <c r="C297" s="14"/>
+      <c r="D297" s="14"/>
+      <c r="E297" s="15"/>
+    </row>
+    <row r="298" spans="1:5">
+      <c r="A298" s="12">
+        <v>297</v>
+      </c>
+      <c r="B298" s="51"/>
+      <c r="C298" s="14"/>
+      <c r="D298" s="14"/>
+      <c r="E298" s="15"/>
+    </row>
+    <row r="299" spans="1:5">
+      <c r="A299" s="12">
+        <v>298</v>
+      </c>
+      <c r="B299" s="51"/>
+      <c r="C299" s="14"/>
+      <c r="D299" s="14"/>
+      <c r="E299" s="15"/>
+    </row>
+    <row r="300" spans="1:5">
+      <c r="A300" s="12">
+        <v>299</v>
+      </c>
+      <c r="B300" s="51"/>
+      <c r="C300" s="14"/>
+      <c r="D300" s="14"/>
+      <c r="E300" s="15"/>
+    </row>
+    <row r="301" spans="1:5">
+      <c r="A301" s="12">
+        <v>300</v>
+      </c>
+      <c r="B301" s="51"/>
+      <c r="C301" s="14"/>
+      <c r="D301" s="14"/>
+      <c r="E301" s="15"/>
+    </row>
+    <row r="302" spans="1:5">
+      <c r="A302" s="12">
+        <v>301</v>
+      </c>
+      <c r="B302" s="51"/>
+      <c r="C302" s="14"/>
+      <c r="D302" s="14"/>
+      <c r="E302" s="15"/>
+    </row>
+    <row r="303" spans="1:5">
+      <c r="A303" s="12">
+        <v>302</v>
+      </c>
+      <c r="B303" s="51"/>
+      <c r="C303" s="14"/>
+      <c r="D303" s="14"/>
+      <c r="E303" s="15"/>
+    </row>
+    <row r="304" spans="1:5">
+      <c r="A304" s="12">
+        <v>303</v>
+      </c>
+      <c r="B304" s="51"/>
+      <c r="C304" s="14"/>
+      <c r="D304" s="14"/>
+      <c r="E304" s="15"/>
+    </row>
+    <row r="305" spans="1:5">
+      <c r="A305" s="12">
+        <v>304</v>
+      </c>
+      <c r="B305" s="51"/>
+      <c r="C305" s="14"/>
+      <c r="D305" s="14"/>
+      <c r="E305" s="15"/>
+    </row>
+    <row r="306" spans="1:5">
+      <c r="A306" s="12">
+        <v>305</v>
+      </c>
+      <c r="B306" s="51"/>
+      <c r="C306" s="14"/>
+      <c r="D306" s="14"/>
+      <c r="E306" s="15"/>
+    </row>
+    <row r="307" spans="1:5">
+      <c r="A307" s="12">
+        <v>306</v>
+      </c>
+      <c r="B307" s="51"/>
+      <c r="C307" s="14"/>
+      <c r="D307" s="14"/>
+      <c r="E307" s="15"/>
+    </row>
+    <row r="308" spans="1:5">
+      <c r="A308" s="12">
+        <v>307</v>
+      </c>
+      <c r="B308" s="51"/>
+      <c r="C308" s="14"/>
+      <c r="D308" s="14"/>
+      <c r="E308" s="15"/>
+    </row>
+    <row r="309" spans="1:5">
+      <c r="A309" s="12">
+        <v>308</v>
+      </c>
+      <c r="B309" s="51"/>
+      <c r="C309" s="14"/>
+      <c r="D309" s="14"/>
+      <c r="E309" s="15"/>
+    </row>
+    <row r="310" spans="1:5">
+      <c r="A310" s="12">
+        <v>309</v>
+      </c>
+      <c r="B310" s="51"/>
+      <c r="C310" s="14"/>
+      <c r="D310" s="14"/>
+      <c r="E310" s="15"/>
+    </row>
+    <row r="311" spans="1:5">
+      <c r="A311" s="12">
+        <v>310</v>
+      </c>
+      <c r="B311" s="51"/>
+      <c r="C311" s="14"/>
+      <c r="D311" s="14"/>
+      <c r="E311" s="15"/>
+    </row>
+    <row r="312" spans="1:5">
+      <c r="A312" s="12">
+        <v>311</v>
+      </c>
+      <c r="B312" s="51"/>
+      <c r="C312" s="14"/>
+      <c r="D312" s="14"/>
+      <c r="E312" s="15"/>
+    </row>
+    <row r="313" spans="1:5">
+      <c r="A313" s="12">
+        <v>312</v>
+      </c>
+      <c r="B313" s="51"/>
+      <c r="C313" s="14"/>
+      <c r="D313" s="14"/>
+      <c r="E313" s="15"/>
+    </row>
+    <row r="314" spans="1:5">
+      <c r="A314" s="12">
+        <v>313</v>
+      </c>
+      <c r="B314" s="51"/>
+      <c r="C314" s="14"/>
+      <c r="D314" s="14"/>
+      <c r="E314" s="15"/>
+    </row>
+    <row r="315" spans="1:5">
+      <c r="A315" s="12">
+        <v>314</v>
+      </c>
+      <c r="B315" s="51"/>
+      <c r="C315" s="14"/>
+      <c r="D315" s="14"/>
+      <c r="E315" s="15"/>
+    </row>
+    <row r="316" spans="1:5">
+      <c r="A316" s="12">
+        <v>315</v>
+      </c>
+      <c r="B316" s="51"/>
+      <c r="C316" s="14"/>
+      <c r="D316" s="14"/>
+      <c r="E316" s="15"/>
+    </row>
+    <row r="317" spans="1:5">
+      <c r="A317" s="12">
+        <v>316</v>
+      </c>
+      <c r="B317" s="51"/>
+      <c r="C317" s="14"/>
+      <c r="D317" s="14"/>
+      <c r="E317" s="15"/>
+    </row>
+    <row r="318" spans="1:5">
+      <c r="A318" s="12">
+        <v>317</v>
+      </c>
+      <c r="B318" s="51"/>
+      <c r="C318" s="14"/>
+      <c r="D318" s="14"/>
+      <c r="E318" s="15"/>
+    </row>
+    <row r="319" spans="1:5">
+      <c r="A319" s="12">
+        <v>318</v>
+      </c>
+      <c r="B319" s="51"/>
+      <c r="C319" s="14"/>
+      <c r="D319" s="14"/>
+      <c r="E319" s="15"/>
+    </row>
+    <row r="320" spans="1:5">
+      <c r="A320" s="12">
+        <v>319</v>
+      </c>
+      <c r="B320" s="51"/>
+      <c r="C320" s="14"/>
+      <c r="D320" s="14"/>
+      <c r="E320" s="15"/>
+    </row>
+    <row r="321" spans="1:5">
+      <c r="A321" s="12">
+        <v>320</v>
+      </c>
+      <c r="B321" s="51"/>
+      <c r="C321" s="14"/>
+      <c r="D321" s="14"/>
+      <c r="E321" s="15"/>
+    </row>
+    <row r="322" spans="1:5">
+      <c r="A322" s="12">
+        <v>321</v>
+      </c>
+      <c r="B322" s="51"/>
+      <c r="C322" s="14"/>
+      <c r="D322" s="14"/>
+      <c r="E322" s="15"/>
+    </row>
+    <row r="323" spans="1:5">
+      <c r="A323" s="12">
+        <v>322</v>
+      </c>
+      <c r="B323" s="51"/>
+      <c r="C323" s="14"/>
+      <c r="D323" s="14"/>
+      <c r="E323" s="15"/>
+    </row>
+    <row r="324" spans="1:5">
+      <c r="A324" s="12">
+        <v>323</v>
+      </c>
+      <c r="B324" s="51"/>
+      <c r="C324" s="14"/>
+      <c r="D324" s="14"/>
+      <c r="E324" s="15"/>
+    </row>
+    <row r="325" spans="1:5">
+      <c r="A325" s="12">
+        <v>324</v>
+      </c>
+      <c r="B325" s="51"/>
+      <c r="C325" s="14"/>
+      <c r="D325" s="14"/>
+      <c r="E325" s="15"/>
+    </row>
+    <row r="326" spans="1:5">
+      <c r="A326" s="12">
+        <v>325</v>
+      </c>
+      <c r="B326" s="51"/>
+      <c r="C326" s="14"/>
+      <c r="D326" s="14"/>
+      <c r="E326" s="15"/>
+    </row>
+    <row r="327" spans="1:5">
+      <c r="A327" s="12">
+        <v>326</v>
+      </c>
+      <c r="B327" s="51"/>
+      <c r="C327" s="14"/>
+      <c r="D327" s="14"/>
+      <c r="E327" s="15"/>
+    </row>
+    <row r="328" spans="1:5">
+      <c r="A328" s="12">
+        <v>327</v>
+      </c>
+      <c r="B328" s="51"/>
+      <c r="C328" s="14"/>
+      <c r="D328" s="14"/>
+      <c r="E328" s="15"/>
+    </row>
+    <row r="329" spans="1:5">
+      <c r="A329" s="12">
+        <v>328</v>
+      </c>
+      <c r="B329" s="51"/>
+      <c r="C329" s="14"/>
+      <c r="D329" s="14"/>
+      <c r="E329" s="15"/>
+    </row>
+    <row r="330" spans="1:5">
+      <c r="A330" s="12">
+        <v>329</v>
+      </c>
+      <c r="B330" s="51"/>
+      <c r="C330" s="14"/>
+      <c r="D330" s="14"/>
+      <c r="E330" s="15"/>
+    </row>
+    <row r="331" spans="1:5">
+      <c r="A331" s="12">
+        <v>330</v>
+      </c>
+      <c r="B331" s="51"/>
+      <c r="C331" s="14"/>
+      <c r="D331" s="14"/>
+      <c r="E331" s="15"/>
+    </row>
+    <row r="332" spans="1:5">
+      <c r="A332" s="12">
+        <v>331</v>
+      </c>
+      <c r="B332" s="51"/>
+      <c r="C332" s="14"/>
+      <c r="D332" s="14"/>
+      <c r="E332" s="15"/>
+    </row>
+    <row r="333" spans="1:5">
+      <c r="A333" s="12">
+        <v>332</v>
+      </c>
+      <c r="B333" s="51"/>
+      <c r="C333" s="14"/>
+      <c r="D333" s="14"/>
+      <c r="E333" s="15"/>
+    </row>
+    <row r="334" spans="1:5">
+      <c r="A334" s="12">
+        <v>333</v>
+      </c>
+      <c r="B334" s="51"/>
+      <c r="C334" s="14"/>
+      <c r="D334" s="14"/>
+      <c r="E334" s="15"/>
+    </row>
+    <row r="335" spans="1:5">
+      <c r="A335" s="12">
+        <v>334</v>
+      </c>
+      <c r="B335" s="51"/>
+      <c r="C335" s="14"/>
+      <c r="D335" s="14"/>
+      <c r="E335" s="15"/>
+    </row>
+    <row r="336" spans="1:5">
+      <c r="A336" s="12">
+        <v>335</v>
+      </c>
+      <c r="B336" s="51"/>
+      <c r="C336" s="14"/>
+      <c r="D336" s="14"/>
+      <c r="E336" s="15"/>
+    </row>
+    <row r="337" spans="1:5">
+      <c r="A337" s="12">
+        <v>336</v>
+      </c>
+      <c r="B337" s="51"/>
+      <c r="C337" s="14"/>
+      <c r="D337" s="14"/>
+      <c r="E337" s="15"/>
+    </row>
+    <row r="338" spans="1:5">
+      <c r="A338" s="12">
+        <v>337</v>
+      </c>
+      <c r="B338" s="51"/>
+      <c r="C338" s="14"/>
+      <c r="D338" s="14"/>
+      <c r="E338" s="15"/>
+    </row>
+    <row r="339" spans="1:5">
+      <c r="A339" s="12">
+        <v>338</v>
+      </c>
+      <c r="B339" s="51"/>
+      <c r="C339" s="14"/>
+      <c r="D339" s="14"/>
+      <c r="E339" s="15"/>
+    </row>
+    <row r="340" spans="1:5">
+      <c r="A340" s="12">
+        <v>339</v>
+      </c>
+      <c r="B340" s="51"/>
+      <c r="C340" s="14"/>
+      <c r="D340" s="14"/>
+      <c r="E340" s="15"/>
+    </row>
+    <row r="341" spans="1:5">
+      <c r="A341" s="12">
+        <v>340</v>
+      </c>
+      <c r="B341" s="51"/>
+      <c r="C341" s="14"/>
+      <c r="D341" s="14"/>
+      <c r="E341" s="15"/>
+    </row>
+    <row r="342" spans="1:5">
+      <c r="A342" s="12">
+        <v>341</v>
+      </c>
+      <c r="B342" s="51"/>
+      <c r="C342" s="14"/>
+      <c r="D342" s="14"/>
+      <c r="E342" s="15"/>
+    </row>
+    <row r="343" spans="1:5">
+      <c r="A343" s="12">
+        <v>342</v>
+      </c>
+      <c r="B343" s="51"/>
+      <c r="C343" s="14"/>
+      <c r="D343" s="14"/>
+      <c r="E343" s="15"/>
+    </row>
+    <row r="344" spans="1:5">
+      <c r="A344" s="12">
+        <v>343</v>
+      </c>
+      <c r="B344" s="51"/>
+      <c r="C344" s="14"/>
+      <c r="D344" s="14"/>
+      <c r="E344" s="15"/>
+    </row>
+    <row r="345" spans="1:5">
+      <c r="A345" s="12">
+        <v>344</v>
+      </c>
+      <c r="B345" s="51"/>
+      <c r="C345" s="14"/>
+      <c r="D345" s="14"/>
+      <c r="E345" s="15"/>
+    </row>
+    <row r="346" spans="1:5">
+      <c r="A346" s="12">
+        <v>345</v>
+      </c>
+      <c r="B346" s="51"/>
+      <c r="C346" s="14"/>
+      <c r="D346" s="14"/>
+      <c r="E346" s="15"/>
+    </row>
+    <row r="347" spans="1:5">
+      <c r="A347" s="12">
+        <v>346</v>
+      </c>
+      <c r="B347" s="51"/>
+      <c r="C347" s="14"/>
+      <c r="D347" s="14"/>
+      <c r="E347" s="15"/>
+    </row>
+    <row r="348" spans="1:5">
+      <c r="A348" s="12">
+        <v>347</v>
+      </c>
+      <c r="B348" s="51"/>
+      <c r="C348" s="14"/>
+      <c r="D348" s="14"/>
+      <c r="E348" s="15"/>
+    </row>
+    <row r="349" spans="1:5">
+      <c r="A349" s="12">
+        <v>348</v>
+      </c>
+      <c r="B349" s="51"/>
+      <c r="C349" s="14"/>
+      <c r="D349" s="14"/>
+      <c r="E349" s="15"/>
+    </row>
+    <row r="350" spans="1:5">
+      <c r="A350" s="12">
+        <v>349</v>
+      </c>
+      <c r="B350" s="51"/>
+      <c r="C350" s="14"/>
+      <c r="D350" s="14"/>
+      <c r="E350" s="15"/>
+    </row>
+    <row r="351" spans="1:5">
+      <c r="A351" s="12">
+        <v>350</v>
+      </c>
+      <c r="B351" s="51"/>
+      <c r="C351" s="14"/>
+      <c r="D351" s="14"/>
+      <c r="E351" s="15"/>
+    </row>
+    <row r="352" spans="1:5">
+      <c r="A352" s="12">
+        <v>351</v>
+      </c>
+      <c r="B352" s="51"/>
+      <c r="C352" s="14"/>
+      <c r="D352" s="14"/>
+      <c r="E352" s="15"/>
+    </row>
+    <row r="353" spans="1:5">
+      <c r="A353" s="12">
+        <v>352</v>
+      </c>
+      <c r="B353" s="51"/>
+      <c r="C353" s="14"/>
+      <c r="D353" s="14"/>
+      <c r="E353" s="15"/>
+    </row>
+    <row r="354" spans="1:5">
+      <c r="A354" s="12">
+        <v>353</v>
+      </c>
+      <c r="B354" s="51"/>
+      <c r="C354" s="14"/>
+      <c r="D354" s="14"/>
+      <c r="E354" s="15"/>
+    </row>
+    <row r="355" spans="1:5">
+      <c r="A355" s="12">
+        <v>354</v>
+      </c>
+      <c r="B355" s="51"/>
+      <c r="C355" s="14"/>
+      <c r="D355" s="14"/>
+      <c r="E355" s="15"/>
+    </row>
+    <row r="356" spans="1:5">
+      <c r="A356" s="12">
+        <v>355</v>
+      </c>
+      <c r="B356" s="51"/>
+      <c r="C356" s="14"/>
+      <c r="D356" s="14"/>
+      <c r="E356" s="15"/>
+    </row>
+    <row r="357" spans="1:5">
+      <c r="A357" s="12">
+        <v>356</v>
+      </c>
+      <c r="B357" s="51"/>
+      <c r="C357" s="14"/>
+      <c r="D357" s="14"/>
+      <c r="E357" s="15"/>
+    </row>
+    <row r="358" spans="1:5">
+      <c r="A358" s="12">
+        <v>357</v>
+      </c>
+      <c r="B358" s="51"/>
+      <c r="C358" s="14"/>
+      <c r="D358" s="14"/>
+      <c r="E358" s="15"/>
+    </row>
+    <row r="359" spans="1:5">
+      <c r="A359" s="12">
+        <v>358</v>
+      </c>
+      <c r="B359" s="51"/>
+      <c r="C359" s="14"/>
+      <c r="D359" s="14"/>
+      <c r="E359" s="15"/>
+    </row>
+    <row r="360" spans="1:5">
+      <c r="A360" s="12">
+        <v>359</v>
+      </c>
+      <c r="B360" s="51"/>
+      <c r="C360" s="14"/>
+      <c r="D360" s="14"/>
+      <c r="E360" s="15"/>
+    </row>
+    <row r="361" spans="1:5">
+      <c r="A361" s="12">
+        <v>360</v>
+      </c>
+      <c r="B361" s="51"/>
+      <c r="C361" s="14"/>
+      <c r="D361" s="14"/>
+      <c r="E361" s="15"/>
+    </row>
+    <row r="362" spans="1:5">
+      <c r="A362" s="12">
+        <v>361</v>
+      </c>
+      <c r="B362" s="51"/>
+      <c r="C362" s="14"/>
+      <c r="D362" s="14"/>
+      <c r="E362" s="15"/>
+    </row>
+    <row r="363" spans="1:5">
+      <c r="A363" s="12">
+        <v>362</v>
+      </c>
+      <c r="B363" s="51"/>
+      <c r="C363" s="14"/>
+      <c r="D363" s="14"/>
+      <c r="E363" s="15"/>
+    </row>
+    <row r="364" spans="1:5">
+      <c r="A364" s="12">
+        <v>363</v>
+      </c>
+      <c r="B364" s="51"/>
+      <c r="C364" s="14"/>
+      <c r="D364" s="14"/>
+      <c r="E364" s="15"/>
+    </row>
+    <row r="365" spans="1:5">
+      <c r="A365" s="12">
+        <v>364</v>
+      </c>
+      <c r="B365" s="51"/>
+      <c r="C365" s="14"/>
+      <c r="D365" s="14"/>
+      <c r="E365" s="15"/>
+    </row>
+    <row r="366" spans="1:5">
+      <c r="A366" s="12">
+        <v>365</v>
+      </c>
+      <c r="B366" s="51"/>
+      <c r="C366" s="14"/>
+      <c r="D366" s="14"/>
+      <c r="E366" s="15"/>
+    </row>
+    <row r="367" spans="1:5">
+      <c r="A367" s="12">
+        <v>366</v>
+      </c>
+      <c r="B367" s="51"/>
+      <c r="C367" s="14"/>
+      <c r="D367" s="14"/>
+      <c r="E367" s="15"/>
+    </row>
+    <row r="368" spans="1:5">
+      <c r="A368" s="12">
+        <v>367</v>
+      </c>
+      <c r="B368" s="51"/>
+      <c r="C368" s="14"/>
+      <c r="D368" s="14"/>
+      <c r="E368" s="15"/>
+    </row>
+    <row r="369" spans="1:5">
+      <c r="A369" s="12">
+        <v>368</v>
+      </c>
+      <c r="B369" s="51"/>
+      <c r="C369" s="14"/>
+      <c r="D369" s="14"/>
+      <c r="E369" s="15"/>
+    </row>
+    <row r="370" spans="1:5">
+      <c r="A370" s="12">
+        <v>369</v>
+      </c>
+      <c r="B370" s="51"/>
+      <c r="C370" s="14"/>
+      <c r="D370" s="14"/>
+      <c r="E370" s="15"/>
+    </row>
+    <row r="371" spans="1:5">
+      <c r="A371" s="12">
+        <v>370</v>
+      </c>
+      <c r="B371" s="51"/>
+      <c r="C371" s="14"/>
+      <c r="D371" s="14"/>
+      <c r="E371" s="15"/>
+    </row>
+    <row r="372" spans="1:5">
+      <c r="A372" s="12">
+        <v>371</v>
+      </c>
+      <c r="B372" s="51"/>
+      <c r="C372" s="14"/>
+      <c r="D372" s="14"/>
+      <c r="E372" s="15"/>
+    </row>
+    <row r="373" spans="1:5">
+      <c r="A373" s="12">
+        <v>372</v>
+      </c>
+      <c r="B373" s="51"/>
+      <c r="C373" s="14"/>
+      <c r="D373" s="14"/>
+      <c r="E373" s="15"/>
+    </row>
+    <row r="374" spans="1:5">
+      <c r="A374" s="12">
+        <v>373</v>
+      </c>
+      <c r="B374" s="51"/>
+      <c r="C374" s="14"/>
+      <c r="D374" s="14"/>
+      <c r="E374" s="15"/>
+    </row>
+    <row r="375" spans="1:5">
+      <c r="A375" s="12">
+        <v>374</v>
+      </c>
+      <c r="B375" s="51"/>
+      <c r="C375" s="14"/>
+      <c r="D375" s="14"/>
+      <c r="E375" s="15"/>
+    </row>
+    <row r="376" spans="1:5">
+      <c r="A376" s="12">
+        <v>375</v>
+      </c>
+      <c r="B376" s="51"/>
+      <c r="C376" s="14"/>
+      <c r="D376" s="14"/>
+      <c r="E376" s="15"/>
+    </row>
+    <row r="377" spans="1:5">
+      <c r="A377" s="12">
+        <v>376</v>
+      </c>
+      <c r="B377" s="51"/>
+      <c r="C377" s="14"/>
+      <c r="D377" s="14"/>
+      <c r="E377" s="15"/>
+    </row>
+    <row r="378" spans="1:5">
+      <c r="A378" s="12">
+        <v>377</v>
+      </c>
+      <c r="B378" s="51"/>
+      <c r="C378" s="14"/>
+      <c r="D378" s="14"/>
+      <c r="E378" s="15"/>
+    </row>
+    <row r="379" spans="1:5">
+      <c r="A379" s="12">
+        <v>378</v>
+      </c>
+      <c r="B379" s="51"/>
+      <c r="C379" s="14"/>
+      <c r="D379" s="14"/>
+      <c r="E379" s="15"/>
+    </row>
+    <row r="380" spans="1:5">
+      <c r="A380" s="12">
+        <v>379</v>
+      </c>
+      <c r="B380" s="51"/>
+      <c r="C380" s="14"/>
+      <c r="D380" s="14"/>
+      <c r="E380" s="15"/>
+    </row>
+    <row r="381" spans="1:5">
+      <c r="A381" s="12">
+        <v>380</v>
+      </c>
+      <c r="B381" s="51"/>
+      <c r="C381" s="14"/>
+      <c r="D381" s="14"/>
+      <c r="E381" s="15"/>
+    </row>
+    <row r="382" spans="1:5">
+      <c r="A382" s="12">
+        <v>381</v>
+      </c>
+      <c r="B382" s="51"/>
+      <c r="C382" s="14"/>
+      <c r="D382" s="14"/>
+      <c r="E382" s="15"/>
+    </row>
+    <row r="383" spans="1:5">
+      <c r="A383" s="12">
+        <v>382</v>
+      </c>
+      <c r="B383" s="51"/>
+      <c r="C383" s="14"/>
+      <c r="D383" s="14"/>
+      <c r="E383" s="15"/>
+    </row>
+    <row r="384" spans="1:5">
+      <c r="A384" s="12">
+        <v>383</v>
+      </c>
+      <c r="B384" s="51"/>
+      <c r="C384" s="14"/>
+      <c r="D384" s="14"/>
+      <c r="E384" s="15"/>
+    </row>
+    <row r="385" spans="1:5">
+      <c r="A385" s="12">
+        <v>384</v>
+      </c>
+      <c r="B385" s="51"/>
+      <c r="C385" s="14"/>
+      <c r="D385" s="14"/>
+      <c r="E385" s="15"/>
+    </row>
+    <row r="386" spans="1:5">
+      <c r="A386" s="12">
+        <v>385</v>
+      </c>
+      <c r="B386" s="51"/>
+      <c r="C386" s="14"/>
+      <c r="D386" s="14"/>
+      <c r="E386" s="15"/>
+    </row>
+    <row r="387" spans="1:5">
+      <c r="A387" s="12">
+        <v>386</v>
+      </c>
+      <c r="B387" s="51"/>
+      <c r="C387" s="14"/>
+      <c r="D387" s="14"/>
+      <c r="E387" s="15"/>
+    </row>
+    <row r="388" spans="1:5">
+      <c r="A388" s="12">
+        <v>387</v>
+      </c>
+      <c r="B388" s="51"/>
+      <c r="C388" s="14"/>
+      <c r="D388" s="14"/>
+      <c r="E388" s="15"/>
+    </row>
+    <row r="389" spans="1:5">
+      <c r="A389" s="12">
+        <v>388</v>
+      </c>
+      <c r="B389" s="51"/>
+      <c r="C389" s="14"/>
+      <c r="D389" s="14"/>
+      <c r="E389" s="15"/>
+    </row>
+    <row r="390" spans="1:5">
+      <c r="A390" s="12">
+        <v>389</v>
+      </c>
+      <c r="B390" s="51"/>
+      <c r="C390" s="14"/>
+      <c r="D390" s="14"/>
+      <c r="E390" s="15"/>
+    </row>
+    <row r="391" spans="1:5">
+      <c r="A391" s="12">
+        <v>390</v>
+      </c>
+      <c r="B391" s="51"/>
+      <c r="C391" s="14"/>
+      <c r="D391" s="14"/>
+      <c r="E391" s="15"/>
+    </row>
+    <row r="392" spans="1:5">
+      <c r="A392" s="12">
+        <v>391</v>
+      </c>
+      <c r="B392" s="51"/>
+      <c r="C392" s="14"/>
+      <c r="D392" s="14"/>
+      <c r="E392" s="15"/>
+    </row>
+    <row r="393" spans="1:5">
+      <c r="A393" s="12">
+        <v>392</v>
+      </c>
+      <c r="B393" s="51"/>
+      <c r="C393" s="14"/>
+      <c r="D393" s="14"/>
+      <c r="E393" s="15"/>
+    </row>
+    <row r="394" spans="1:5">
+      <c r="A394" s="12">
+        <v>393</v>
+      </c>
+      <c r="B394" s="51"/>
+      <c r="C394" s="14"/>
+      <c r="D394" s="14"/>
+      <c r="E394" s="15"/>
+    </row>
+    <row r="395" spans="1:5">
+      <c r="A395" s="12">
+        <v>394</v>
+      </c>
+      <c r="B395" s="51"/>
+      <c r="C395" s="14"/>
+      <c r="D395" s="14"/>
+      <c r="E395" s="15"/>
+    </row>
+    <row r="396" spans="1:5">
+      <c r="A396" s="12">
+        <v>395</v>
+      </c>
+      <c r="B396" s="51"/>
+      <c r="C396" s="14"/>
+      <c r="D396" s="14"/>
+      <c r="E396" s="15"/>
+    </row>
+    <row r="397" spans="1:5">
+      <c r="A397" s="12">
+        <v>396</v>
+      </c>
+      <c r="B397" s="51"/>
+      <c r="C397" s="14"/>
+      <c r="D397" s="14"/>
+      <c r="E397" s="15"/>
+    </row>
+    <row r="398" spans="1:5">
+      <c r="A398" s="12">
+        <v>397</v>
+      </c>
+      <c r="B398" s="51"/>
+      <c r="C398" s="14"/>
+      <c r="D398" s="14"/>
+      <c r="E398" s="15"/>
+    </row>
+    <row r="399" spans="1:5">
+      <c r="A399" s="12">
+        <v>398</v>
+      </c>
+      <c r="B399" s="51"/>
+      <c r="C399" s="14"/>
+      <c r="D399" s="14"/>
+      <c r="E399" s="15"/>
+    </row>
+    <row r="400" spans="1:5">
+      <c r="A400" s="12">
+        <v>399</v>
+      </c>
+      <c r="B400" s="51"/>
+      <c r="C400" s="14"/>
+      <c r="D400" s="14"/>
+      <c r="E400" s="15"/>
+    </row>
+    <row r="401" spans="1:5">
+      <c r="A401" s="12">
+        <v>400</v>
+      </c>
+      <c r="B401" s="51"/>
+      <c r="C401" s="14"/>
+      <c r="D401" s="14"/>
+      <c r="E401" s="15"/>
+    </row>
+    <row r="402" spans="1:5">
+      <c r="A402" s="12">
+        <v>401</v>
+      </c>
+      <c r="B402" s="51"/>
+      <c r="C402" s="14"/>
+      <c r="D402" s="14"/>
+      <c r="E402" s="15"/>
+    </row>
+    <row r="403" spans="1:5">
+      <c r="A403" s="12">
+        <v>402</v>
+      </c>
+      <c r="B403" s="51"/>
+      <c r="C403" s="14"/>
+      <c r="D403" s="14"/>
+      <c r="E403" s="15"/>
+    </row>
+    <row r="404" spans="1:5">
+      <c r="A404" s="12">
+        <v>403</v>
+      </c>
+      <c r="B404" s="51"/>
+      <c r="C404" s="14"/>
+      <c r="D404" s="14"/>
+      <c r="E404" s="15"/>
+    </row>
+    <row r="405" spans="1:5">
+      <c r="A405" s="12">
+        <v>404</v>
+      </c>
+      <c r="B405" s="51"/>
+      <c r="C405" s="14"/>
+      <c r="D405" s="14"/>
+      <c r="E405" s="15"/>
+    </row>
+    <row r="406" spans="1:5">
+      <c r="A406" s="12">
+        <v>405</v>
+      </c>
+      <c r="B406" s="51"/>
+      <c r="C406" s="14"/>
+      <c r="D406" s="14"/>
+      <c r="E406" s="15"/>
+    </row>
+    <row r="407" spans="1:5">
+      <c r="A407" s="12">
+        <v>406</v>
+      </c>
+      <c r="B407" s="51"/>
+      <c r="C407" s="14"/>
+      <c r="D407" s="14"/>
+      <c r="E407" s="15"/>
+    </row>
+    <row r="408" spans="1:5">
+      <c r="A408" s="12">
+        <v>407</v>
+      </c>
+      <c r="B408" s="51"/>
+      <c r="C408" s="14"/>
+      <c r="D408" s="14"/>
+      <c r="E408" s="15"/>
+    </row>
+    <row r="409" spans="1:5">
+      <c r="A409" s="12">
+        <v>408</v>
+      </c>
+      <c r="B409" s="51"/>
+      <c r="C409" s="14"/>
+      <c r="D409" s="14"/>
+      <c r="E409" s="15"/>
+    </row>
+    <row r="410" spans="1:5">
+      <c r="A410" s="12">
+        <v>409</v>
+      </c>
+      <c r="B410" s="51"/>
+      <c r="C410" s="14"/>
+      <c r="D410" s="14"/>
+      <c r="E410" s="15"/>
+    </row>
+    <row r="411" spans="1:5">
+      <c r="A411" s="12">
+        <v>410</v>
+      </c>
+      <c r="B411" s="51"/>
+      <c r="C411" s="14"/>
+      <c r="D411" s="14"/>
+      <c r="E411" s="15"/>
+    </row>
+    <row r="412" spans="1:5">
+      <c r="A412" s="12">
+        <v>411</v>
+      </c>
+      <c r="B412" s="51"/>
+      <c r="C412" s="14"/>
+      <c r="D412" s="14"/>
+      <c r="E412" s="15"/>
+    </row>
+    <row r="413" spans="1:5">
+      <c r="A413" s="12">
+        <v>412</v>
+      </c>
+      <c r="B413" s="51"/>
+      <c r="C413" s="14"/>
+      <c r="D413" s="14"/>
+      <c r="E413" s="15"/>
+    </row>
+    <row r="414" spans="1:5">
+      <c r="A414" s="12">
+        <v>413</v>
+      </c>
+      <c r="B414" s="51"/>
+      <c r="C414" s="14"/>
+      <c r="D414" s="14"/>
+      <c r="E414" s="15"/>
+    </row>
+    <row r="415" spans="1:5">
+      <c r="A415" s="12">
+        <v>414</v>
+      </c>
+      <c r="B415" s="51"/>
+      <c r="C415" s="14"/>
+      <c r="D415" s="14"/>
+      <c r="E415" s="15"/>
+    </row>
+    <row r="416" spans="1:5">
+      <c r="A416" s="12">
+        <v>415</v>
+      </c>
+      <c r="B416" s="51"/>
+      <c r="C416" s="14"/>
+      <c r="D416" s="14"/>
+      <c r="E416" s="15"/>
+    </row>
+    <row r="417" spans="1:5">
+      <c r="A417" s="12">
+        <v>416</v>
+      </c>
+      <c r="B417" s="51"/>
+      <c r="C417" s="14"/>
+      <c r="D417" s="14"/>
+      <c r="E417" s="15"/>
+    </row>
+    <row r="418" spans="1:5">
+      <c r="A418" s="12">
+        <v>417</v>
+      </c>
+      <c r="B418" s="51"/>
+      <c r="C418" s="14"/>
+      <c r="D418" s="14"/>
+      <c r="E418" s="15"/>
+    </row>
+    <row r="419" spans="1:5">
+      <c r="A419" s="12">
+        <v>418</v>
+      </c>
+      <c r="B419" s="51"/>
+      <c r="C419" s="14"/>
+      <c r="D419" s="14"/>
+      <c r="E419" s="15"/>
+    </row>
+    <row r="420" spans="1:5">
+      <c r="A420" s="12">
+        <v>419</v>
+      </c>
+      <c r="B420" s="51"/>
+      <c r="C420" s="14"/>
+      <c r="D420" s="14"/>
+      <c r="E420" s="15"/>
+    </row>
+    <row r="421" spans="1:5">
+      <c r="A421" s="12">
+        <v>420</v>
+      </c>
+      <c r="B421" s="51"/>
+      <c r="C421" s="14"/>
+      <c r="D421" s="14"/>
+      <c r="E421" s="15"/>
+    </row>
+    <row r="422" spans="1:5">
+      <c r="A422" s="12">
+        <v>421</v>
+      </c>
+      <c r="B422" s="51"/>
+      <c r="C422" s="14"/>
+      <c r="D422" s="14"/>
+      <c r="E422" s="15"/>
+    </row>
+    <row r="423" spans="1:5">
+      <c r="A423" s="12">
+        <v>422</v>
+      </c>
+      <c r="B423" s="51"/>
+      <c r="C423" s="14"/>
+      <c r="D423" s="14"/>
+      <c r="E423" s="15"/>
+    </row>
+    <row r="424" spans="1:5">
+      <c r="A424" s="12">
+        <v>423</v>
+      </c>
+      <c r="B424" s="51"/>
+      <c r="C424" s="14"/>
+      <c r="D424" s="14"/>
+      <c r="E424" s="15"/>
+    </row>
+    <row r="425" spans="1:5">
+      <c r="A425" s="12">
+        <v>424</v>
+      </c>
+      <c r="B425" s="51"/>
+      <c r="C425" s="14"/>
+      <c r="D425" s="14"/>
+      <c r="E425" s="15"/>
+    </row>
+    <row r="426" spans="1:5">
+      <c r="A426" s="12">
+        <v>425</v>
+      </c>
+      <c r="B426" s="51"/>
+      <c r="C426" s="14"/>
+      <c r="D426" s="14"/>
+      <c r="E426" s="15"/>
+    </row>
+    <row r="427" spans="1:5">
+      <c r="A427" s="12">
+        <v>426</v>
+      </c>
+      <c r="B427" s="51"/>
+      <c r="C427" s="14"/>
+      <c r="D427" s="14"/>
+      <c r="E427" s="15"/>
+    </row>
+    <row r="428" spans="1:5">
+      <c r="A428" s="12">
+        <v>427</v>
+      </c>
+      <c r="B428" s="51"/>
+      <c r="C428" s="14"/>
+      <c r="D428" s="14"/>
+      <c r="E428" s="15"/>
+    </row>
+    <row r="429" spans="1:5">
+      <c r="A429" s="12">
+        <v>428</v>
+      </c>
+      <c r="B429" s="51"/>
+      <c r="C429" s="14"/>
+      <c r="D429" s="14"/>
+      <c r="E429" s="15"/>
+    </row>
+    <row r="430" spans="1:5">
+      <c r="A430" s="12">
+        <v>429</v>
+      </c>
+      <c r="B430" s="51"/>
+      <c r="C430" s="14"/>
+      <c r="D430" s="14"/>
+      <c r="E430" s="15"/>
+    </row>
+    <row r="431" spans="1:5">
+      <c r="A431" s="12">
+        <v>430</v>
+      </c>
+      <c r="B431" s="51"/>
+      <c r="C431" s="14"/>
+      <c r="D431" s="14"/>
+      <c r="E431" s="15"/>
+    </row>
+    <row r="432" spans="1:5">
+      <c r="A432" s="12">
+        <v>431</v>
+      </c>
+      <c r="B432" s="51"/>
+      <c r="C432" s="14"/>
+      <c r="D432" s="14"/>
+      <c r="E432" s="15"/>
+    </row>
+    <row r="433" spans="1:5">
+      <c r="A433" s="12">
+        <v>432</v>
+      </c>
+      <c r="B433" s="51"/>
+      <c r="C433" s="14"/>
+      <c r="D433" s="14"/>
+      <c r="E433" s="15"/>
+    </row>
+    <row r="434" spans="1:5">
+      <c r="A434" s="12">
+        <v>433</v>
+      </c>
+      <c r="B434" s="51"/>
+      <c r="C434" s="14"/>
+      <c r="D434" s="14"/>
+      <c r="E434" s="15"/>
+    </row>
+    <row r="435" spans="1:5">
+      <c r="A435" s="12">
+        <v>434</v>
+      </c>
+      <c r="B435" s="51"/>
+      <c r="C435" s="14"/>
+      <c r="D435" s="14"/>
+      <c r="E435" s="15"/>
+    </row>
+    <row r="436" spans="1:5">
+      <c r="A436" s="12">
+        <v>435</v>
+      </c>
+      <c r="B436" s="51"/>
+      <c r="C436" s="14"/>
+      <c r="D436" s="14"/>
+      <c r="E436" s="15"/>
+    </row>
+    <row r="437" spans="1:5">
+      <c r="A437" s="12">
+        <v>436</v>
+      </c>
+      <c r="B437" s="51"/>
+      <c r="C437" s="14"/>
+      <c r="D437" s="14"/>
+      <c r="E437" s="15"/>
+    </row>
+    <row r="438" spans="1:5">
+      <c r="A438" s="12">
+        <v>437</v>
+      </c>
+      <c r="B438" s="51"/>
+      <c r="C438" s="14"/>
+      <c r="D438" s="14"/>
+      <c r="E438" s="15"/>
+    </row>
+    <row r="439" spans="1:5">
+      <c r="A439" s="12">
+        <v>438</v>
+      </c>
+      <c r="B439" s="51"/>
+      <c r="C439" s="14"/>
+      <c r="D439" s="14"/>
+      <c r="E439" s="15"/>
+    </row>
+    <row r="440" spans="1:5">
+      <c r="A440" s="12">
+        <v>439</v>
+      </c>
+      <c r="B440" s="51"/>
+      <c r="C440" s="14"/>
+      <c r="D440" s="14"/>
+      <c r="E440" s="15"/>
+    </row>
+    <row r="441" spans="1:5">
+      <c r="A441" s="12">
+        <v>440</v>
+      </c>
+      <c r="B441" s="51"/>
+      <c r="C441" s="14"/>
+      <c r="D441" s="14"/>
+      <c r="E441" s="15"/>
+    </row>
+    <row r="442" spans="1:5">
+      <c r="A442" s="12">
+        <v>441</v>
+      </c>
+      <c r="B442" s="51"/>
+      <c r="C442" s="14"/>
+      <c r="D442" s="14"/>
+      <c r="E442" s="15"/>
+    </row>
+    <row r="443" spans="1:5">
+      <c r="A443" s="12">
+        <v>442</v>
+      </c>
+      <c r="B443" s="51"/>
+      <c r="C443" s="14"/>
+      <c r="D443" s="14"/>
+      <c r="E443" s="15"/>
+    </row>
+    <row r="444" spans="1:5">
+      <c r="A444" s="12">
+        <v>443</v>
+      </c>
+      <c r="B444" s="51"/>
+      <c r="C444" s="14"/>
+      <c r="D444" s="14"/>
+      <c r="E444" s="15"/>
+    </row>
+    <row r="445" spans="1:5">
+      <c r="A445" s="12">
+        <v>444</v>
+      </c>
+      <c r="B445" s="51"/>
+      <c r="C445" s="14"/>
+      <c r="D445" s="14"/>
+      <c r="E445" s="15"/>
+    </row>
+    <row r="446" spans="1:5">
+      <c r="A446" s="12">
+        <v>445</v>
+      </c>
+      <c r="B446" s="51"/>
+      <c r="C446" s="14"/>
+      <c r="D446" s="14"/>
+      <c r="E446" s="15"/>
+    </row>
+    <row r="447" spans="1:5">
+      <c r="A447" s="12">
+        <v>446</v>
+      </c>
+      <c r="B447" s="51"/>
+      <c r="C447" s="14"/>
+      <c r="D447" s="14"/>
+      <c r="E447" s="15"/>
+    </row>
+    <row r="448" spans="1:5">
+      <c r="A448" s="12">
+        <v>447</v>
+      </c>
+      <c r="B448" s="51"/>
+      <c r="C448" s="14"/>
+      <c r="D448" s="14"/>
+      <c r="E448" s="15"/>
+    </row>
+    <row r="449" spans="1:5">
+      <c r="A449" s="12">
+        <v>448</v>
+      </c>
+      <c r="B449" s="51"/>
+      <c r="C449" s="14"/>
+      <c r="D449" s="14"/>
+      <c r="E449" s="15"/>
+    </row>
+    <row r="450" spans="1:5">
+      <c r="A450" s="12">
+        <v>449</v>
+      </c>
+      <c r="B450" s="51"/>
+      <c r="C450" s="14"/>
+      <c r="D450" s="14"/>
+      <c r="E450" s="15"/>
+    </row>
+    <row r="451" spans="1:5">
+      <c r="A451" s="12">
+        <v>450</v>
+      </c>
+      <c r="B451" s="51"/>
+      <c r="C451" s="14"/>
+      <c r="D451" s="14"/>
+      <c r="E451" s="15"/>
+    </row>
+    <row r="452" spans="1:5">
+      <c r="A452" s="12">
+        <v>451</v>
+      </c>
+      <c r="B452" s="51"/>
+      <c r="C452" s="14"/>
+      <c r="D452" s="14"/>
+      <c r="E452" s="15"/>
+    </row>
+    <row r="453" spans="1:5">
+      <c r="A453" s="12">
+        <v>452</v>
+      </c>
+      <c r="B453" s="51"/>
+      <c r="C453" s="14"/>
+      <c r="D453" s="14"/>
+      <c r="E453" s="15"/>
+    </row>
+    <row r="454" spans="1:5">
+      <c r="A454" s="12">
+        <v>453</v>
+      </c>
+      <c r="B454" s="51"/>
+      <c r="C454" s="14"/>
+      <c r="D454" s="14"/>
+      <c r="E454" s="15"/>
+    </row>
+    <row r="455" spans="1:5">
+      <c r="A455" s="12">
+        <v>454</v>
+      </c>
+      <c r="B455" s="51"/>
+      <c r="C455" s="14"/>
+      <c r="D455" s="14"/>
+      <c r="E455" s="15"/>
+    </row>
+    <row r="456" spans="1:5">
+      <c r="A456" s="12">
+        <v>455</v>
+      </c>
+      <c r="B456" s="51"/>
+      <c r="C456" s="14"/>
+      <c r="D456" s="14"/>
+      <c r="E456" s="15"/>
+    </row>
+    <row r="457" spans="1:5">
+      <c r="A457" s="12">
+        <v>456</v>
+      </c>
+      <c r="B457" s="51"/>
+      <c r="C457" s="14"/>
+      <c r="D457" s="14"/>
+      <c r="E457" s="15"/>
+    </row>
+    <row r="458" spans="1:5">
+      <c r="A458" s="12">
+        <v>457</v>
+      </c>
+      <c r="B458" s="51"/>
+      <c r="C458" s="14"/>
+      <c r="D458" s="14"/>
+      <c r="E458" s="15"/>
+    </row>
+    <row r="459" spans="1:5">
+      <c r="A459" s="12">
+        <v>458</v>
+      </c>
+      <c r="B459" s="51"/>
+      <c r="C459" s="14"/>
+      <c r="D459" s="14"/>
+      <c r="E459" s="15"/>
+    </row>
+    <row r="460" spans="1:5">
+      <c r="A460" s="12">
+        <v>459</v>
+      </c>
+      <c r="B460" s="51"/>
+      <c r="C460" s="14"/>
+      <c r="D460" s="14"/>
+      <c r="E460" s="15"/>
+    </row>
+    <row r="461" spans="1:5">
+      <c r="A461" s="12">
+        <v>460</v>
+      </c>
+      <c r="B461" s="51"/>
+      <c r="C461" s="14"/>
+      <c r="D461" s="14"/>
+      <c r="E461" s="15"/>
+    </row>
+    <row r="462" spans="1:5">
+      <c r="A462" s="12">
+        <v>461</v>
+      </c>
+      <c r="B462" s="51"/>
+      <c r="C462" s="14"/>
+      <c r="D462" s="14"/>
+      <c r="E462" s="15"/>
+    </row>
+    <row r="463" spans="1:5">
+      <c r="A463" s="12">
+        <v>462</v>
+      </c>
+      <c r="B463" s="51"/>
+      <c r="C463" s="14"/>
+      <c r="D463" s="14"/>
+      <c r="E463" s="15"/>
+    </row>
+    <row r="464" spans="1:5">
+      <c r="A464" s="12">
+        <v>463</v>
+      </c>
+      <c r="B464" s="51"/>
+      <c r="C464" s="14"/>
+      <c r="D464" s="14"/>
+      <c r="E464" s="15"/>
+    </row>
+    <row r="465" spans="1:5">
+      <c r="A465" s="12">
+        <v>464</v>
+      </c>
+      <c r="B465" s="51"/>
+      <c r="C465" s="14"/>
+      <c r="D465" s="14"/>
+      <c r="E465" s="15"/>
+    </row>
+    <row r="466" spans="1:5">
+      <c r="A466" s="12">
+        <v>465</v>
+      </c>
+      <c r="B466" s="51"/>
+      <c r="C466" s="14"/>
+      <c r="D466" s="14"/>
+      <c r="E466" s="15"/>
+    </row>
+    <row r="467" spans="1:5">
+      <c r="A467" s="12">
+        <v>466</v>
+      </c>
+      <c r="B467" s="51"/>
+      <c r="C467" s="14"/>
+      <c r="D467" s="14"/>
+      <c r="E467" s="15"/>
+    </row>
+    <row r="468" spans="1:5">
+      <c r="A468" s="12">
+        <v>467</v>
+      </c>
+      <c r="B468" s="51"/>
+      <c r="C468" s="14"/>
+      <c r="D468" s="14"/>
+      <c r="E468" s="15"/>
+    </row>
+    <row r="469" spans="1:5">
+      <c r="A469" s="12">
+        <v>468</v>
+      </c>
+      <c r="B469" s="51"/>
+      <c r="C469" s="14"/>
+      <c r="D469" s="14"/>
+      <c r="E469" s="15"/>
+    </row>
+    <row r="470" spans="1:5">
+      <c r="A470" s="12">
+        <v>469</v>
+      </c>
+      <c r="B470" s="51"/>
+      <c r="C470" s="14"/>
+      <c r="D470" s="14"/>
+      <c r="E470" s="15"/>
+    </row>
+    <row r="471" spans="1:5">
+      <c r="A471" s="12">
+        <v>470</v>
+      </c>
+      <c r="B471" s="51"/>
+      <c r="C471" s="14"/>
+      <c r="D471" s="14"/>
+      <c r="E471" s="15"/>
+    </row>
+    <row r="472" spans="1:5">
+      <c r="A472" s="12">
+        <v>471</v>
+      </c>
+      <c r="B472" s="51"/>
+      <c r="C472" s="14"/>
+      <c r="D472" s="14"/>
+      <c r="E472" s="15"/>
+    </row>
+    <row r="473" spans="1:5">
+      <c r="A473" s="12">
+        <v>472</v>
+      </c>
+      <c r="B473" s="51"/>
+      <c r="C473" s="14"/>
+      <c r="D473" s="14"/>
+      <c r="E473" s="15"/>
+    </row>
+    <row r="474" spans="1:5">
+      <c r="A474" s="12">
+        <v>473</v>
+      </c>
+      <c r="B474" s="51"/>
+      <c r="C474" s="14"/>
+      <c r="D474" s="14"/>
+      <c r="E474" s="15"/>
+    </row>
+    <row r="475" spans="1:5">
+      <c r="A475" s="12">
+        <v>474</v>
+      </c>
+      <c r="B475" s="51"/>
+      <c r="C475" s="14"/>
+      <c r="D475" s="14"/>
+      <c r="E475" s="15"/>
+    </row>
+    <row r="476" spans="1:5">
+      <c r="A476" s="12">
+        <v>475</v>
+      </c>
+      <c r="B476" s="51"/>
+      <c r="C476" s="14"/>
+      <c r="D476" s="14"/>
+      <c r="E476" s="15"/>
+    </row>
+    <row r="477" spans="1:5">
+      <c r="A477" s="12">
+        <v>476</v>
+      </c>
+      <c r="B477" s="51"/>
+      <c r="C477" s="14"/>
+      <c r="D477" s="14"/>
+      <c r="E477" s="15"/>
+    </row>
+    <row r="478" spans="1:5">
+      <c r="A478" s="12">
+        <v>477</v>
+      </c>
+      <c r="B478" s="51"/>
+      <c r="C478" s="14"/>
+      <c r="D478" s="14"/>
+      <c r="E478" s="15"/>
+    </row>
+    <row r="479" spans="1:5">
+      <c r="A479" s="12">
+        <v>478</v>
+      </c>
+      <c r="B479" s="51"/>
+      <c r="C479" s="14"/>
+      <c r="D479" s="14"/>
+      <c r="E479" s="15"/>
+    </row>
+    <row r="480" spans="1:5">
+      <c r="A480" s="12">
+        <v>479</v>
+      </c>
+      <c r="B480" s="51"/>
+      <c r="C480" s="14"/>
+      <c r="D480" s="14"/>
+      <c r="E480" s="15"/>
+    </row>
+    <row r="481" spans="1:5">
+      <c r="A481" s="12">
+        <v>480</v>
+      </c>
+      <c r="B481" s="51"/>
+      <c r="C481" s="14"/>
+      <c r="D481" s="14"/>
+      <c r="E481" s="15"/>
+    </row>
+    <row r="482" spans="1:5">
+      <c r="A482" s="12">
+        <v>481</v>
+      </c>
+      <c r="B482" s="51"/>
+      <c r="C482" s="14"/>
+      <c r="D482" s="14"/>
+      <c r="E482" s="15"/>
+    </row>
+    <row r="483" spans="1:5">
+      <c r="A483" s="12">
+        <v>482</v>
+      </c>
+      <c r="B483" s="51"/>
+      <c r="C483" s="14"/>
+      <c r="D483" s="14"/>
+      <c r="E483" s="15"/>
+    </row>
+    <row r="484" spans="1:5">
+      <c r="A484" s="12">
+        <v>483</v>
+      </c>
+      <c r="B484" s="51"/>
+      <c r="C484" s="14"/>
+      <c r="D484" s="14"/>
+      <c r="E484" s="15"/>
+    </row>
+    <row r="485" spans="1:5">
+      <c r="A485" s="12">
+        <v>484</v>
+      </c>
+      <c r="B485" s="51"/>
+      <c r="C485" s="14"/>
+      <c r="D485" s="14"/>
+      <c r="E485" s="15"/>
+    </row>
+    <row r="486" spans="1:5">
+      <c r="A486" s="12">
+        <v>485</v>
+      </c>
+      <c r="B486" s="51"/>
+      <c r="C486" s="14"/>
+      <c r="D486" s="14"/>
+      <c r="E486" s="15"/>
+    </row>
+    <row r="487" spans="1:5">
+      <c r="A487" s="12">
+        <v>486</v>
+      </c>
+      <c r="B487" s="51"/>
+      <c r="C487" s="14"/>
+      <c r="D487" s="14"/>
+      <c r="E487" s="15"/>
+    </row>
+    <row r="488" spans="1:5">
+      <c r="A488" s="12">
+        <v>487</v>
+      </c>
+      <c r="B488" s="51"/>
+      <c r="C488" s="14"/>
+      <c r="D488" s="14"/>
+      <c r="E488" s="15"/>
+    </row>
+    <row r="489" spans="1:5">
+      <c r="A489" s="12">
+        <v>488</v>
+      </c>
+      <c r="B489" s="51"/>
+      <c r="C489" s="14"/>
+      <c r="D489" s="14"/>
+      <c r="E489" s="15"/>
+    </row>
+    <row r="490" spans="1:5">
+      <c r="A490" s="12">
+        <v>489</v>
+      </c>
+      <c r="B490" s="51"/>
+      <c r="C490" s="14"/>
+      <c r="D490" s="14"/>
+      <c r="E490" s="15"/>
+    </row>
+    <row r="491" spans="1:5">
+      <c r="A491" s="12">
+        <v>490</v>
+      </c>
+      <c r="B491" s="51"/>
+      <c r="C491" s="14"/>
+      <c r="D491" s="14"/>
+      <c r="E491" s="15"/>
+    </row>
+    <row r="492" spans="1:5">
+      <c r="A492" s="12">
+        <v>491</v>
+      </c>
+      <c r="B492" s="51"/>
+      <c r="C492" s="14"/>
+      <c r="D492" s="14"/>
+      <c r="E492" s="15"/>
+    </row>
+    <row r="493" spans="1:5">
+      <c r="A493" s="12">
+        <v>492</v>
+      </c>
+      <c r="B493" s="51"/>
+      <c r="C493" s="14"/>
+      <c r="D493" s="14"/>
+      <c r="E493" s="15"/>
+    </row>
+    <row r="494" spans="1:5">
+      <c r="A494" s="12">
+        <v>493</v>
+      </c>
+      <c r="B494" s="51"/>
+      <c r="C494" s="14"/>
+      <c r="D494" s="14"/>
+      <c r="E494" s="15"/>
+    </row>
+    <row r="495" spans="1:5">
+      <c r="A495" s="12">
+        <v>494</v>
+      </c>
+      <c r="B495" s="51"/>
+      <c r="C495" s="14"/>
+      <c r="D495" s="14"/>
+      <c r="E495" s="15"/>
+    </row>
+    <row r="496" spans="1:5">
+      <c r="A496" s="12">
+        <v>495</v>
+      </c>
+      <c r="B496" s="51"/>
+      <c r="C496" s="14"/>
+      <c r="D496" s="14"/>
+      <c r="E496" s="15"/>
+    </row>
+    <row r="497" spans="1:5">
+      <c r="A497" s="12">
+        <v>496</v>
+      </c>
+      <c r="B497" s="51"/>
+      <c r="C497" s="14"/>
+      <c r="D497" s="14"/>
+      <c r="E497" s="15"/>
+    </row>
+    <row r="498" spans="1:5">
+      <c r="A498" s="12">
+        <v>497</v>
+      </c>
+      <c r="B498" s="51"/>
+      <c r="C498" s="14"/>
+      <c r="D498" s="14"/>
+      <c r="E498" s="15"/>
+    </row>
+    <row r="499" spans="1:5">
+      <c r="A499" s="12">
+        <v>498</v>
+      </c>
+      <c r="B499" s="51"/>
+      <c r="C499" s="14"/>
+      <c r="D499" s="14"/>
+      <c r="E499" s="15"/>
+    </row>
+    <row r="500" spans="1:5">
+      <c r="A500" s="12">
+        <v>499</v>
+      </c>
+      <c r="B500" s="51"/>
+      <c r="C500" s="14"/>
+      <c r="D500" s="14"/>
+      <c r="E500" s="15"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <dataValidations count="1">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C101 D2:D101">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:E500">
       <formula1>1</formula1>
       <formula2>10000</formula2>
     </dataValidation>
@@ -6116,12 +9853,18 @@
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'Species Codes'!$A$2:$A$139</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B101</xm:sqref>
+          <xm:sqref>C2:C500</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Enter a valid vessel number" error="Please check the tab 'Form A - Fleet' and enter a valid vessel ID number from which the catch was sampled">
+          <x14:formula1>
+            <xm:f>'Form A - Fleet'!$A$2:$A$51</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2:B500</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -29834,31 +33577,106 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="34"/>
-    <col min="2" max="16384" width="10.83203125" style="33"/>
+    <col min="1" max="1" width="10.83203125" style="30"/>
+    <col min="2" max="16384" width="10.83203125" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="32" t="s">
-        <v>807</v>
+      <c r="A1" s="28" t="s">
+        <v>806</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="34">
-        <v>1234</v>
+      <c r="A2" s="30">
+        <v>51.1</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="34">
-        <v>2345</v>
+      <c r="A3" s="30">
+        <v>51.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="30">
+        <v>51.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="30">
+        <v>51.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="30">
+        <v>51.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="30">
+        <v>51.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="30">
+        <v>51.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="30">
+        <v>51.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="30" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="30" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="30">
+        <v>52.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="30">
+        <v>52.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="30">
+        <v>52.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="30">
+        <v>52.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="30">
+        <v>52.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="30" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="30" t="s">
+        <v>831</v>
       </c>
     </row>
   </sheetData>
@@ -29882,31 +33700,31 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="36"/>
+    <col min="1" max="16384" width="10.83203125" style="32"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="31" t="s">
+        <v>806</v>
+      </c>
+      <c r="B1" s="31" t="s">
         <v>807</v>
       </c>
-      <c r="B1" s="35" t="s">
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="32" t="s">
         <v>808</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="36" t="s">
+      <c r="B2" s="32" t="s">
         <v>809</v>
       </c>
-      <c r="B2" s="36" t="s">
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="32" t="s">
         <v>810</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="36" t="s">
+      <c r="B3" s="32" t="s">
         <v>811</v>
-      </c>
-      <c r="B3" s="36" t="s">
-        <v>812</v>
       </c>
     </row>
   </sheetData>
@@ -29922,9 +33740,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
@@ -29933,30 +33753,133 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="42" t="s">
-        <v>807</v>
-      </c>
-      <c r="B1" s="43" t="s">
-        <v>3</v>
-      </c>
+      <c r="A1" s="38" t="s">
+        <v>824</v>
+      </c>
+      <c r="B1" s="44"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="45" t="s">
+        <v>815</v>
+      </c>
+      <c r="B2" s="7"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="46" t="s">
+        <v>820</v>
+      </c>
+      <c r="B3" s="7"/>
+    </row>
+    <row r="4" spans="1:2" ht="25">
+      <c r="A4" s="47" t="s">
+        <v>825</v>
+      </c>
+      <c r="B4" s="7"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="46" t="s">
+        <v>822</v>
+      </c>
+      <c r="B5" s="7"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="45" t="s">
         <v>813</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="6" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="6" t="s">
+      <c r="B6" s="7"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="45" t="s">
+        <v>812</v>
+      </c>
+      <c r="B7" s="7"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="46" t="s">
+        <v>821</v>
+      </c>
+      <c r="B8" s="7"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="46" t="s">
+        <v>818</v>
+      </c>
+      <c r="B9" s="7"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="45" t="s">
+        <v>823</v>
+      </c>
+      <c r="B10" s="7"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="46" t="s">
+        <v>819</v>
+      </c>
+      <c r="B11" s="7"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="45" t="s">
         <v>814</v>
       </c>
+      <c r="B12" s="7"/>
+    </row>
+    <row r="13" spans="1:2" ht="25">
+      <c r="A13" s="48" t="s">
+        <v>827</v>
+      </c>
+      <c r="B13" s="7"/>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="45" t="s">
+        <v>816</v>
+      </c>
+      <c r="B14" s="7"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="45" t="s">
+        <v>826</v>
+      </c>
+      <c r="B15" s="7"/>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="45" t="s">
+        <v>817</v>
+      </c>
+      <c r="B16" s="7"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="45"/>
+      <c r="B17" s="7"/>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="45"/>
+      <c r="B18" s="7"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="45"/>
+      <c r="B19" s="7"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="45"/>
+      <c r="B20" s="7"/>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="45"/>
+      <c r="B21" s="7"/>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="45"/>
+      <c r="B22" s="7"/>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="B23" s="7"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sortState ref="A2:A16">
+    <sortCondition descending="1" ref="A2"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/public/Database.template.xlsx
+++ b/public/Database.template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0"/>
   <workbookProtection workbookPassword="C470" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="-440" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="10900" yWindow="660" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Code" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1185" uniqueCount="835">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="840">
   <si>
     <t>Form A</t>
   </si>
@@ -2478,15 +2478,6 @@
     <t>Tanah Ampo</t>
   </si>
   <si>
-    <t>Anantelo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ahmad </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gemelut </t>
-  </si>
-  <si>
     <t xml:space="preserve">Bunutun </t>
   </si>
   <si>
@@ -2496,9 +2487,6 @@
     <t xml:space="preserve">Kusamba </t>
   </si>
   <si>
-    <t>Pessinggahan</t>
-  </si>
-  <si>
     <t>Candidasa</t>
   </si>
   <si>
@@ -2533,6 +2521,33 @@
   </si>
   <si>
     <t>Fleet No.</t>
+  </si>
+  <si>
+    <t>No. vessels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jemelut </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amed </t>
+  </si>
+  <si>
+    <t>Angantelo</t>
+  </si>
+  <si>
+    <t>Pesinggahan</t>
+  </si>
+  <si>
+    <t>Dep. Date</t>
+  </si>
+  <si>
+    <t>Abort (Y/N)</t>
+  </si>
+  <si>
+    <t>Ice</t>
+  </si>
+  <si>
+    <t>Conditions</t>
   </si>
 </sst>
 </file>
@@ -2540,7 +2555,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]h:mm\ AM/PM;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]h:mm\ AM/PM;@"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -3068,7 +3083,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="10">
+  <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3077,12 +3092,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyBorder="0">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" applyBorder="0">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3197,15 +3216,35 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="10">
+  <cellStyles count="14">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="7"/>
     <cellStyle name="Normal 3" xfId="9"/>
@@ -3608,7 +3647,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -3782,10 +3821,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="56.5" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -3812,7 +3851,7 @@
       <c r="A3" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="41"/>
+      <c r="B3" s="52"/>
       <c r="C3" s="34"/>
     </row>
     <row r="4" spans="1:3" s="33" customFormat="1" ht="28" customHeight="1">
@@ -3831,32 +3870,39 @@
     </row>
     <row r="6" spans="1:3" s="33" customFormat="1" ht="28" customHeight="1">
       <c r="A6" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="41"/>
+        <v>831</v>
+      </c>
+      <c r="B6" s="53"/>
       <c r="C6" s="34"/>
     </row>
     <row r="7" spans="1:3" s="33" customFormat="1" ht="28" customHeight="1">
       <c r="A7" s="36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B7" s="41"/>
       <c r="C7" s="34"/>
     </row>
-    <row r="8" spans="1:3" s="33" customFormat="1" ht="28" customHeight="1" thickBot="1">
-      <c r="A8" s="37" t="s">
+    <row r="8" spans="1:3" s="33" customFormat="1" ht="28" customHeight="1">
+      <c r="A8" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="41"/>
+      <c r="C8" s="34"/>
+    </row>
+    <row r="9" spans="1:3" s="33" customFormat="1" ht="28" customHeight="1" thickBot="1">
+      <c r="A9" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="43"/>
-      <c r="C8" s="34"/>
-    </row>
-    <row r="9" spans="1:3" ht="14" thickTop="1">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="34"/>
+    </row>
+    <row r="10" spans="1:3" ht="14" thickTop="1">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
-  <dataValidations count="3">
+  <dataValidations count="4">
     <dataValidation type="date" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Please check your entry" error="You must enter the date on which this survey was conducted." sqref="B3">
       <formula1>40909</formula1>
       <formula2>55153</formula2>
@@ -3868,6 +3914,10 @@
     <dataValidation type="time" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Please check your entry" error="You must enter the end time for this survey, which must be after the start time." sqref="B5">
       <formula1>B4</formula1>
       <formula2>0.999305555555556</formula2>
+    </dataValidation>
+    <dataValidation type="whole" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Please check your entry" error="You must enter the end time for this survey, which must be after the start time." sqref="B6">
+      <formula1>0</formula1>
+      <formula2>9999</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -3898,21 +3948,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S52"/>
+  <dimension ref="A1:W52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" thickBottom="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="4" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="8" width="10.83203125" style="16"/>
-    <col min="9" max="9" width="15.5" style="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="10.83203125" style="16"/>
+    <col min="2" max="9" width="10.83203125" style="16"/>
+    <col min="10" max="10" width="15.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" thickTop="1" thickBot="1">
+    <row r="1" spans="1:23" ht="15" thickTop="1" thickBot="1">
       <c r="A1" s="19" t="s">
         <v>45</v>
       </c>
@@ -3935,41 +3985,53 @@
         <v>34</v>
       </c>
       <c r="H1" s="20" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="I1" s="20" t="s">
+        <v>836</v>
+      </c>
+      <c r="J1" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="K1" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="L1" s="20" t="s">
+        <v>837</v>
+      </c>
+      <c r="M1" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="N1" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="O1" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="20" t="s">
+      <c r="P1" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="O1" s="20" t="s">
+      <c r="Q1" s="20" t="s">
+        <v>838</v>
+      </c>
+      <c r="R1" s="20" t="s">
+        <v>839</v>
+      </c>
+      <c r="S1" s="20" t="s">
         <v>805</v>
       </c>
-      <c r="P1" s="20" t="s">
+      <c r="T1" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="Q1" s="20" t="s">
+      <c r="U1" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="R1" s="21" t="s">
+      <c r="V1" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="S1" s="17"/>
-    </row>
-    <row r="2" spans="1:19" thickBot="1">
+      <c r="W1" s="17"/>
+    </row>
+    <row r="2" spans="1:23" thickBot="1">
       <c r="A2" s="22">
         <v>1</v>
       </c>
@@ -3980,19 +4042,23 @@
       <c r="F2" s="24"/>
       <c r="G2" s="24"/>
       <c r="H2" s="24"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
       <c r="M2" s="24"/>
       <c r="N2" s="24"/>
       <c r="O2" s="24"/>
       <c r="P2" s="24"/>
       <c r="Q2" s="24"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="17"/>
-    </row>
-    <row r="3" spans="1:19" thickBot="1">
+      <c r="R2" s="24"/>
+      <c r="S2" s="24"/>
+      <c r="T2" s="24"/>
+      <c r="U2" s="24"/>
+      <c r="V2" s="25"/>
+      <c r="W2" s="17"/>
+    </row>
+    <row r="3" spans="1:23" thickBot="1">
       <c r="A3" s="22">
         <v>2</v>
       </c>
@@ -4003,19 +4069,23 @@
       <c r="F3" s="24"/>
       <c r="G3" s="24"/>
       <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
       <c r="M3" s="24"/>
       <c r="N3" s="24"/>
       <c r="O3" s="24"/>
       <c r="P3" s="24"/>
       <c r="Q3" s="24"/>
-      <c r="R3" s="25"/>
-      <c r="S3" s="17"/>
-    </row>
-    <row r="4" spans="1:19" thickBot="1">
+      <c r="R3" s="24"/>
+      <c r="S3" s="24"/>
+      <c r="T3" s="24"/>
+      <c r="U3" s="24"/>
+      <c r="V3" s="25"/>
+      <c r="W3" s="17"/>
+    </row>
+    <row r="4" spans="1:23" thickBot="1">
       <c r="A4" s="22">
         <v>3</v>
       </c>
@@ -4026,19 +4096,23 @@
       <c r="F4" s="24"/>
       <c r="G4" s="24"/>
       <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
       <c r="M4" s="24"/>
       <c r="N4" s="24"/>
       <c r="O4" s="24"/>
       <c r="P4" s="24"/>
       <c r="Q4" s="24"/>
-      <c r="R4" s="25"/>
-      <c r="S4" s="17"/>
-    </row>
-    <row r="5" spans="1:19" thickBot="1">
+      <c r="R4" s="24"/>
+      <c r="S4" s="24"/>
+      <c r="T4" s="24"/>
+      <c r="U4" s="24"/>
+      <c r="V4" s="25"/>
+      <c r="W4" s="17"/>
+    </row>
+    <row r="5" spans="1:23" thickBot="1">
       <c r="A5" s="22">
         <v>4</v>
       </c>
@@ -4049,7 +4123,7 @@
       <c r="F5" s="24"/>
       <c r="G5" s="24"/>
       <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
+      <c r="I5" s="54"/>
       <c r="J5" s="24"/>
       <c r="K5" s="24"/>
       <c r="L5" s="24"/>
@@ -4058,10 +4132,14 @@
       <c r="O5" s="24"/>
       <c r="P5" s="24"/>
       <c r="Q5" s="24"/>
-      <c r="R5" s="25"/>
-      <c r="S5" s="17"/>
-    </row>
-    <row r="6" spans="1:19" thickBot="1">
+      <c r="R5" s="24"/>
+      <c r="S5" s="24"/>
+      <c r="T5" s="24"/>
+      <c r="U5" s="24"/>
+      <c r="V5" s="25"/>
+      <c r="W5" s="17"/>
+    </row>
+    <row r="6" spans="1:23" thickBot="1">
       <c r="A6" s="22">
         <v>5</v>
       </c>
@@ -4072,7 +4150,7 @@
       <c r="F6" s="24"/>
       <c r="G6" s="24"/>
       <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
+      <c r="I6" s="54"/>
       <c r="J6" s="24"/>
       <c r="K6" s="24"/>
       <c r="L6" s="24"/>
@@ -4081,10 +4159,14 @@
       <c r="O6" s="24"/>
       <c r="P6" s="24"/>
       <c r="Q6" s="24"/>
-      <c r="R6" s="25"/>
-      <c r="S6" s="17"/>
-    </row>
-    <row r="7" spans="1:19" thickBot="1">
+      <c r="R6" s="24"/>
+      <c r="S6" s="24"/>
+      <c r="T6" s="24"/>
+      <c r="U6" s="24"/>
+      <c r="V6" s="25"/>
+      <c r="W6" s="17"/>
+    </row>
+    <row r="7" spans="1:23" thickBot="1">
       <c r="A7" s="22">
         <v>6</v>
       </c>
@@ -4095,7 +4177,7 @@
       <c r="F7" s="24"/>
       <c r="G7" s="24"/>
       <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
+      <c r="I7" s="54"/>
       <c r="J7" s="24"/>
       <c r="K7" s="24"/>
       <c r="L7" s="24"/>
@@ -4104,10 +4186,14 @@
       <c r="O7" s="24"/>
       <c r="P7" s="24"/>
       <c r="Q7" s="24"/>
-      <c r="R7" s="25"/>
-      <c r="S7" s="17"/>
-    </row>
-    <row r="8" spans="1:19" thickBot="1">
+      <c r="R7" s="24"/>
+      <c r="S7" s="24"/>
+      <c r="T7" s="24"/>
+      <c r="U7" s="24"/>
+      <c r="V7" s="25"/>
+      <c r="W7" s="17"/>
+    </row>
+    <row r="8" spans="1:23" thickBot="1">
       <c r="A8" s="22">
         <v>7</v>
       </c>
@@ -4118,7 +4204,7 @@
       <c r="F8" s="24"/>
       <c r="G8" s="24"/>
       <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
+      <c r="I8" s="54"/>
       <c r="J8" s="24"/>
       <c r="K8" s="24"/>
       <c r="L8" s="24"/>
@@ -4127,10 +4213,14 @@
       <c r="O8" s="24"/>
       <c r="P8" s="24"/>
       <c r="Q8" s="24"/>
-      <c r="R8" s="25"/>
-      <c r="S8" s="17"/>
-    </row>
-    <row r="9" spans="1:19" thickBot="1">
+      <c r="R8" s="24"/>
+      <c r="S8" s="24"/>
+      <c r="T8" s="24"/>
+      <c r="U8" s="24"/>
+      <c r="V8" s="25"/>
+      <c r="W8" s="17"/>
+    </row>
+    <row r="9" spans="1:23" thickBot="1">
       <c r="A9" s="22">
         <v>8</v>
       </c>
@@ -4141,7 +4231,7 @@
       <c r="F9" s="24"/>
       <c r="G9" s="24"/>
       <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
+      <c r="I9" s="54"/>
       <c r="J9" s="24"/>
       <c r="K9" s="24"/>
       <c r="L9" s="24"/>
@@ -4150,10 +4240,14 @@
       <c r="O9" s="24"/>
       <c r="P9" s="24"/>
       <c r="Q9" s="24"/>
-      <c r="R9" s="25"/>
-      <c r="S9" s="17"/>
-    </row>
-    <row r="10" spans="1:19" thickBot="1">
+      <c r="R9" s="24"/>
+      <c r="S9" s="24"/>
+      <c r="T9" s="24"/>
+      <c r="U9" s="24"/>
+      <c r="V9" s="25"/>
+      <c r="W9" s="17"/>
+    </row>
+    <row r="10" spans="1:23" thickBot="1">
       <c r="A10" s="22">
         <v>9</v>
       </c>
@@ -4164,7 +4258,7 @@
       <c r="F10" s="24"/>
       <c r="G10" s="24"/>
       <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
+      <c r="I10" s="54"/>
       <c r="J10" s="24"/>
       <c r="K10" s="24"/>
       <c r="L10" s="24"/>
@@ -4173,10 +4267,14 @@
       <c r="O10" s="24"/>
       <c r="P10" s="24"/>
       <c r="Q10" s="24"/>
-      <c r="R10" s="25"/>
-      <c r="S10" s="17"/>
-    </row>
-    <row r="11" spans="1:19" thickBot="1">
+      <c r="R10" s="24"/>
+      <c r="S10" s="24"/>
+      <c r="T10" s="24"/>
+      <c r="U10" s="24"/>
+      <c r="V10" s="25"/>
+      <c r="W10" s="17"/>
+    </row>
+    <row r="11" spans="1:23" thickBot="1">
       <c r="A11" s="22">
         <v>10</v>
       </c>
@@ -4187,7 +4285,7 @@
       <c r="F11" s="24"/>
       <c r="G11" s="24"/>
       <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
+      <c r="I11" s="54"/>
       <c r="J11" s="24"/>
       <c r="K11" s="24"/>
       <c r="L11" s="24"/>
@@ -4196,10 +4294,14 @@
       <c r="O11" s="24"/>
       <c r="P11" s="24"/>
       <c r="Q11" s="24"/>
-      <c r="R11" s="25"/>
-      <c r="S11" s="17"/>
-    </row>
-    <row r="12" spans="1:19" thickBot="1">
+      <c r="R11" s="24"/>
+      <c r="S11" s="24"/>
+      <c r="T11" s="24"/>
+      <c r="U11" s="24"/>
+      <c r="V11" s="25"/>
+      <c r="W11" s="17"/>
+    </row>
+    <row r="12" spans="1:23" thickBot="1">
       <c r="A12" s="22">
         <v>11</v>
       </c>
@@ -4210,7 +4312,7 @@
       <c r="F12" s="24"/>
       <c r="G12" s="24"/>
       <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
+      <c r="I12" s="54"/>
       <c r="J12" s="24"/>
       <c r="K12" s="24"/>
       <c r="L12" s="24"/>
@@ -4219,10 +4321,14 @@
       <c r="O12" s="24"/>
       <c r="P12" s="24"/>
       <c r="Q12" s="24"/>
-      <c r="R12" s="25"/>
-      <c r="S12" s="17"/>
-    </row>
-    <row r="13" spans="1:19" thickBot="1">
+      <c r="R12" s="24"/>
+      <c r="S12" s="24"/>
+      <c r="T12" s="24"/>
+      <c r="U12" s="24"/>
+      <c r="V12" s="25"/>
+      <c r="W12" s="17"/>
+    </row>
+    <row r="13" spans="1:23" thickBot="1">
       <c r="A13" s="22">
         <v>12</v>
       </c>
@@ -4233,7 +4339,7 @@
       <c r="F13" s="24"/>
       <c r="G13" s="24"/>
       <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
+      <c r="I13" s="54"/>
       <c r="J13" s="24"/>
       <c r="K13" s="24"/>
       <c r="L13" s="24"/>
@@ -4242,10 +4348,14 @@
       <c r="O13" s="24"/>
       <c r="P13" s="24"/>
       <c r="Q13" s="24"/>
-      <c r="R13" s="25"/>
-      <c r="S13" s="17"/>
-    </row>
-    <row r="14" spans="1:19" thickBot="1">
+      <c r="R13" s="24"/>
+      <c r="S13" s="24"/>
+      <c r="T13" s="24"/>
+      <c r="U13" s="24"/>
+      <c r="V13" s="25"/>
+      <c r="W13" s="17"/>
+    </row>
+    <row r="14" spans="1:23" thickBot="1">
       <c r="A14" s="22">
         <v>13</v>
       </c>
@@ -4256,7 +4366,7 @@
       <c r="F14" s="24"/>
       <c r="G14" s="24"/>
       <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
+      <c r="I14" s="54"/>
       <c r="J14" s="24"/>
       <c r="K14" s="24"/>
       <c r="L14" s="24"/>
@@ -4265,10 +4375,14 @@
       <c r="O14" s="24"/>
       <c r="P14" s="24"/>
       <c r="Q14" s="24"/>
-      <c r="R14" s="25"/>
-      <c r="S14" s="17"/>
-    </row>
-    <row r="15" spans="1:19" thickBot="1">
+      <c r="R14" s="24"/>
+      <c r="S14" s="24"/>
+      <c r="T14" s="24"/>
+      <c r="U14" s="24"/>
+      <c r="V14" s="25"/>
+      <c r="W14" s="17"/>
+    </row>
+    <row r="15" spans="1:23" thickBot="1">
       <c r="A15" s="22">
         <v>14</v>
       </c>
@@ -4279,7 +4393,7 @@
       <c r="F15" s="24"/>
       <c r="G15" s="24"/>
       <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
+      <c r="I15" s="54"/>
       <c r="J15" s="24"/>
       <c r="K15" s="24"/>
       <c r="L15" s="24"/>
@@ -4288,10 +4402,14 @@
       <c r="O15" s="24"/>
       <c r="P15" s="24"/>
       <c r="Q15" s="24"/>
-      <c r="R15" s="25"/>
-      <c r="S15" s="17"/>
-    </row>
-    <row r="16" spans="1:19" thickBot="1">
+      <c r="R15" s="24"/>
+      <c r="S15" s="24"/>
+      <c r="T15" s="24"/>
+      <c r="U15" s="24"/>
+      <c r="V15" s="25"/>
+      <c r="W15" s="17"/>
+    </row>
+    <row r="16" spans="1:23" thickBot="1">
       <c r="A16" s="22">
         <v>15</v>
       </c>
@@ -4302,7 +4420,7 @@
       <c r="F16" s="24"/>
       <c r="G16" s="24"/>
       <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
+      <c r="I16" s="54"/>
       <c r="J16" s="24"/>
       <c r="K16" s="24"/>
       <c r="L16" s="24"/>
@@ -4311,10 +4429,14 @@
       <c r="O16" s="24"/>
       <c r="P16" s="24"/>
       <c r="Q16" s="24"/>
-      <c r="R16" s="25"/>
-      <c r="S16" s="17"/>
-    </row>
-    <row r="17" spans="1:19" thickBot="1">
+      <c r="R16" s="24"/>
+      <c r="S16" s="24"/>
+      <c r="T16" s="24"/>
+      <c r="U16" s="24"/>
+      <c r="V16" s="25"/>
+      <c r="W16" s="17"/>
+    </row>
+    <row r="17" spans="1:23" thickBot="1">
       <c r="A17" s="22">
         <v>16</v>
       </c>
@@ -4325,7 +4447,7 @@
       <c r="F17" s="24"/>
       <c r="G17" s="24"/>
       <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
+      <c r="I17" s="54"/>
       <c r="J17" s="24"/>
       <c r="K17" s="24"/>
       <c r="L17" s="24"/>
@@ -4334,10 +4456,14 @@
       <c r="O17" s="24"/>
       <c r="P17" s="24"/>
       <c r="Q17" s="24"/>
-      <c r="R17" s="25"/>
-      <c r="S17" s="17"/>
-    </row>
-    <row r="18" spans="1:19" thickBot="1">
+      <c r="R17" s="24"/>
+      <c r="S17" s="24"/>
+      <c r="T17" s="24"/>
+      <c r="U17" s="24"/>
+      <c r="V17" s="25"/>
+      <c r="W17" s="17"/>
+    </row>
+    <row r="18" spans="1:23" thickBot="1">
       <c r="A18" s="22">
         <v>17</v>
       </c>
@@ -4348,7 +4474,7 @@
       <c r="F18" s="24"/>
       <c r="G18" s="24"/>
       <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
+      <c r="I18" s="54"/>
       <c r="J18" s="24"/>
       <c r="K18" s="24"/>
       <c r="L18" s="24"/>
@@ -4357,10 +4483,14 @@
       <c r="O18" s="24"/>
       <c r="P18" s="24"/>
       <c r="Q18" s="24"/>
-      <c r="R18" s="25"/>
-      <c r="S18" s="17"/>
-    </row>
-    <row r="19" spans="1:19" thickBot="1">
+      <c r="R18" s="24"/>
+      <c r="S18" s="24"/>
+      <c r="T18" s="24"/>
+      <c r="U18" s="24"/>
+      <c r="V18" s="25"/>
+      <c r="W18" s="17"/>
+    </row>
+    <row r="19" spans="1:23" thickBot="1">
       <c r="A19" s="22">
         <v>18</v>
       </c>
@@ -4371,7 +4501,7 @@
       <c r="F19" s="24"/>
       <c r="G19" s="24"/>
       <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
+      <c r="I19" s="54"/>
       <c r="J19" s="24"/>
       <c r="K19" s="24"/>
       <c r="L19" s="24"/>
@@ -4380,10 +4510,14 @@
       <c r="O19" s="24"/>
       <c r="P19" s="24"/>
       <c r="Q19" s="24"/>
-      <c r="R19" s="25"/>
-      <c r="S19" s="17"/>
-    </row>
-    <row r="20" spans="1:19" thickBot="1">
+      <c r="R19" s="24"/>
+      <c r="S19" s="24"/>
+      <c r="T19" s="24"/>
+      <c r="U19" s="24"/>
+      <c r="V19" s="25"/>
+      <c r="W19" s="17"/>
+    </row>
+    <row r="20" spans="1:23" thickBot="1">
       <c r="A20" s="22">
         <v>19</v>
       </c>
@@ -4394,7 +4528,7 @@
       <c r="F20" s="24"/>
       <c r="G20" s="24"/>
       <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
+      <c r="I20" s="54"/>
       <c r="J20" s="24"/>
       <c r="K20" s="24"/>
       <c r="L20" s="24"/>
@@ -4403,10 +4537,14 @@
       <c r="O20" s="24"/>
       <c r="P20" s="24"/>
       <c r="Q20" s="24"/>
-      <c r="R20" s="25"/>
-      <c r="S20" s="17"/>
-    </row>
-    <row r="21" spans="1:19" thickBot="1">
+      <c r="R20" s="24"/>
+      <c r="S20" s="24"/>
+      <c r="T20" s="24"/>
+      <c r="U20" s="24"/>
+      <c r="V20" s="25"/>
+      <c r="W20" s="17"/>
+    </row>
+    <row r="21" spans="1:23" thickBot="1">
       <c r="A21" s="22">
         <v>20</v>
       </c>
@@ -4417,7 +4555,7 @@
       <c r="F21" s="24"/>
       <c r="G21" s="24"/>
       <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
+      <c r="I21" s="54"/>
       <c r="J21" s="24"/>
       <c r="K21" s="24"/>
       <c r="L21" s="24"/>
@@ -4426,10 +4564,14 @@
       <c r="O21" s="24"/>
       <c r="P21" s="24"/>
       <c r="Q21" s="24"/>
-      <c r="R21" s="25"/>
-      <c r="S21" s="17"/>
-    </row>
-    <row r="22" spans="1:19" thickBot="1">
+      <c r="R21" s="24"/>
+      <c r="S21" s="24"/>
+      <c r="T21" s="24"/>
+      <c r="U21" s="24"/>
+      <c r="V21" s="25"/>
+      <c r="W21" s="17"/>
+    </row>
+    <row r="22" spans="1:23" thickBot="1">
       <c r="A22" s="22">
         <v>21</v>
       </c>
@@ -4440,7 +4582,7 @@
       <c r="F22" s="24"/>
       <c r="G22" s="24"/>
       <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
+      <c r="I22" s="54"/>
       <c r="J22" s="24"/>
       <c r="K22" s="24"/>
       <c r="L22" s="24"/>
@@ -4449,10 +4591,14 @@
       <c r="O22" s="24"/>
       <c r="P22" s="24"/>
       <c r="Q22" s="24"/>
-      <c r="R22" s="25"/>
-      <c r="S22" s="17"/>
-    </row>
-    <row r="23" spans="1:19" thickBot="1">
+      <c r="R22" s="24"/>
+      <c r="S22" s="24"/>
+      <c r="T22" s="24"/>
+      <c r="U22" s="24"/>
+      <c r="V22" s="25"/>
+      <c r="W22" s="17"/>
+    </row>
+    <row r="23" spans="1:23" thickBot="1">
       <c r="A23" s="22">
         <v>22</v>
       </c>
@@ -4463,7 +4609,7 @@
       <c r="F23" s="24"/>
       <c r="G23" s="24"/>
       <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
+      <c r="I23" s="54"/>
       <c r="J23" s="24"/>
       <c r="K23" s="24"/>
       <c r="L23" s="24"/>
@@ -4472,10 +4618,14 @@
       <c r="O23" s="24"/>
       <c r="P23" s="24"/>
       <c r="Q23" s="24"/>
-      <c r="R23" s="25"/>
-      <c r="S23" s="17"/>
-    </row>
-    <row r="24" spans="1:19" thickBot="1">
+      <c r="R23" s="24"/>
+      <c r="S23" s="24"/>
+      <c r="T23" s="24"/>
+      <c r="U23" s="24"/>
+      <c r="V23" s="25"/>
+      <c r="W23" s="17"/>
+    </row>
+    <row r="24" spans="1:23" thickBot="1">
       <c r="A24" s="22">
         <v>23</v>
       </c>
@@ -4486,7 +4636,7 @@
       <c r="F24" s="24"/>
       <c r="G24" s="24"/>
       <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
+      <c r="I24" s="54"/>
       <c r="J24" s="24"/>
       <c r="K24" s="24"/>
       <c r="L24" s="24"/>
@@ -4495,10 +4645,14 @@
       <c r="O24" s="24"/>
       <c r="P24" s="24"/>
       <c r="Q24" s="24"/>
-      <c r="R24" s="25"/>
-      <c r="S24" s="17"/>
-    </row>
-    <row r="25" spans="1:19" thickBot="1">
+      <c r="R24" s="24"/>
+      <c r="S24" s="24"/>
+      <c r="T24" s="24"/>
+      <c r="U24" s="24"/>
+      <c r="V24" s="25"/>
+      <c r="W24" s="17"/>
+    </row>
+    <row r="25" spans="1:23" thickBot="1">
       <c r="A25" s="22">
         <v>24</v>
       </c>
@@ -4509,7 +4663,7 @@
       <c r="F25" s="24"/>
       <c r="G25" s="24"/>
       <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
+      <c r="I25" s="54"/>
       <c r="J25" s="24"/>
       <c r="K25" s="24"/>
       <c r="L25" s="24"/>
@@ -4518,10 +4672,14 @@
       <c r="O25" s="24"/>
       <c r="P25" s="24"/>
       <c r="Q25" s="24"/>
-      <c r="R25" s="25"/>
-      <c r="S25" s="17"/>
-    </row>
-    <row r="26" spans="1:19" thickBot="1">
+      <c r="R25" s="24"/>
+      <c r="S25" s="24"/>
+      <c r="T25" s="24"/>
+      <c r="U25" s="24"/>
+      <c r="V25" s="25"/>
+      <c r="W25" s="17"/>
+    </row>
+    <row r="26" spans="1:23" thickBot="1">
       <c r="A26" s="22">
         <v>25</v>
       </c>
@@ -4532,7 +4690,7 @@
       <c r="F26" s="24"/>
       <c r="G26" s="24"/>
       <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
+      <c r="I26" s="54"/>
       <c r="J26" s="24"/>
       <c r="K26" s="24"/>
       <c r="L26" s="24"/>
@@ -4541,10 +4699,14 @@
       <c r="O26" s="24"/>
       <c r="P26" s="24"/>
       <c r="Q26" s="24"/>
-      <c r="R26" s="25"/>
-      <c r="S26" s="17"/>
-    </row>
-    <row r="27" spans="1:19" thickBot="1">
+      <c r="R26" s="24"/>
+      <c r="S26" s="24"/>
+      <c r="T26" s="24"/>
+      <c r="U26" s="24"/>
+      <c r="V26" s="25"/>
+      <c r="W26" s="17"/>
+    </row>
+    <row r="27" spans="1:23" thickBot="1">
       <c r="A27" s="22">
         <v>26</v>
       </c>
@@ -4555,7 +4717,7 @@
       <c r="F27" s="24"/>
       <c r="G27" s="24"/>
       <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
+      <c r="I27" s="54"/>
       <c r="J27" s="24"/>
       <c r="K27" s="24"/>
       <c r="L27" s="24"/>
@@ -4564,10 +4726,14 @@
       <c r="O27" s="24"/>
       <c r="P27" s="24"/>
       <c r="Q27" s="24"/>
-      <c r="R27" s="25"/>
-      <c r="S27" s="17"/>
-    </row>
-    <row r="28" spans="1:19" thickBot="1">
+      <c r="R27" s="24"/>
+      <c r="S27" s="24"/>
+      <c r="T27" s="24"/>
+      <c r="U27" s="24"/>
+      <c r="V27" s="25"/>
+      <c r="W27" s="17"/>
+    </row>
+    <row r="28" spans="1:23" thickBot="1">
       <c r="A28" s="22">
         <v>27</v>
       </c>
@@ -4578,7 +4744,7 @@
       <c r="F28" s="24"/>
       <c r="G28" s="24"/>
       <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
+      <c r="I28" s="54"/>
       <c r="J28" s="24"/>
       <c r="K28" s="24"/>
       <c r="L28" s="24"/>
@@ -4587,10 +4753,14 @@
       <c r="O28" s="24"/>
       <c r="P28" s="24"/>
       <c r="Q28" s="24"/>
-      <c r="R28" s="25"/>
-      <c r="S28" s="17"/>
-    </row>
-    <row r="29" spans="1:19" thickBot="1">
+      <c r="R28" s="24"/>
+      <c r="S28" s="24"/>
+      <c r="T28" s="24"/>
+      <c r="U28" s="24"/>
+      <c r="V28" s="25"/>
+      <c r="W28" s="17"/>
+    </row>
+    <row r="29" spans="1:23" thickBot="1">
       <c r="A29" s="22">
         <v>28</v>
       </c>
@@ -4601,7 +4771,7 @@
       <c r="F29" s="24"/>
       <c r="G29" s="24"/>
       <c r="H29" s="24"/>
-      <c r="I29" s="24"/>
+      <c r="I29" s="54"/>
       <c r="J29" s="24"/>
       <c r="K29" s="24"/>
       <c r="L29" s="24"/>
@@ -4610,10 +4780,14 @@
       <c r="O29" s="24"/>
       <c r="P29" s="24"/>
       <c r="Q29" s="24"/>
-      <c r="R29" s="25"/>
-      <c r="S29" s="17"/>
-    </row>
-    <row r="30" spans="1:19" thickBot="1">
+      <c r="R29" s="24"/>
+      <c r="S29" s="24"/>
+      <c r="T29" s="24"/>
+      <c r="U29" s="24"/>
+      <c r="V29" s="25"/>
+      <c r="W29" s="17"/>
+    </row>
+    <row r="30" spans="1:23" thickBot="1">
       <c r="A30" s="22">
         <v>29</v>
       </c>
@@ -4624,7 +4798,7 @@
       <c r="F30" s="24"/>
       <c r="G30" s="24"/>
       <c r="H30" s="24"/>
-      <c r="I30" s="24"/>
+      <c r="I30" s="54"/>
       <c r="J30" s="24"/>
       <c r="K30" s="24"/>
       <c r="L30" s="24"/>
@@ -4633,10 +4807,14 @@
       <c r="O30" s="24"/>
       <c r="P30" s="24"/>
       <c r="Q30" s="24"/>
-      <c r="R30" s="25"/>
-      <c r="S30" s="17"/>
-    </row>
-    <row r="31" spans="1:19" thickBot="1">
+      <c r="R30" s="24"/>
+      <c r="S30" s="24"/>
+      <c r="T30" s="24"/>
+      <c r="U30" s="24"/>
+      <c r="V30" s="25"/>
+      <c r="W30" s="17"/>
+    </row>
+    <row r="31" spans="1:23" thickBot="1">
       <c r="A31" s="22">
         <v>30</v>
       </c>
@@ -4647,7 +4825,7 @@
       <c r="F31" s="24"/>
       <c r="G31" s="24"/>
       <c r="H31" s="24"/>
-      <c r="I31" s="24"/>
+      <c r="I31" s="54"/>
       <c r="J31" s="24"/>
       <c r="K31" s="24"/>
       <c r="L31" s="24"/>
@@ -4656,10 +4834,14 @@
       <c r="O31" s="24"/>
       <c r="P31" s="24"/>
       <c r="Q31" s="24"/>
-      <c r="R31" s="25"/>
-      <c r="S31" s="17"/>
-    </row>
-    <row r="32" spans="1:19" thickBot="1">
+      <c r="R31" s="24"/>
+      <c r="S31" s="24"/>
+      <c r="T31" s="24"/>
+      <c r="U31" s="24"/>
+      <c r="V31" s="25"/>
+      <c r="W31" s="17"/>
+    </row>
+    <row r="32" spans="1:23" thickBot="1">
       <c r="A32" s="22">
         <v>31</v>
       </c>
@@ -4670,7 +4852,7 @@
       <c r="F32" s="24"/>
       <c r="G32" s="24"/>
       <c r="H32" s="24"/>
-      <c r="I32" s="24"/>
+      <c r="I32" s="54"/>
       <c r="J32" s="24"/>
       <c r="K32" s="24"/>
       <c r="L32" s="24"/>
@@ -4679,10 +4861,14 @@
       <c r="O32" s="24"/>
       <c r="P32" s="24"/>
       <c r="Q32" s="24"/>
-      <c r="R32" s="25"/>
-      <c r="S32" s="17"/>
-    </row>
-    <row r="33" spans="1:19" thickBot="1">
+      <c r="R32" s="24"/>
+      <c r="S32" s="24"/>
+      <c r="T32" s="24"/>
+      <c r="U32" s="24"/>
+      <c r="V32" s="25"/>
+      <c r="W32" s="17"/>
+    </row>
+    <row r="33" spans="1:23" thickBot="1">
       <c r="A33" s="22">
         <v>32</v>
       </c>
@@ -4693,7 +4879,7 @@
       <c r="F33" s="24"/>
       <c r="G33" s="24"/>
       <c r="H33" s="24"/>
-      <c r="I33" s="24"/>
+      <c r="I33" s="54"/>
       <c r="J33" s="24"/>
       <c r="K33" s="24"/>
       <c r="L33" s="24"/>
@@ -4702,10 +4888,14 @@
       <c r="O33" s="24"/>
       <c r="P33" s="24"/>
       <c r="Q33" s="24"/>
-      <c r="R33" s="25"/>
-      <c r="S33" s="17"/>
-    </row>
-    <row r="34" spans="1:19" thickBot="1">
+      <c r="R33" s="24"/>
+      <c r="S33" s="24"/>
+      <c r="T33" s="24"/>
+      <c r="U33" s="24"/>
+      <c r="V33" s="25"/>
+      <c r="W33" s="17"/>
+    </row>
+    <row r="34" spans="1:23" thickBot="1">
       <c r="A34" s="22">
         <v>33</v>
       </c>
@@ -4716,7 +4906,7 @@
       <c r="F34" s="24"/>
       <c r="G34" s="24"/>
       <c r="H34" s="24"/>
-      <c r="I34" s="24"/>
+      <c r="I34" s="54"/>
       <c r="J34" s="24"/>
       <c r="K34" s="24"/>
       <c r="L34" s="24"/>
@@ -4725,10 +4915,14 @@
       <c r="O34" s="24"/>
       <c r="P34" s="24"/>
       <c r="Q34" s="24"/>
-      <c r="R34" s="25"/>
-      <c r="S34" s="17"/>
-    </row>
-    <row r="35" spans="1:19" thickBot="1">
+      <c r="R34" s="24"/>
+      <c r="S34" s="24"/>
+      <c r="T34" s="24"/>
+      <c r="U34" s="24"/>
+      <c r="V34" s="25"/>
+      <c r="W34" s="17"/>
+    </row>
+    <row r="35" spans="1:23" thickBot="1">
       <c r="A35" s="22">
         <v>34</v>
       </c>
@@ -4739,7 +4933,7 @@
       <c r="F35" s="24"/>
       <c r="G35" s="24"/>
       <c r="H35" s="24"/>
-      <c r="I35" s="24"/>
+      <c r="I35" s="54"/>
       <c r="J35" s="24"/>
       <c r="K35" s="24"/>
       <c r="L35" s="24"/>
@@ -4748,10 +4942,14 @@
       <c r="O35" s="24"/>
       <c r="P35" s="24"/>
       <c r="Q35" s="24"/>
-      <c r="R35" s="25"/>
-      <c r="S35" s="17"/>
-    </row>
-    <row r="36" spans="1:19" thickBot="1">
+      <c r="R35" s="24"/>
+      <c r="S35" s="24"/>
+      <c r="T35" s="24"/>
+      <c r="U35" s="24"/>
+      <c r="V35" s="25"/>
+      <c r="W35" s="17"/>
+    </row>
+    <row r="36" spans="1:23" thickBot="1">
       <c r="A36" s="22">
         <v>35</v>
       </c>
@@ -4762,7 +4960,7 @@
       <c r="F36" s="24"/>
       <c r="G36" s="24"/>
       <c r="H36" s="24"/>
-      <c r="I36" s="24"/>
+      <c r="I36" s="54"/>
       <c r="J36" s="24"/>
       <c r="K36" s="24"/>
       <c r="L36" s="24"/>
@@ -4771,10 +4969,14 @@
       <c r="O36" s="24"/>
       <c r="P36" s="24"/>
       <c r="Q36" s="24"/>
-      <c r="R36" s="25"/>
-      <c r="S36" s="17"/>
-    </row>
-    <row r="37" spans="1:19" thickBot="1">
+      <c r="R36" s="24"/>
+      <c r="S36" s="24"/>
+      <c r="T36" s="24"/>
+      <c r="U36" s="24"/>
+      <c r="V36" s="25"/>
+      <c r="W36" s="17"/>
+    </row>
+    <row r="37" spans="1:23" thickBot="1">
       <c r="A37" s="22">
         <v>36</v>
       </c>
@@ -4785,7 +4987,7 @@
       <c r="F37" s="24"/>
       <c r="G37" s="24"/>
       <c r="H37" s="24"/>
-      <c r="I37" s="24"/>
+      <c r="I37" s="54"/>
       <c r="J37" s="24"/>
       <c r="K37" s="24"/>
       <c r="L37" s="24"/>
@@ -4794,10 +4996,14 @@
       <c r="O37" s="24"/>
       <c r="P37" s="24"/>
       <c r="Q37" s="24"/>
-      <c r="R37" s="25"/>
-      <c r="S37" s="17"/>
-    </row>
-    <row r="38" spans="1:19" thickBot="1">
+      <c r="R37" s="24"/>
+      <c r="S37" s="24"/>
+      <c r="T37" s="24"/>
+      <c r="U37" s="24"/>
+      <c r="V37" s="25"/>
+      <c r="W37" s="17"/>
+    </row>
+    <row r="38" spans="1:23" thickBot="1">
       <c r="A38" s="22">
         <v>37</v>
       </c>
@@ -4808,7 +5014,7 @@
       <c r="F38" s="24"/>
       <c r="G38" s="24"/>
       <c r="H38" s="24"/>
-      <c r="I38" s="24"/>
+      <c r="I38" s="54"/>
       <c r="J38" s="24"/>
       <c r="K38" s="24"/>
       <c r="L38" s="24"/>
@@ -4817,10 +5023,14 @@
       <c r="O38" s="24"/>
       <c r="P38" s="24"/>
       <c r="Q38" s="24"/>
-      <c r="R38" s="25"/>
-      <c r="S38" s="17"/>
-    </row>
-    <row r="39" spans="1:19" thickBot="1">
+      <c r="R38" s="24"/>
+      <c r="S38" s="24"/>
+      <c r="T38" s="24"/>
+      <c r="U38" s="24"/>
+      <c r="V38" s="25"/>
+      <c r="W38" s="17"/>
+    </row>
+    <row r="39" spans="1:23" thickBot="1">
       <c r="A39" s="22">
         <v>38</v>
       </c>
@@ -4831,7 +5041,7 @@
       <c r="F39" s="24"/>
       <c r="G39" s="24"/>
       <c r="H39" s="24"/>
-      <c r="I39" s="24"/>
+      <c r="I39" s="54"/>
       <c r="J39" s="24"/>
       <c r="K39" s="24"/>
       <c r="L39" s="24"/>
@@ -4840,10 +5050,14 @@
       <c r="O39" s="24"/>
       <c r="P39" s="24"/>
       <c r="Q39" s="24"/>
-      <c r="R39" s="25"/>
-      <c r="S39" s="17"/>
-    </row>
-    <row r="40" spans="1:19" thickBot="1">
+      <c r="R39" s="24"/>
+      <c r="S39" s="24"/>
+      <c r="T39" s="24"/>
+      <c r="U39" s="24"/>
+      <c r="V39" s="25"/>
+      <c r="W39" s="17"/>
+    </row>
+    <row r="40" spans="1:23" thickBot="1">
       <c r="A40" s="22">
         <v>39</v>
       </c>
@@ -4854,7 +5068,7 @@
       <c r="F40" s="24"/>
       <c r="G40" s="24"/>
       <c r="H40" s="24"/>
-      <c r="I40" s="24"/>
+      <c r="I40" s="54"/>
       <c r="J40" s="24"/>
       <c r="K40" s="24"/>
       <c r="L40" s="24"/>
@@ -4863,10 +5077,14 @@
       <c r="O40" s="24"/>
       <c r="P40" s="24"/>
       <c r="Q40" s="24"/>
-      <c r="R40" s="25"/>
-      <c r="S40" s="17"/>
-    </row>
-    <row r="41" spans="1:19" thickBot="1">
+      <c r="R40" s="24"/>
+      <c r="S40" s="24"/>
+      <c r="T40" s="24"/>
+      <c r="U40" s="24"/>
+      <c r="V40" s="25"/>
+      <c r="W40" s="17"/>
+    </row>
+    <row r="41" spans="1:23" thickBot="1">
       <c r="A41" s="22">
         <v>40</v>
       </c>
@@ -4877,7 +5095,7 @@
       <c r="F41" s="24"/>
       <c r="G41" s="24"/>
       <c r="H41" s="24"/>
-      <c r="I41" s="24"/>
+      <c r="I41" s="54"/>
       <c r="J41" s="24"/>
       <c r="K41" s="24"/>
       <c r="L41" s="24"/>
@@ -4886,10 +5104,14 @@
       <c r="O41" s="24"/>
       <c r="P41" s="24"/>
       <c r="Q41" s="24"/>
-      <c r="R41" s="25"/>
-      <c r="S41" s="17"/>
-    </row>
-    <row r="42" spans="1:19" thickBot="1">
+      <c r="R41" s="24"/>
+      <c r="S41" s="24"/>
+      <c r="T41" s="24"/>
+      <c r="U41" s="24"/>
+      <c r="V41" s="25"/>
+      <c r="W41" s="17"/>
+    </row>
+    <row r="42" spans="1:23" thickBot="1">
       <c r="A42" s="22">
         <v>41</v>
       </c>
@@ -4900,7 +5122,7 @@
       <c r="F42" s="24"/>
       <c r="G42" s="24"/>
       <c r="H42" s="24"/>
-      <c r="I42" s="24"/>
+      <c r="I42" s="54"/>
       <c r="J42" s="24"/>
       <c r="K42" s="24"/>
       <c r="L42" s="24"/>
@@ -4909,10 +5131,14 @@
       <c r="O42" s="24"/>
       <c r="P42" s="24"/>
       <c r="Q42" s="24"/>
-      <c r="R42" s="25"/>
-      <c r="S42" s="17"/>
-    </row>
-    <row r="43" spans="1:19" thickBot="1">
+      <c r="R42" s="24"/>
+      <c r="S42" s="24"/>
+      <c r="T42" s="24"/>
+      <c r="U42" s="24"/>
+      <c r="V42" s="25"/>
+      <c r="W42" s="17"/>
+    </row>
+    <row r="43" spans="1:23" thickBot="1">
       <c r="A43" s="22">
         <v>42</v>
       </c>
@@ -4923,7 +5149,7 @@
       <c r="F43" s="24"/>
       <c r="G43" s="24"/>
       <c r="H43" s="24"/>
-      <c r="I43" s="24"/>
+      <c r="I43" s="54"/>
       <c r="J43" s="24"/>
       <c r="K43" s="24"/>
       <c r="L43" s="24"/>
@@ -4932,10 +5158,14 @@
       <c r="O43" s="24"/>
       <c r="P43" s="24"/>
       <c r="Q43" s="24"/>
-      <c r="R43" s="25"/>
-      <c r="S43" s="17"/>
-    </row>
-    <row r="44" spans="1:19" thickBot="1">
+      <c r="R43" s="24"/>
+      <c r="S43" s="24"/>
+      <c r="T43" s="24"/>
+      <c r="U43" s="24"/>
+      <c r="V43" s="25"/>
+      <c r="W43" s="17"/>
+    </row>
+    <row r="44" spans="1:23" thickBot="1">
       <c r="A44" s="22">
         <v>43</v>
       </c>
@@ -4946,7 +5176,7 @@
       <c r="F44" s="24"/>
       <c r="G44" s="24"/>
       <c r="H44" s="24"/>
-      <c r="I44" s="24"/>
+      <c r="I44" s="54"/>
       <c r="J44" s="24"/>
       <c r="K44" s="24"/>
       <c r="L44" s="24"/>
@@ -4955,10 +5185,14 @@
       <c r="O44" s="24"/>
       <c r="P44" s="24"/>
       <c r="Q44" s="24"/>
-      <c r="R44" s="25"/>
-      <c r="S44" s="17"/>
-    </row>
-    <row r="45" spans="1:19" thickBot="1">
+      <c r="R44" s="24"/>
+      <c r="S44" s="24"/>
+      <c r="T44" s="24"/>
+      <c r="U44" s="24"/>
+      <c r="V44" s="25"/>
+      <c r="W44" s="17"/>
+    </row>
+    <row r="45" spans="1:23" thickBot="1">
       <c r="A45" s="22">
         <v>44</v>
       </c>
@@ -4969,7 +5203,7 @@
       <c r="F45" s="24"/>
       <c r="G45" s="24"/>
       <c r="H45" s="24"/>
-      <c r="I45" s="24"/>
+      <c r="I45" s="54"/>
       <c r="J45" s="24"/>
       <c r="K45" s="24"/>
       <c r="L45" s="24"/>
@@ -4978,10 +5212,14 @@
       <c r="O45" s="24"/>
       <c r="P45" s="24"/>
       <c r="Q45" s="24"/>
-      <c r="R45" s="25"/>
-      <c r="S45" s="17"/>
-    </row>
-    <row r="46" spans="1:19" thickBot="1">
+      <c r="R45" s="24"/>
+      <c r="S45" s="24"/>
+      <c r="T45" s="24"/>
+      <c r="U45" s="24"/>
+      <c r="V45" s="25"/>
+      <c r="W45" s="17"/>
+    </row>
+    <row r="46" spans="1:23" thickBot="1">
       <c r="A46" s="22">
         <v>45</v>
       </c>
@@ -4992,7 +5230,7 @@
       <c r="F46" s="24"/>
       <c r="G46" s="24"/>
       <c r="H46" s="24"/>
-      <c r="I46" s="24"/>
+      <c r="I46" s="54"/>
       <c r="J46" s="24"/>
       <c r="K46" s="24"/>
       <c r="L46" s="24"/>
@@ -5001,10 +5239,14 @@
       <c r="O46" s="24"/>
       <c r="P46" s="24"/>
       <c r="Q46" s="24"/>
-      <c r="R46" s="25"/>
-      <c r="S46" s="17"/>
-    </row>
-    <row r="47" spans="1:19" thickBot="1">
+      <c r="R46" s="24"/>
+      <c r="S46" s="24"/>
+      <c r="T46" s="24"/>
+      <c r="U46" s="24"/>
+      <c r="V46" s="25"/>
+      <c r="W46" s="17"/>
+    </row>
+    <row r="47" spans="1:23" thickBot="1">
       <c r="A47" s="22">
         <v>46</v>
       </c>
@@ -5015,7 +5257,7 @@
       <c r="F47" s="24"/>
       <c r="G47" s="24"/>
       <c r="H47" s="24"/>
-      <c r="I47" s="24"/>
+      <c r="I47" s="54"/>
       <c r="J47" s="24"/>
       <c r="K47" s="24"/>
       <c r="L47" s="24"/>
@@ -5024,10 +5266,14 @@
       <c r="O47" s="24"/>
       <c r="P47" s="24"/>
       <c r="Q47" s="24"/>
-      <c r="R47" s="25"/>
-      <c r="S47" s="17"/>
-    </row>
-    <row r="48" spans="1:19" thickBot="1">
+      <c r="R47" s="24"/>
+      <c r="S47" s="24"/>
+      <c r="T47" s="24"/>
+      <c r="U47" s="24"/>
+      <c r="V47" s="25"/>
+      <c r="W47" s="17"/>
+    </row>
+    <row r="48" spans="1:23" thickBot="1">
       <c r="A48" s="22">
         <v>47</v>
       </c>
@@ -5038,7 +5284,7 @@
       <c r="F48" s="24"/>
       <c r="G48" s="24"/>
       <c r="H48" s="24"/>
-      <c r="I48" s="24"/>
+      <c r="I48" s="54"/>
       <c r="J48" s="24"/>
       <c r="K48" s="24"/>
       <c r="L48" s="24"/>
@@ -5047,10 +5293,14 @@
       <c r="O48" s="24"/>
       <c r="P48" s="24"/>
       <c r="Q48" s="24"/>
-      <c r="R48" s="25"/>
-      <c r="S48" s="17"/>
-    </row>
-    <row r="49" spans="1:19" thickBot="1">
+      <c r="R48" s="24"/>
+      <c r="S48" s="24"/>
+      <c r="T48" s="24"/>
+      <c r="U48" s="24"/>
+      <c r="V48" s="25"/>
+      <c r="W48" s="17"/>
+    </row>
+    <row r="49" spans="1:23" thickBot="1">
       <c r="A49" s="22">
         <v>48</v>
       </c>
@@ -5061,7 +5311,7 @@
       <c r="F49" s="24"/>
       <c r="G49" s="24"/>
       <c r="H49" s="24"/>
-      <c r="I49" s="24"/>
+      <c r="I49" s="54"/>
       <c r="J49" s="24"/>
       <c r="K49" s="24"/>
       <c r="L49" s="24"/>
@@ -5070,10 +5320,14 @@
       <c r="O49" s="24"/>
       <c r="P49" s="24"/>
       <c r="Q49" s="24"/>
-      <c r="R49" s="25"/>
-      <c r="S49" s="17"/>
-    </row>
-    <row r="50" spans="1:19" thickBot="1">
+      <c r="R49" s="24"/>
+      <c r="S49" s="24"/>
+      <c r="T49" s="24"/>
+      <c r="U49" s="24"/>
+      <c r="V49" s="25"/>
+      <c r="W49" s="17"/>
+    </row>
+    <row r="50" spans="1:23" thickBot="1">
       <c r="A50" s="22">
         <v>49</v>
       </c>
@@ -5084,7 +5338,7 @@
       <c r="F50" s="24"/>
       <c r="G50" s="24"/>
       <c r="H50" s="24"/>
-      <c r="I50" s="24"/>
+      <c r="I50" s="54"/>
       <c r="J50" s="24"/>
       <c r="K50" s="24"/>
       <c r="L50" s="24"/>
@@ -5093,10 +5347,14 @@
       <c r="O50" s="24"/>
       <c r="P50" s="24"/>
       <c r="Q50" s="24"/>
-      <c r="R50" s="25"/>
-      <c r="S50" s="17"/>
-    </row>
-    <row r="51" spans="1:19" thickBot="1">
+      <c r="R50" s="24"/>
+      <c r="S50" s="24"/>
+      <c r="T50" s="24"/>
+      <c r="U50" s="24"/>
+      <c r="V50" s="25"/>
+      <c r="W50" s="17"/>
+    </row>
+    <row r="51" spans="1:23" thickBot="1">
       <c r="A51" s="23">
         <v>50</v>
       </c>
@@ -5107,7 +5365,7 @@
       <c r="F51" s="26"/>
       <c r="G51" s="26"/>
       <c r="H51" s="26"/>
-      <c r="I51" s="26"/>
+      <c r="I51" s="55"/>
       <c r="J51" s="26"/>
       <c r="K51" s="26"/>
       <c r="L51" s="26"/>
@@ -5116,10 +5374,14 @@
       <c r="O51" s="26"/>
       <c r="P51" s="26"/>
       <c r="Q51" s="26"/>
-      <c r="R51" s="27"/>
-      <c r="S51" s="17"/>
-    </row>
-    <row r="52" spans="1:19" ht="15" thickTop="1" thickBot="1">
+      <c r="R51" s="26"/>
+      <c r="S51" s="26"/>
+      <c r="T51" s="26"/>
+      <c r="U51" s="26"/>
+      <c r="V51" s="27"/>
+      <c r="W51" s="17"/>
+    </row>
+    <row r="52" spans="1:23" ht="15" thickTop="1" thickBot="1">
       <c r="A52" s="18"/>
       <c r="B52" s="18"/>
       <c r="C52" s="18"/>
@@ -5138,26 +5400,30 @@
       <c r="P52" s="18"/>
       <c r="Q52" s="18"/>
       <c r="R52" s="18"/>
+      <c r="S52" s="18"/>
+      <c r="T52" s="18"/>
+      <c r="U52" s="18"/>
+      <c r="V52" s="18"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
-  <dataValidations count="11">
-    <dataValidation type="whole" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Please check your entry" error="You must enter the volume of fuel in liters used during this trip (0-1000)." sqref="L2:L51">
+  <dataValidations count="16">
+    <dataValidation type="whole" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Please check your entry" error="You must enter the volume of fuel in liters used during this trip (0-1000)." sqref="N2:N51">
       <formula1>0</formula1>
       <formula2>1000</formula2>
     </dataValidation>
-    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Please check your entry" error="You must indicate whether a sail was used on this trip. Permitted values are:_x000d__x000d_Y : Yes_x000d_N: N" sqref="K2:K51">
+    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Please check your entry" error="You must indicate whether a sail was used on this trip. Permitted values are:_x000d__x000d_Y : Yes_x000d_N: N" sqref="M2:M51">
       <formula1>"Y,N"</formula1>
     </dataValidation>
-    <dataValidation type="whole" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Please check your entry" error="You must enter the total number of people onboard during thsi trip (1-20)." sqref="M2:M51">
+    <dataValidation type="whole" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Please check your entry" error="You must enter the total number of people onboard during thsi trip (1-20)." sqref="O2:O51">
       <formula1>1</formula1>
       <formula2>20</formula2>
     </dataValidation>
-    <dataValidation type="whole" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Please check your entry" error="You must enter the total number of fish landed (0-10000). Leave blank if not known." sqref="Q2:Q51">
+    <dataValidation type="whole" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Please check your entry" error="You must enter the total number of fish landed (0-10000). Leave blank if not known." sqref="U2:U51">
       <formula1>0</formula1>
       <formula2>10000</formula2>
     </dataValidation>
-    <dataValidation type="whole" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Please check your entry" error="You must enter the total value of the catch in Rupia (0-100000000). Leave blank if not known." sqref="R2:R51">
+    <dataValidation type="whole" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Please check your entry" error="You must enter the total value of the catch in Rupia (0-100000000). Leave blank if not known." sqref="V2:V51">
       <formula1>0</formula1>
       <formula2>100000000</formula2>
     </dataValidation>
@@ -5172,17 +5438,34 @@
       <formula1>0</formula1>
       <formula2>1000</formula2>
     </dataValidation>
-    <dataValidation type="time" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Please check your entry" error="You must enter a valid time." sqref="I2:I51">
+    <dataValidation type="time" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Please check your entry" error="You must enter a valid time." sqref="J2:J51">
       <formula1>0</formula1>
       <formula2>0.999305555555556</formula2>
     </dataValidation>
-    <dataValidation type="whole" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Please check your entry" error="You must enter the total weight of the catch in kilograms (0-10000). Leave blank if not known." sqref="P2:P51">
+    <dataValidation type="whole" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Please check your entry" error="You must enter the total weight of the catch in kilograms (0-10000). Leave blank if not known." sqref="T2:T51">
       <formula1>0</formula1>
       <formula2>10000</formula2>
     </dataValidation>
-    <dataValidation type="time" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Please check your entry" error="You must enter a valid arrival time that is after the departure time." sqref="J2:J51">
-      <formula1>I2</formula1>
+    <dataValidation type="time" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Please check your entry" error="You must enter a valid arrival time that is after the departure time." sqref="K2:K51">
+      <formula1>J2</formula1>
       <formula2>0.999305555555556</formula2>
+    </dataValidation>
+    <dataValidation type="date" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Please check your entry" error="You must enter a valid date" sqref="I2:I51">
+      <formula1>40909</formula1>
+      <formula2>55153</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Please check your entry" error="The following values are allowed:_x000d__x000d_OC - outrigger canoe" sqref="D2:D51">
+      <formula1>"OC"</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Please check your entry" error="You must enter 'Y' if the trip was aborted (e.g., due to poor weather or broken engine). Enter 'N' if the trip was not aborted." sqref="L2:L51">
+      <formula1>"Y,N"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Please check your entry" error="You must enter the weight of ice in kg." sqref="Q2:Q51">
+      <formula1>0</formula1>
+      <formula2>99</formula2>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Please check your entry" error="You must enter a recognized code for the sea conditions. Permitted values are:_x000d__x000d_1: Calm_x000d_2: Moderate_x000d_3: Rough" sqref="R2:R51">
+      <formula1>"1,2,3"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -5200,13 +5483,13 @@
           <x14:formula1>
             <xm:f>'Gear Codes'!$A$2:$A$62</xm:f>
           </x14:formula1>
-          <xm:sqref>N2:N51</xm:sqref>
+          <xm:sqref>P2:P51</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Please check your entry" error="You must enter a valid fish ID code. Please check the &quot;Fish Codes&quot; tab.">
           <x14:formula1>
             <xm:f>'Species Codes'!A1:A1000</xm:f>
           </x14:formula1>
-          <xm:sqref>O2:O51</xm:sqref>
+          <xm:sqref>S2:S51</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5222,7 +5505,7 @@
   <dimension ref="A1:F500"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -5237,7 +5520,7 @@
         <v>45</v>
       </c>
       <c r="B1" s="50" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>32</v>
@@ -5246,7 +5529,7 @@
         <v>34</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="F1" s="7"/>
     </row>
@@ -9843,10 +10126,13 @@
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
-  <dataValidations count="1">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:E500">
+  <dataValidations count="2">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Please check your entry" error="Enter a whole number representing the length of the fish in mm." sqref="D2:D500">
       <formula1>1</formula1>
       <formula2>10000</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Please check you entry" error="Enter the sampling factor._x000d__x000d_Enter 'c' for conspicuous fish sampled from the entire catch._x000d__x000d_Enter 's' for sampled fish from the first basket unloaded." sqref="E2:E500">
+      <formula1>"c,s"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -9854,7 +10140,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Please check your entry" error="Please select a species code from the list. See the 'species codes' tab for a complete list. ">
           <x14:formula1>
             <xm:f>'Species Codes'!$A$2:$A$139</xm:f>
           </x14:formula1>
@@ -33580,7 +33866,7 @@
   <dimension ref="A1:A18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="A2" sqref="A2:A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -33636,12 +33922,12 @@
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="30" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="30" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
     </row>
     <row r="12" spans="1:1">
@@ -33671,17 +33957,18 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="30" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="30" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -33743,7 +34030,7 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="A2" sqref="A2:A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -33754,97 +34041,97 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="38" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="B1" s="44"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="45" t="s">
-        <v>815</v>
+        <v>833</v>
       </c>
       <c r="B2" s="7"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="46" t="s">
-        <v>820</v>
+      <c r="A3" s="45" t="s">
+        <v>822</v>
       </c>
       <c r="B3" s="7"/>
     </row>
-    <row r="4" spans="1:2" ht="25">
-      <c r="A4" s="47" t="s">
-        <v>825</v>
+    <row r="4" spans="1:2">
+      <c r="A4" s="45" t="s">
+        <v>834</v>
       </c>
       <c r="B4" s="7"/>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="46" t="s">
-        <v>822</v>
+    <row r="5" spans="1:2" ht="25">
+      <c r="A5" s="48" t="s">
+        <v>823</v>
       </c>
       <c r="B5" s="7"/>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="45" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="B6" s="7"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="45" t="s">
-        <v>812</v>
+      <c r="A7" s="46" t="s">
+        <v>816</v>
       </c>
       <c r="B7" s="7"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="46" t="s">
-        <v>821</v>
+      <c r="A8" s="45" t="s">
+        <v>819</v>
       </c>
       <c r="B8" s="7"/>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="46" t="s">
+        <v>832</v>
+      </c>
+      <c r="B9" s="7"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="46" t="s">
         <v>818</v>
       </c>
-      <c r="B9" s="7"/>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="45" t="s">
-        <v>823</v>
-      </c>
       <c r="B10" s="7"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="46" t="s">
-        <v>819</v>
+      <c r="A11" s="45" t="s">
+        <v>812</v>
       </c>
       <c r="B11" s="7"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="45" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B12" s="7"/>
     </row>
-    <row r="13" spans="1:2" ht="25">
-      <c r="A13" s="48" t="s">
-        <v>827</v>
+    <row r="13" spans="1:2">
+      <c r="A13" s="46" t="s">
+        <v>835</v>
       </c>
       <c r="B13" s="7"/>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="45" t="s">
-        <v>816</v>
+    <row r="14" spans="1:2" ht="25">
+      <c r="A14" s="47" t="s">
+        <v>821</v>
       </c>
       <c r="B14" s="7"/>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="45" t="s">
-        <v>826</v>
+      <c r="A15" s="46" t="s">
+        <v>817</v>
       </c>
       <c r="B15" s="7"/>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="45" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="B16" s="7"/>
     </row>
@@ -33878,9 +34165,10 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState ref="A2:A16">
-    <sortCondition descending="1" ref="A2"/>
+    <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/public/Database.template.xlsx
+++ b/public/Database.template.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23613"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23812"/>
   <workbookPr autoCompressPictures="0"/>
   <workbookProtection workbookPassword="C470" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="10900" yWindow="660" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="-20" yWindow="560" windowWidth="25680" windowHeight="15500" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Code" sheetId="1" r:id="rId1"/>
@@ -3951,7 +3951,7 @@
   <dimension ref="A1:W52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" thickBottom="1" x14ac:dyDescent="0"/>

--- a/public/Database.template.xlsx
+++ b/public/Database.template.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23812"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
   <workbookPr autoCompressPictures="0"/>
   <workbookProtection workbookPassword="C470" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="560" windowWidth="25680" windowHeight="15500" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="5680" yWindow="380" windowWidth="25680" windowHeight="15500" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Code" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="840">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="846">
   <si>
     <t>Form A</t>
   </si>
@@ -2502,18 +2502,6 @@
     <t>Bangko Bangko</t>
   </si>
   <si>
-    <t>51a</t>
-  </si>
-  <si>
-    <t>51b</t>
-  </si>
-  <si>
-    <t>52a</t>
-  </si>
-  <si>
-    <t>52b</t>
-  </si>
-  <si>
     <t>Fishing ground</t>
   </si>
   <si>
@@ -2541,13 +2529,43 @@
     <t>Dep. Date</t>
   </si>
   <si>
-    <t>Abort (Y/N)</t>
-  </si>
-  <si>
     <t>Ice</t>
   </si>
   <si>
-    <t>Conditions</t>
+    <t>Abort</t>
+  </si>
+  <si>
+    <t>LOM-1</t>
+  </si>
+  <si>
+    <t>LOM-2</t>
+  </si>
+  <si>
+    <t>LOM-3</t>
+  </si>
+  <si>
+    <t>LOM-4</t>
+  </si>
+  <si>
+    <t>LOM-5</t>
+  </si>
+  <si>
+    <t>LOM-6</t>
+  </si>
+  <si>
+    <t>SUM-1</t>
+  </si>
+  <si>
+    <t>BAL-1</t>
+  </si>
+  <si>
+    <t>UTA</t>
+  </si>
+  <si>
+    <t>SEL</t>
+  </si>
+  <si>
+    <t>Wave</t>
   </si>
 </sst>
 </file>
@@ -3083,7 +3101,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="14">
+  <cellStyleXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3096,6 +3114,8 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3234,17 +3254,19 @@
       <protection locked="0"/>
     </xf>
   </cellXfs>
-  <cellStyles count="14">
+  <cellStyles count="16">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="14" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="7"/>
     <cellStyle name="Normal 3" xfId="9"/>
@@ -3823,7 +3845,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -3870,7 +3892,7 @@
     </row>
     <row r="6" spans="1:3" s="33" customFormat="1" ht="28" customHeight="1">
       <c r="A6" s="36" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="B6" s="53"/>
       <c r="C6" s="34"/>
@@ -3950,8 +3972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" thickBottom="1" x14ac:dyDescent="0"/>
@@ -3985,10 +4007,10 @@
         <v>34</v>
       </c>
       <c r="H1" s="20" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="I1" s="20" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="J1" s="20" t="s">
         <v>13</v>
@@ -3997,7 +4019,7 @@
         <v>15</v>
       </c>
       <c r="L1" s="20" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="M1" s="20" t="s">
         <v>17</v>
@@ -4012,10 +4034,10 @@
         <v>23</v>
       </c>
       <c r="Q1" s="20" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="R1" s="20" t="s">
-        <v>839</v>
+        <v>845</v>
       </c>
       <c r="S1" s="20" t="s">
         <v>805</v>
@@ -5457,8 +5479,8 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Please check your entry" error="The following values are allowed:_x000d__x000d_OC - outrigger canoe" sqref="D2:D51">
       <formula1>"OC"</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Please check your entry" error="You must enter 'Y' if the trip was aborted (e.g., due to poor weather or broken engine). Enter 'N' if the trip was not aborted." sqref="L2:L51">
-      <formula1>"Y,N"</formula1>
+    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Please check your entry" error="Please select a value from the list:_x000d__x000d_0 = No fish caught_x000d_R = Rusak (mechanical problem)_x000d_H = Hilang (gear lost)_x000d_C = cuaca (bad weather)" sqref="L2:L51">
+      <formula1>"0,R,H,C"</formula1>
     </dataValidation>
     <dataValidation type="whole" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Please check your entry" error="You must enter the weight of ice in kg." sqref="Q2:Q51">
       <formula1>0</formula1>
@@ -5475,7 +5497,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Please check your entry" error="You must enter a valid graticule ID code. Please check the &quot;Graticule Codes&quot; tab.">
           <x14:formula1>
-            <xm:f>'Graticule Codes'!$A$2:$A$1000</xm:f>
+            <xm:f>'Graticule Codes'!$A$2:$A$11</xm:f>
           </x14:formula1>
           <xm:sqref>H2:H51</xm:sqref>
         </x14:dataValidation>
@@ -5520,7 +5542,7 @@
         <v>45</v>
       </c>
       <c r="B1" s="50" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>32</v>
@@ -5529,7 +5551,7 @@
         <v>34</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="F1" s="7"/>
     </row>
@@ -33863,10 +33885,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A18"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A18"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A11" sqref="A2:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -33881,92 +33903,57 @@
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="30">
-        <v>51.1</v>
+      <c r="A2" s="30" t="s">
+        <v>835</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="30">
-        <v>51.2</v>
+      <c r="A3" s="30" t="s">
+        <v>836</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="30">
-        <v>51.3</v>
+      <c r="A4" s="30" t="s">
+        <v>837</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="30">
-        <v>51.4</v>
+      <c r="A5" s="30" t="s">
+        <v>838</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="30">
-        <v>51.5</v>
+      <c r="A6" s="30" t="s">
+        <v>839</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="30">
-        <v>51.6</v>
+      <c r="A7" s="30" t="s">
+        <v>840</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="30">
-        <v>51.7</v>
+      <c r="A8" s="30" t="s">
+        <v>841</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="30">
-        <v>51.8</v>
+      <c r="A9" s="30" t="s">
+        <v>842</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="30" t="s">
-        <v>824</v>
+        <v>843</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="30" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="30">
-        <v>52.1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="30">
-        <v>52.2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="30">
-        <v>52.3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="30">
-        <v>52.4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="30">
-        <v>52.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="30" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="30" t="s">
-        <v>827</v>
+        <v>844</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="1"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -34047,7 +34034,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="45" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="B2" s="7"/>
     </row>
@@ -34059,7 +34046,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="45" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="B4" s="7"/>
     </row>
@@ -34089,7 +34076,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="46" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="B9" s="7"/>
     </row>
@@ -34113,7 +34100,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="46" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="B13" s="7"/>
     </row>

--- a/public/Database.template.xlsx
+++ b/public/Database.template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0"/>
   <workbookProtection workbookPassword="C470" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="5680" yWindow="380" windowWidth="25680" windowHeight="15500" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Code" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="846">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="847">
   <si>
     <t>Form A</t>
   </si>
@@ -2566,6 +2566,9 @@
   </si>
   <si>
     <t>Wave</t>
+  </si>
+  <si>
+    <t>Arr. Date</t>
   </si>
 </sst>
 </file>
@@ -3845,7 +3848,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -3970,9 +3973,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W52"/>
+  <dimension ref="A1:X52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -3981,10 +3984,11 @@
     <col min="1" max="1" width="4" style="16" bestFit="1" customWidth="1"/>
     <col min="2" max="9" width="10.83203125" style="16"/>
     <col min="10" max="10" width="15.5" style="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="16"/>
+    <col min="11" max="11" width="15.5" style="16" customWidth="1"/>
+    <col min="12" max="16384" width="10.83203125" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15" thickTop="1" thickBot="1">
+    <row r="1" spans="1:24" ht="15" thickTop="1" thickBot="1">
       <c r="A1" s="19" t="s">
         <v>45</v>
       </c>
@@ -4016,44 +4020,47 @@
         <v>13</v>
       </c>
       <c r="K1" s="20" t="s">
+        <v>846</v>
+      </c>
+      <c r="L1" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="M1" s="20" t="s">
         <v>834</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="N1" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="20" t="s">
+      <c r="O1" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="20" t="s">
+      <c r="P1" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="20" t="s">
+      <c r="Q1" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="Q1" s="20" t="s">
+      <c r="R1" s="20" t="s">
         <v>833</v>
       </c>
-      <c r="R1" s="20" t="s">
+      <c r="S1" s="20" t="s">
         <v>845</v>
       </c>
-      <c r="S1" s="20" t="s">
+      <c r="T1" s="20" t="s">
         <v>805</v>
       </c>
-      <c r="T1" s="20" t="s">
+      <c r="U1" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="U1" s="20" t="s">
+      <c r="V1" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="V1" s="21" t="s">
+      <c r="W1" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="W1" s="17"/>
-    </row>
-    <row r="2" spans="1:23" thickBot="1">
+      <c r="X1" s="17"/>
+    </row>
+    <row r="2" spans="1:24" thickBot="1">
       <c r="A2" s="22">
         <v>1</v>
       </c>
@@ -4066,9 +4073,9 @@
       <c r="H2" s="24"/>
       <c r="I2" s="54"/>
       <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
+      <c r="K2" s="54"/>
       <c r="L2" s="49"/>
-      <c r="M2" s="24"/>
+      <c r="M2" s="49"/>
       <c r="N2" s="24"/>
       <c r="O2" s="24"/>
       <c r="P2" s="24"/>
@@ -4077,10 +4084,11 @@
       <c r="S2" s="24"/>
       <c r="T2" s="24"/>
       <c r="U2" s="24"/>
-      <c r="V2" s="25"/>
-      <c r="W2" s="17"/>
-    </row>
-    <row r="3" spans="1:23" thickBot="1">
+      <c r="V2" s="24"/>
+      <c r="W2" s="25"/>
+      <c r="X2" s="17"/>
+    </row>
+    <row r="3" spans="1:24" thickBot="1">
       <c r="A3" s="22">
         <v>2</v>
       </c>
@@ -4093,9 +4101,9 @@
       <c r="H3" s="24"/>
       <c r="I3" s="54"/>
       <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
+      <c r="K3" s="54"/>
       <c r="L3" s="49"/>
-      <c r="M3" s="24"/>
+      <c r="M3" s="49"/>
       <c r="N3" s="24"/>
       <c r="O3" s="24"/>
       <c r="P3" s="24"/>
@@ -4104,10 +4112,11 @@
       <c r="S3" s="24"/>
       <c r="T3" s="24"/>
       <c r="U3" s="24"/>
-      <c r="V3" s="25"/>
-      <c r="W3" s="17"/>
-    </row>
-    <row r="4" spans="1:23" thickBot="1">
+      <c r="V3" s="24"/>
+      <c r="W3" s="25"/>
+      <c r="X3" s="17"/>
+    </row>
+    <row r="4" spans="1:24" thickBot="1">
       <c r="A4" s="22">
         <v>3</v>
       </c>
@@ -4120,9 +4129,9 @@
       <c r="H4" s="24"/>
       <c r="I4" s="54"/>
       <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
+      <c r="K4" s="54"/>
       <c r="L4" s="49"/>
-      <c r="M4" s="24"/>
+      <c r="M4" s="49"/>
       <c r="N4" s="24"/>
       <c r="O4" s="24"/>
       <c r="P4" s="24"/>
@@ -4131,10 +4140,11 @@
       <c r="S4" s="24"/>
       <c r="T4" s="24"/>
       <c r="U4" s="24"/>
-      <c r="V4" s="25"/>
-      <c r="W4" s="17"/>
-    </row>
-    <row r="5" spans="1:23" thickBot="1">
+      <c r="V4" s="24"/>
+      <c r="W4" s="25"/>
+      <c r="X4" s="17"/>
+    </row>
+    <row r="5" spans="1:24" thickBot="1">
       <c r="A5" s="22">
         <v>4</v>
       </c>
@@ -4147,7 +4157,7 @@
       <c r="H5" s="24"/>
       <c r="I5" s="54"/>
       <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
+      <c r="K5" s="54"/>
       <c r="L5" s="24"/>
       <c r="M5" s="24"/>
       <c r="N5" s="24"/>
@@ -4158,10 +4168,11 @@
       <c r="S5" s="24"/>
       <c r="T5" s="24"/>
       <c r="U5" s="24"/>
-      <c r="V5" s="25"/>
-      <c r="W5" s="17"/>
-    </row>
-    <row r="6" spans="1:23" thickBot="1">
+      <c r="V5" s="24"/>
+      <c r="W5" s="25"/>
+      <c r="X5" s="17"/>
+    </row>
+    <row r="6" spans="1:24" thickBot="1">
       <c r="A6" s="22">
         <v>5</v>
       </c>
@@ -4174,7 +4185,7 @@
       <c r="H6" s="24"/>
       <c r="I6" s="54"/>
       <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
+      <c r="K6" s="54"/>
       <c r="L6" s="24"/>
       <c r="M6" s="24"/>
       <c r="N6" s="24"/>
@@ -4185,10 +4196,11 @@
       <c r="S6" s="24"/>
       <c r="T6" s="24"/>
       <c r="U6" s="24"/>
-      <c r="V6" s="25"/>
-      <c r="W6" s="17"/>
-    </row>
-    <row r="7" spans="1:23" thickBot="1">
+      <c r="V6" s="24"/>
+      <c r="W6" s="25"/>
+      <c r="X6" s="17"/>
+    </row>
+    <row r="7" spans="1:24" thickBot="1">
       <c r="A7" s="22">
         <v>6</v>
       </c>
@@ -4201,7 +4213,7 @@
       <c r="H7" s="24"/>
       <c r="I7" s="54"/>
       <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
+      <c r="K7" s="54"/>
       <c r="L7" s="24"/>
       <c r="M7" s="24"/>
       <c r="N7" s="24"/>
@@ -4212,10 +4224,11 @@
       <c r="S7" s="24"/>
       <c r="T7" s="24"/>
       <c r="U7" s="24"/>
-      <c r="V7" s="25"/>
-      <c r="W7" s="17"/>
-    </row>
-    <row r="8" spans="1:23" thickBot="1">
+      <c r="V7" s="24"/>
+      <c r="W7" s="25"/>
+      <c r="X7" s="17"/>
+    </row>
+    <row r="8" spans="1:24" thickBot="1">
       <c r="A8" s="22">
         <v>7</v>
       </c>
@@ -4228,7 +4241,7 @@
       <c r="H8" s="24"/>
       <c r="I8" s="54"/>
       <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
+      <c r="K8" s="54"/>
       <c r="L8" s="24"/>
       <c r="M8" s="24"/>
       <c r="N8" s="24"/>
@@ -4239,10 +4252,11 @@
       <c r="S8" s="24"/>
       <c r="T8" s="24"/>
       <c r="U8" s="24"/>
-      <c r="V8" s="25"/>
-      <c r="W8" s="17"/>
-    </row>
-    <row r="9" spans="1:23" thickBot="1">
+      <c r="V8" s="24"/>
+      <c r="W8" s="25"/>
+      <c r="X8" s="17"/>
+    </row>
+    <row r="9" spans="1:24" thickBot="1">
       <c r="A9" s="22">
         <v>8</v>
       </c>
@@ -4255,7 +4269,7 @@
       <c r="H9" s="24"/>
       <c r="I9" s="54"/>
       <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
+      <c r="K9" s="54"/>
       <c r="L9" s="24"/>
       <c r="M9" s="24"/>
       <c r="N9" s="24"/>
@@ -4266,10 +4280,11 @@
       <c r="S9" s="24"/>
       <c r="T9" s="24"/>
       <c r="U9" s="24"/>
-      <c r="V9" s="25"/>
-      <c r="W9" s="17"/>
-    </row>
-    <row r="10" spans="1:23" thickBot="1">
+      <c r="V9" s="24"/>
+      <c r="W9" s="25"/>
+      <c r="X9" s="17"/>
+    </row>
+    <row r="10" spans="1:24" thickBot="1">
       <c r="A10" s="22">
         <v>9</v>
       </c>
@@ -4282,7 +4297,7 @@
       <c r="H10" s="24"/>
       <c r="I10" s="54"/>
       <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
+      <c r="K10" s="54"/>
       <c r="L10" s="24"/>
       <c r="M10" s="24"/>
       <c r="N10" s="24"/>
@@ -4293,10 +4308,11 @@
       <c r="S10" s="24"/>
       <c r="T10" s="24"/>
       <c r="U10" s="24"/>
-      <c r="V10" s="25"/>
-      <c r="W10" s="17"/>
-    </row>
-    <row r="11" spans="1:23" thickBot="1">
+      <c r="V10" s="24"/>
+      <c r="W10" s="25"/>
+      <c r="X10" s="17"/>
+    </row>
+    <row r="11" spans="1:24" thickBot="1">
       <c r="A11" s="22">
         <v>10</v>
       </c>
@@ -4309,7 +4325,7 @@
       <c r="H11" s="24"/>
       <c r="I11" s="54"/>
       <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
+      <c r="K11" s="54"/>
       <c r="L11" s="24"/>
       <c r="M11" s="24"/>
       <c r="N11" s="24"/>
@@ -4320,10 +4336,11 @@
       <c r="S11" s="24"/>
       <c r="T11" s="24"/>
       <c r="U11" s="24"/>
-      <c r="V11" s="25"/>
-      <c r="W11" s="17"/>
-    </row>
-    <row r="12" spans="1:23" thickBot="1">
+      <c r="V11" s="24"/>
+      <c r="W11" s="25"/>
+      <c r="X11" s="17"/>
+    </row>
+    <row r="12" spans="1:24" thickBot="1">
       <c r="A12" s="22">
         <v>11</v>
       </c>
@@ -4336,7 +4353,7 @@
       <c r="H12" s="24"/>
       <c r="I12" s="54"/>
       <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
+      <c r="K12" s="54"/>
       <c r="L12" s="24"/>
       <c r="M12" s="24"/>
       <c r="N12" s="24"/>
@@ -4347,10 +4364,11 @@
       <c r="S12" s="24"/>
       <c r="T12" s="24"/>
       <c r="U12" s="24"/>
-      <c r="V12" s="25"/>
-      <c r="W12" s="17"/>
-    </row>
-    <row r="13" spans="1:23" thickBot="1">
+      <c r="V12" s="24"/>
+      <c r="W12" s="25"/>
+      <c r="X12" s="17"/>
+    </row>
+    <row r="13" spans="1:24" thickBot="1">
       <c r="A13" s="22">
         <v>12</v>
       </c>
@@ -4363,7 +4381,7 @@
       <c r="H13" s="24"/>
       <c r="I13" s="54"/>
       <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
+      <c r="K13" s="54"/>
       <c r="L13" s="24"/>
       <c r="M13" s="24"/>
       <c r="N13" s="24"/>
@@ -4374,10 +4392,11 @@
       <c r="S13" s="24"/>
       <c r="T13" s="24"/>
       <c r="U13" s="24"/>
-      <c r="V13" s="25"/>
-      <c r="W13" s="17"/>
-    </row>
-    <row r="14" spans="1:23" thickBot="1">
+      <c r="V13" s="24"/>
+      <c r="W13" s="25"/>
+      <c r="X13" s="17"/>
+    </row>
+    <row r="14" spans="1:24" thickBot="1">
       <c r="A14" s="22">
         <v>13</v>
       </c>
@@ -4390,7 +4409,7 @@
       <c r="H14" s="24"/>
       <c r="I14" s="54"/>
       <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
+      <c r="K14" s="54"/>
       <c r="L14" s="24"/>
       <c r="M14" s="24"/>
       <c r="N14" s="24"/>
@@ -4401,10 +4420,11 @@
       <c r="S14" s="24"/>
       <c r="T14" s="24"/>
       <c r="U14" s="24"/>
-      <c r="V14" s="25"/>
-      <c r="W14" s="17"/>
-    </row>
-    <row r="15" spans="1:23" thickBot="1">
+      <c r="V14" s="24"/>
+      <c r="W14" s="25"/>
+      <c r="X14" s="17"/>
+    </row>
+    <row r="15" spans="1:24" thickBot="1">
       <c r="A15" s="22">
         <v>14</v>
       </c>
@@ -4417,7 +4437,7 @@
       <c r="H15" s="24"/>
       <c r="I15" s="54"/>
       <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
+      <c r="K15" s="54"/>
       <c r="L15" s="24"/>
       <c r="M15" s="24"/>
       <c r="N15" s="24"/>
@@ -4428,10 +4448,11 @@
       <c r="S15" s="24"/>
       <c r="T15" s="24"/>
       <c r="U15" s="24"/>
-      <c r="V15" s="25"/>
-      <c r="W15" s="17"/>
-    </row>
-    <row r="16" spans="1:23" thickBot="1">
+      <c r="V15" s="24"/>
+      <c r="W15" s="25"/>
+      <c r="X15" s="17"/>
+    </row>
+    <row r="16" spans="1:24" thickBot="1">
       <c r="A16" s="22">
         <v>15</v>
       </c>
@@ -4444,7 +4465,7 @@
       <c r="H16" s="24"/>
       <c r="I16" s="54"/>
       <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
+      <c r="K16" s="54"/>
       <c r="L16" s="24"/>
       <c r="M16" s="24"/>
       <c r="N16" s="24"/>
@@ -4455,10 +4476,11 @@
       <c r="S16" s="24"/>
       <c r="T16" s="24"/>
       <c r="U16" s="24"/>
-      <c r="V16" s="25"/>
-      <c r="W16" s="17"/>
-    </row>
-    <row r="17" spans="1:23" thickBot="1">
+      <c r="V16" s="24"/>
+      <c r="W16" s="25"/>
+      <c r="X16" s="17"/>
+    </row>
+    <row r="17" spans="1:24" thickBot="1">
       <c r="A17" s="22">
         <v>16</v>
       </c>
@@ -4471,7 +4493,7 @@
       <c r="H17" s="24"/>
       <c r="I17" s="54"/>
       <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
+      <c r="K17" s="54"/>
       <c r="L17" s="24"/>
       <c r="M17" s="24"/>
       <c r="N17" s="24"/>
@@ -4482,10 +4504,11 @@
       <c r="S17" s="24"/>
       <c r="T17" s="24"/>
       <c r="U17" s="24"/>
-      <c r="V17" s="25"/>
-      <c r="W17" s="17"/>
-    </row>
-    <row r="18" spans="1:23" thickBot="1">
+      <c r="V17" s="24"/>
+      <c r="W17" s="25"/>
+      <c r="X17" s="17"/>
+    </row>
+    <row r="18" spans="1:24" thickBot="1">
       <c r="A18" s="22">
         <v>17</v>
       </c>
@@ -4498,7 +4521,7 @@
       <c r="H18" s="24"/>
       <c r="I18" s="54"/>
       <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
+      <c r="K18" s="54"/>
       <c r="L18" s="24"/>
       <c r="M18" s="24"/>
       <c r="N18" s="24"/>
@@ -4509,10 +4532,11 @@
       <c r="S18" s="24"/>
       <c r="T18" s="24"/>
       <c r="U18" s="24"/>
-      <c r="V18" s="25"/>
-      <c r="W18" s="17"/>
-    </row>
-    <row r="19" spans="1:23" thickBot="1">
+      <c r="V18" s="24"/>
+      <c r="W18" s="25"/>
+      <c r="X18" s="17"/>
+    </row>
+    <row r="19" spans="1:24" thickBot="1">
       <c r="A19" s="22">
         <v>18</v>
       </c>
@@ -4525,7 +4549,7 @@
       <c r="H19" s="24"/>
       <c r="I19" s="54"/>
       <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
+      <c r="K19" s="54"/>
       <c r="L19" s="24"/>
       <c r="M19" s="24"/>
       <c r="N19" s="24"/>
@@ -4536,10 +4560,11 @@
       <c r="S19" s="24"/>
       <c r="T19" s="24"/>
       <c r="U19" s="24"/>
-      <c r="V19" s="25"/>
-      <c r="W19" s="17"/>
-    </row>
-    <row r="20" spans="1:23" thickBot="1">
+      <c r="V19" s="24"/>
+      <c r="W19" s="25"/>
+      <c r="X19" s="17"/>
+    </row>
+    <row r="20" spans="1:24" thickBot="1">
       <c r="A20" s="22">
         <v>19</v>
       </c>
@@ -4552,7 +4577,7 @@
       <c r="H20" s="24"/>
       <c r="I20" s="54"/>
       <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
+      <c r="K20" s="54"/>
       <c r="L20" s="24"/>
       <c r="M20" s="24"/>
       <c r="N20" s="24"/>
@@ -4563,10 +4588,11 @@
       <c r="S20" s="24"/>
       <c r="T20" s="24"/>
       <c r="U20" s="24"/>
-      <c r="V20" s="25"/>
-      <c r="W20" s="17"/>
-    </row>
-    <row r="21" spans="1:23" thickBot="1">
+      <c r="V20" s="24"/>
+      <c r="W20" s="25"/>
+      <c r="X20" s="17"/>
+    </row>
+    <row r="21" spans="1:24" thickBot="1">
       <c r="A21" s="22">
         <v>20</v>
       </c>
@@ -4579,7 +4605,7 @@
       <c r="H21" s="24"/>
       <c r="I21" s="54"/>
       <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
+      <c r="K21" s="54"/>
       <c r="L21" s="24"/>
       <c r="M21" s="24"/>
       <c r="N21" s="24"/>
@@ -4590,10 +4616,11 @@
       <c r="S21" s="24"/>
       <c r="T21" s="24"/>
       <c r="U21" s="24"/>
-      <c r="V21" s="25"/>
-      <c r="W21" s="17"/>
-    </row>
-    <row r="22" spans="1:23" thickBot="1">
+      <c r="V21" s="24"/>
+      <c r="W21" s="25"/>
+      <c r="X21" s="17"/>
+    </row>
+    <row r="22" spans="1:24" thickBot="1">
       <c r="A22" s="22">
         <v>21</v>
       </c>
@@ -4606,7 +4633,7 @@
       <c r="H22" s="24"/>
       <c r="I22" s="54"/>
       <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
+      <c r="K22" s="54"/>
       <c r="L22" s="24"/>
       <c r="M22" s="24"/>
       <c r="N22" s="24"/>
@@ -4617,10 +4644,11 @@
       <c r="S22" s="24"/>
       <c r="T22" s="24"/>
       <c r="U22" s="24"/>
-      <c r="V22" s="25"/>
-      <c r="W22" s="17"/>
-    </row>
-    <row r="23" spans="1:23" thickBot="1">
+      <c r="V22" s="24"/>
+      <c r="W22" s="25"/>
+      <c r="X22" s="17"/>
+    </row>
+    <row r="23" spans="1:24" thickBot="1">
       <c r="A23" s="22">
         <v>22</v>
       </c>
@@ -4633,7 +4661,7 @@
       <c r="H23" s="24"/>
       <c r="I23" s="54"/>
       <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
+      <c r="K23" s="54"/>
       <c r="L23" s="24"/>
       <c r="M23" s="24"/>
       <c r="N23" s="24"/>
@@ -4644,10 +4672,11 @@
       <c r="S23" s="24"/>
       <c r="T23" s="24"/>
       <c r="U23" s="24"/>
-      <c r="V23" s="25"/>
-      <c r="W23" s="17"/>
-    </row>
-    <row r="24" spans="1:23" thickBot="1">
+      <c r="V23" s="24"/>
+      <c r="W23" s="25"/>
+      <c r="X23" s="17"/>
+    </row>
+    <row r="24" spans="1:24" thickBot="1">
       <c r="A24" s="22">
         <v>23</v>
       </c>
@@ -4660,7 +4689,7 @@
       <c r="H24" s="24"/>
       <c r="I24" s="54"/>
       <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
+      <c r="K24" s="54"/>
       <c r="L24" s="24"/>
       <c r="M24" s="24"/>
       <c r="N24" s="24"/>
@@ -4671,10 +4700,11 @@
       <c r="S24" s="24"/>
       <c r="T24" s="24"/>
       <c r="U24" s="24"/>
-      <c r="V24" s="25"/>
-      <c r="W24" s="17"/>
-    </row>
-    <row r="25" spans="1:23" thickBot="1">
+      <c r="V24" s="24"/>
+      <c r="W24" s="25"/>
+      <c r="X24" s="17"/>
+    </row>
+    <row r="25" spans="1:24" thickBot="1">
       <c r="A25" s="22">
         <v>24</v>
       </c>
@@ -4687,7 +4717,7 @@
       <c r="H25" s="24"/>
       <c r="I25" s="54"/>
       <c r="J25" s="24"/>
-      <c r="K25" s="24"/>
+      <c r="K25" s="54"/>
       <c r="L25" s="24"/>
       <c r="M25" s="24"/>
       <c r="N25" s="24"/>
@@ -4698,10 +4728,11 @@
       <c r="S25" s="24"/>
       <c r="T25" s="24"/>
       <c r="U25" s="24"/>
-      <c r="V25" s="25"/>
-      <c r="W25" s="17"/>
-    </row>
-    <row r="26" spans="1:23" thickBot="1">
+      <c r="V25" s="24"/>
+      <c r="W25" s="25"/>
+      <c r="X25" s="17"/>
+    </row>
+    <row r="26" spans="1:24" thickBot="1">
       <c r="A26" s="22">
         <v>25</v>
       </c>
@@ -4714,7 +4745,7 @@
       <c r="H26" s="24"/>
       <c r="I26" s="54"/>
       <c r="J26" s="24"/>
-      <c r="K26" s="24"/>
+      <c r="K26" s="54"/>
       <c r="L26" s="24"/>
       <c r="M26" s="24"/>
       <c r="N26" s="24"/>
@@ -4725,10 +4756,11 @@
       <c r="S26" s="24"/>
       <c r="T26" s="24"/>
       <c r="U26" s="24"/>
-      <c r="V26" s="25"/>
-      <c r="W26" s="17"/>
-    </row>
-    <row r="27" spans="1:23" thickBot="1">
+      <c r="V26" s="24"/>
+      <c r="W26" s="25"/>
+      <c r="X26" s="17"/>
+    </row>
+    <row r="27" spans="1:24" thickBot="1">
       <c r="A27" s="22">
         <v>26</v>
       </c>
@@ -4741,7 +4773,7 @@
       <c r="H27" s="24"/>
       <c r="I27" s="54"/>
       <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
+      <c r="K27" s="54"/>
       <c r="L27" s="24"/>
       <c r="M27" s="24"/>
       <c r="N27" s="24"/>
@@ -4752,10 +4784,11 @@
       <c r="S27" s="24"/>
       <c r="T27" s="24"/>
       <c r="U27" s="24"/>
-      <c r="V27" s="25"/>
-      <c r="W27" s="17"/>
-    </row>
-    <row r="28" spans="1:23" thickBot="1">
+      <c r="V27" s="24"/>
+      <c r="W27" s="25"/>
+      <c r="X27" s="17"/>
+    </row>
+    <row r="28" spans="1:24" thickBot="1">
       <c r="A28" s="22">
         <v>27</v>
       </c>
@@ -4768,7 +4801,7 @@
       <c r="H28" s="24"/>
       <c r="I28" s="54"/>
       <c r="J28" s="24"/>
-      <c r="K28" s="24"/>
+      <c r="K28" s="54"/>
       <c r="L28" s="24"/>
       <c r="M28" s="24"/>
       <c r="N28" s="24"/>
@@ -4779,10 +4812,11 @@
       <c r="S28" s="24"/>
       <c r="T28" s="24"/>
       <c r="U28" s="24"/>
-      <c r="V28" s="25"/>
-      <c r="W28" s="17"/>
-    </row>
-    <row r="29" spans="1:23" thickBot="1">
+      <c r="V28" s="24"/>
+      <c r="W28" s="25"/>
+      <c r="X28" s="17"/>
+    </row>
+    <row r="29" spans="1:24" thickBot="1">
       <c r="A29" s="22">
         <v>28</v>
       </c>
@@ -4795,7 +4829,7 @@
       <c r="H29" s="24"/>
       <c r="I29" s="54"/>
       <c r="J29" s="24"/>
-      <c r="K29" s="24"/>
+      <c r="K29" s="54"/>
       <c r="L29" s="24"/>
       <c r="M29" s="24"/>
       <c r="N29" s="24"/>
@@ -4806,10 +4840,11 @@
       <c r="S29" s="24"/>
       <c r="T29" s="24"/>
       <c r="U29" s="24"/>
-      <c r="V29" s="25"/>
-      <c r="W29" s="17"/>
-    </row>
-    <row r="30" spans="1:23" thickBot="1">
+      <c r="V29" s="24"/>
+      <c r="W29" s="25"/>
+      <c r="X29" s="17"/>
+    </row>
+    <row r="30" spans="1:24" thickBot="1">
       <c r="A30" s="22">
         <v>29</v>
       </c>
@@ -4822,7 +4857,7 @@
       <c r="H30" s="24"/>
       <c r="I30" s="54"/>
       <c r="J30" s="24"/>
-      <c r="K30" s="24"/>
+      <c r="K30" s="54"/>
       <c r="L30" s="24"/>
       <c r="M30" s="24"/>
       <c r="N30" s="24"/>
@@ -4833,10 +4868,11 @@
       <c r="S30" s="24"/>
       <c r="T30" s="24"/>
       <c r="U30" s="24"/>
-      <c r="V30" s="25"/>
-      <c r="W30" s="17"/>
-    </row>
-    <row r="31" spans="1:23" thickBot="1">
+      <c r="V30" s="24"/>
+      <c r="W30" s="25"/>
+      <c r="X30" s="17"/>
+    </row>
+    <row r="31" spans="1:24" thickBot="1">
       <c r="A31" s="22">
         <v>30</v>
       </c>
@@ -4849,7 +4885,7 @@
       <c r="H31" s="24"/>
       <c r="I31" s="54"/>
       <c r="J31" s="24"/>
-      <c r="K31" s="24"/>
+      <c r="K31" s="54"/>
       <c r="L31" s="24"/>
       <c r="M31" s="24"/>
       <c r="N31" s="24"/>
@@ -4860,10 +4896,11 @@
       <c r="S31" s="24"/>
       <c r="T31" s="24"/>
       <c r="U31" s="24"/>
-      <c r="V31" s="25"/>
-      <c r="W31" s="17"/>
-    </row>
-    <row r="32" spans="1:23" thickBot="1">
+      <c r="V31" s="24"/>
+      <c r="W31" s="25"/>
+      <c r="X31" s="17"/>
+    </row>
+    <row r="32" spans="1:24" thickBot="1">
       <c r="A32" s="22">
         <v>31</v>
       </c>
@@ -4876,7 +4913,7 @@
       <c r="H32" s="24"/>
       <c r="I32" s="54"/>
       <c r="J32" s="24"/>
-      <c r="K32" s="24"/>
+      <c r="K32" s="54"/>
       <c r="L32" s="24"/>
       <c r="M32" s="24"/>
       <c r="N32" s="24"/>
@@ -4887,10 +4924,11 @@
       <c r="S32" s="24"/>
       <c r="T32" s="24"/>
       <c r="U32" s="24"/>
-      <c r="V32" s="25"/>
-      <c r="W32" s="17"/>
-    </row>
-    <row r="33" spans="1:23" thickBot="1">
+      <c r="V32" s="24"/>
+      <c r="W32" s="25"/>
+      <c r="X32" s="17"/>
+    </row>
+    <row r="33" spans="1:24" thickBot="1">
       <c r="A33" s="22">
         <v>32</v>
       </c>
@@ -4903,7 +4941,7 @@
       <c r="H33" s="24"/>
       <c r="I33" s="54"/>
       <c r="J33" s="24"/>
-      <c r="K33" s="24"/>
+      <c r="K33" s="54"/>
       <c r="L33" s="24"/>
       <c r="M33" s="24"/>
       <c r="N33" s="24"/>
@@ -4914,10 +4952,11 @@
       <c r="S33" s="24"/>
       <c r="T33" s="24"/>
       <c r="U33" s="24"/>
-      <c r="V33" s="25"/>
-      <c r="W33" s="17"/>
-    </row>
-    <row r="34" spans="1:23" thickBot="1">
+      <c r="V33" s="24"/>
+      <c r="W33" s="25"/>
+      <c r="X33" s="17"/>
+    </row>
+    <row r="34" spans="1:24" thickBot="1">
       <c r="A34" s="22">
         <v>33</v>
       </c>
@@ -4930,7 +4969,7 @@
       <c r="H34" s="24"/>
       <c r="I34" s="54"/>
       <c r="J34" s="24"/>
-      <c r="K34" s="24"/>
+      <c r="K34" s="54"/>
       <c r="L34" s="24"/>
       <c r="M34" s="24"/>
       <c r="N34" s="24"/>
@@ -4941,10 +4980,11 @@
       <c r="S34" s="24"/>
       <c r="T34" s="24"/>
       <c r="U34" s="24"/>
-      <c r="V34" s="25"/>
-      <c r="W34" s="17"/>
-    </row>
-    <row r="35" spans="1:23" thickBot="1">
+      <c r="V34" s="24"/>
+      <c r="W34" s="25"/>
+      <c r="X34" s="17"/>
+    </row>
+    <row r="35" spans="1:24" thickBot="1">
       <c r="A35" s="22">
         <v>34</v>
       </c>
@@ -4957,7 +4997,7 @@
       <c r="H35" s="24"/>
       <c r="I35" s="54"/>
       <c r="J35" s="24"/>
-      <c r="K35" s="24"/>
+      <c r="K35" s="54"/>
       <c r="L35" s="24"/>
       <c r="M35" s="24"/>
       <c r="N35" s="24"/>
@@ -4968,10 +5008,11 @@
       <c r="S35" s="24"/>
       <c r="T35" s="24"/>
       <c r="U35" s="24"/>
-      <c r="V35" s="25"/>
-      <c r="W35" s="17"/>
-    </row>
-    <row r="36" spans="1:23" thickBot="1">
+      <c r="V35" s="24"/>
+      <c r="W35" s="25"/>
+      <c r="X35" s="17"/>
+    </row>
+    <row r="36" spans="1:24" thickBot="1">
       <c r="A36" s="22">
         <v>35</v>
       </c>
@@ -4984,7 +5025,7 @@
       <c r="H36" s="24"/>
       <c r="I36" s="54"/>
       <c r="J36" s="24"/>
-      <c r="K36" s="24"/>
+      <c r="K36" s="54"/>
       <c r="L36" s="24"/>
       <c r="M36" s="24"/>
       <c r="N36" s="24"/>
@@ -4995,10 +5036,11 @@
       <c r="S36" s="24"/>
       <c r="T36" s="24"/>
       <c r="U36" s="24"/>
-      <c r="V36" s="25"/>
-      <c r="W36" s="17"/>
-    </row>
-    <row r="37" spans="1:23" thickBot="1">
+      <c r="V36" s="24"/>
+      <c r="W36" s="25"/>
+      <c r="X36" s="17"/>
+    </row>
+    <row r="37" spans="1:24" thickBot="1">
       <c r="A37" s="22">
         <v>36</v>
       </c>
@@ -5011,7 +5053,7 @@
       <c r="H37" s="24"/>
       <c r="I37" s="54"/>
       <c r="J37" s="24"/>
-      <c r="K37" s="24"/>
+      <c r="K37" s="54"/>
       <c r="L37" s="24"/>
       <c r="M37" s="24"/>
       <c r="N37" s="24"/>
@@ -5022,10 +5064,11 @@
       <c r="S37" s="24"/>
       <c r="T37" s="24"/>
       <c r="U37" s="24"/>
-      <c r="V37" s="25"/>
-      <c r="W37" s="17"/>
-    </row>
-    <row r="38" spans="1:23" thickBot="1">
+      <c r="V37" s="24"/>
+      <c r="W37" s="25"/>
+      <c r="X37" s="17"/>
+    </row>
+    <row r="38" spans="1:24" thickBot="1">
       <c r="A38" s="22">
         <v>37</v>
       </c>
@@ -5038,7 +5081,7 @@
       <c r="H38" s="24"/>
       <c r="I38" s="54"/>
       <c r="J38" s="24"/>
-      <c r="K38" s="24"/>
+      <c r="K38" s="54"/>
       <c r="L38" s="24"/>
       <c r="M38" s="24"/>
       <c r="N38" s="24"/>
@@ -5049,10 +5092,11 @@
       <c r="S38" s="24"/>
       <c r="T38" s="24"/>
       <c r="U38" s="24"/>
-      <c r="V38" s="25"/>
-      <c r="W38" s="17"/>
-    </row>
-    <row r="39" spans="1:23" thickBot="1">
+      <c r="V38" s="24"/>
+      <c r="W38" s="25"/>
+      <c r="X38" s="17"/>
+    </row>
+    <row r="39" spans="1:24" thickBot="1">
       <c r="A39" s="22">
         <v>38</v>
       </c>
@@ -5065,7 +5109,7 @@
       <c r="H39" s="24"/>
       <c r="I39" s="54"/>
       <c r="J39" s="24"/>
-      <c r="K39" s="24"/>
+      <c r="K39" s="54"/>
       <c r="L39" s="24"/>
       <c r="M39" s="24"/>
       <c r="N39" s="24"/>
@@ -5076,10 +5120,11 @@
       <c r="S39" s="24"/>
       <c r="T39" s="24"/>
       <c r="U39" s="24"/>
-      <c r="V39" s="25"/>
-      <c r="W39" s="17"/>
-    </row>
-    <row r="40" spans="1:23" thickBot="1">
+      <c r="V39" s="24"/>
+      <c r="W39" s="25"/>
+      <c r="X39" s="17"/>
+    </row>
+    <row r="40" spans="1:24" thickBot="1">
       <c r="A40" s="22">
         <v>39</v>
       </c>
@@ -5092,7 +5137,7 @@
       <c r="H40" s="24"/>
       <c r="I40" s="54"/>
       <c r="J40" s="24"/>
-      <c r="K40" s="24"/>
+      <c r="K40" s="54"/>
       <c r="L40" s="24"/>
       <c r="M40" s="24"/>
       <c r="N40" s="24"/>
@@ -5103,10 +5148,11 @@
       <c r="S40" s="24"/>
       <c r="T40" s="24"/>
       <c r="U40" s="24"/>
-      <c r="V40" s="25"/>
-      <c r="W40" s="17"/>
-    </row>
-    <row r="41" spans="1:23" thickBot="1">
+      <c r="V40" s="24"/>
+      <c r="W40" s="25"/>
+      <c r="X40" s="17"/>
+    </row>
+    <row r="41" spans="1:24" thickBot="1">
       <c r="A41" s="22">
         <v>40</v>
       </c>
@@ -5119,7 +5165,7 @@
       <c r="H41" s="24"/>
       <c r="I41" s="54"/>
       <c r="J41" s="24"/>
-      <c r="K41" s="24"/>
+      <c r="K41" s="54"/>
       <c r="L41" s="24"/>
       <c r="M41" s="24"/>
       <c r="N41" s="24"/>
@@ -5130,10 +5176,11 @@
       <c r="S41" s="24"/>
       <c r="T41" s="24"/>
       <c r="U41" s="24"/>
-      <c r="V41" s="25"/>
-      <c r="W41" s="17"/>
-    </row>
-    <row r="42" spans="1:23" thickBot="1">
+      <c r="V41" s="24"/>
+      <c r="W41" s="25"/>
+      <c r="X41" s="17"/>
+    </row>
+    <row r="42" spans="1:24" thickBot="1">
       <c r="A42" s="22">
         <v>41</v>
       </c>
@@ -5146,7 +5193,7 @@
       <c r="H42" s="24"/>
       <c r="I42" s="54"/>
       <c r="J42" s="24"/>
-      <c r="K42" s="24"/>
+      <c r="K42" s="54"/>
       <c r="L42" s="24"/>
       <c r="M42" s="24"/>
       <c r="N42" s="24"/>
@@ -5157,10 +5204,11 @@
       <c r="S42" s="24"/>
       <c r="T42" s="24"/>
       <c r="U42" s="24"/>
-      <c r="V42" s="25"/>
-      <c r="W42" s="17"/>
-    </row>
-    <row r="43" spans="1:23" thickBot="1">
+      <c r="V42" s="24"/>
+      <c r="W42" s="25"/>
+      <c r="X42" s="17"/>
+    </row>
+    <row r="43" spans="1:24" thickBot="1">
       <c r="A43" s="22">
         <v>42</v>
       </c>
@@ -5173,7 +5221,7 @@
       <c r="H43" s="24"/>
       <c r="I43" s="54"/>
       <c r="J43" s="24"/>
-      <c r="K43" s="24"/>
+      <c r="K43" s="54"/>
       <c r="L43" s="24"/>
       <c r="M43" s="24"/>
       <c r="N43" s="24"/>
@@ -5184,10 +5232,11 @@
       <c r="S43" s="24"/>
       <c r="T43" s="24"/>
       <c r="U43" s="24"/>
-      <c r="V43" s="25"/>
-      <c r="W43" s="17"/>
-    </row>
-    <row r="44" spans="1:23" thickBot="1">
+      <c r="V43" s="24"/>
+      <c r="W43" s="25"/>
+      <c r="X43" s="17"/>
+    </row>
+    <row r="44" spans="1:24" thickBot="1">
       <c r="A44" s="22">
         <v>43</v>
       </c>
@@ -5200,7 +5249,7 @@
       <c r="H44" s="24"/>
       <c r="I44" s="54"/>
       <c r="J44" s="24"/>
-      <c r="K44" s="24"/>
+      <c r="K44" s="54"/>
       <c r="L44" s="24"/>
       <c r="M44" s="24"/>
       <c r="N44" s="24"/>
@@ -5211,10 +5260,11 @@
       <c r="S44" s="24"/>
       <c r="T44" s="24"/>
       <c r="U44" s="24"/>
-      <c r="V44" s="25"/>
-      <c r="W44" s="17"/>
-    </row>
-    <row r="45" spans="1:23" thickBot="1">
+      <c r="V44" s="24"/>
+      <c r="W44" s="25"/>
+      <c r="X44" s="17"/>
+    </row>
+    <row r="45" spans="1:24" thickBot="1">
       <c r="A45" s="22">
         <v>44</v>
       </c>
@@ -5227,7 +5277,7 @@
       <c r="H45" s="24"/>
       <c r="I45" s="54"/>
       <c r="J45" s="24"/>
-      <c r="K45" s="24"/>
+      <c r="K45" s="54"/>
       <c r="L45" s="24"/>
       <c r="M45" s="24"/>
       <c r="N45" s="24"/>
@@ -5238,10 +5288,11 @@
       <c r="S45" s="24"/>
       <c r="T45" s="24"/>
       <c r="U45" s="24"/>
-      <c r="V45" s="25"/>
-      <c r="W45" s="17"/>
-    </row>
-    <row r="46" spans="1:23" thickBot="1">
+      <c r="V45" s="24"/>
+      <c r="W45" s="25"/>
+      <c r="X45" s="17"/>
+    </row>
+    <row r="46" spans="1:24" thickBot="1">
       <c r="A46" s="22">
         <v>45</v>
       </c>
@@ -5254,7 +5305,7 @@
       <c r="H46" s="24"/>
       <c r="I46" s="54"/>
       <c r="J46" s="24"/>
-      <c r="K46" s="24"/>
+      <c r="K46" s="54"/>
       <c r="L46" s="24"/>
       <c r="M46" s="24"/>
       <c r="N46" s="24"/>
@@ -5265,10 +5316,11 @@
       <c r="S46" s="24"/>
       <c r="T46" s="24"/>
       <c r="U46" s="24"/>
-      <c r="V46" s="25"/>
-      <c r="W46" s="17"/>
-    </row>
-    <row r="47" spans="1:23" thickBot="1">
+      <c r="V46" s="24"/>
+      <c r="W46" s="25"/>
+      <c r="X46" s="17"/>
+    </row>
+    <row r="47" spans="1:24" thickBot="1">
       <c r="A47" s="22">
         <v>46</v>
       </c>
@@ -5281,7 +5333,7 @@
       <c r="H47" s="24"/>
       <c r="I47" s="54"/>
       <c r="J47" s="24"/>
-      <c r="K47" s="24"/>
+      <c r="K47" s="54"/>
       <c r="L47" s="24"/>
       <c r="M47" s="24"/>
       <c r="N47" s="24"/>
@@ -5292,10 +5344,11 @@
       <c r="S47" s="24"/>
       <c r="T47" s="24"/>
       <c r="U47" s="24"/>
-      <c r="V47" s="25"/>
-      <c r="W47" s="17"/>
-    </row>
-    <row r="48" spans="1:23" thickBot="1">
+      <c r="V47" s="24"/>
+      <c r="W47" s="25"/>
+      <c r="X47" s="17"/>
+    </row>
+    <row r="48" spans="1:24" thickBot="1">
       <c r="A48" s="22">
         <v>47</v>
       </c>
@@ -5308,7 +5361,7 @@
       <c r="H48" s="24"/>
       <c r="I48" s="54"/>
       <c r="J48" s="24"/>
-      <c r="K48" s="24"/>
+      <c r="K48" s="54"/>
       <c r="L48" s="24"/>
       <c r="M48" s="24"/>
       <c r="N48" s="24"/>
@@ -5319,10 +5372,11 @@
       <c r="S48" s="24"/>
       <c r="T48" s="24"/>
       <c r="U48" s="24"/>
-      <c r="V48" s="25"/>
-      <c r="W48" s="17"/>
-    </row>
-    <row r="49" spans="1:23" thickBot="1">
+      <c r="V48" s="24"/>
+      <c r="W48" s="25"/>
+      <c r="X48" s="17"/>
+    </row>
+    <row r="49" spans="1:24" thickBot="1">
       <c r="A49" s="22">
         <v>48</v>
       </c>
@@ -5335,7 +5389,7 @@
       <c r="H49" s="24"/>
       <c r="I49" s="54"/>
       <c r="J49" s="24"/>
-      <c r="K49" s="24"/>
+      <c r="K49" s="54"/>
       <c r="L49" s="24"/>
       <c r="M49" s="24"/>
       <c r="N49" s="24"/>
@@ -5346,10 +5400,11 @@
       <c r="S49" s="24"/>
       <c r="T49" s="24"/>
       <c r="U49" s="24"/>
-      <c r="V49" s="25"/>
-      <c r="W49" s="17"/>
-    </row>
-    <row r="50" spans="1:23" thickBot="1">
+      <c r="V49" s="24"/>
+      <c r="W49" s="25"/>
+      <c r="X49" s="17"/>
+    </row>
+    <row r="50" spans="1:24" thickBot="1">
       <c r="A50" s="22">
         <v>49</v>
       </c>
@@ -5362,7 +5417,7 @@
       <c r="H50" s="24"/>
       <c r="I50" s="54"/>
       <c r="J50" s="24"/>
-      <c r="K50" s="24"/>
+      <c r="K50" s="54"/>
       <c r="L50" s="24"/>
       <c r="M50" s="24"/>
       <c r="N50" s="24"/>
@@ -5373,10 +5428,11 @@
       <c r="S50" s="24"/>
       <c r="T50" s="24"/>
       <c r="U50" s="24"/>
-      <c r="V50" s="25"/>
-      <c r="W50" s="17"/>
-    </row>
-    <row r="51" spans="1:23" thickBot="1">
+      <c r="V50" s="24"/>
+      <c r="W50" s="25"/>
+      <c r="X50" s="17"/>
+    </row>
+    <row r="51" spans="1:24" thickBot="1">
       <c r="A51" s="23">
         <v>50</v>
       </c>
@@ -5389,7 +5445,7 @@
       <c r="H51" s="26"/>
       <c r="I51" s="55"/>
       <c r="J51" s="26"/>
-      <c r="K51" s="26"/>
+      <c r="K51" s="55"/>
       <c r="L51" s="26"/>
       <c r="M51" s="26"/>
       <c r="N51" s="26"/>
@@ -5400,10 +5456,11 @@
       <c r="S51" s="26"/>
       <c r="T51" s="26"/>
       <c r="U51" s="26"/>
-      <c r="V51" s="27"/>
-      <c r="W51" s="17"/>
-    </row>
-    <row r="52" spans="1:23" ht="15" thickTop="1" thickBot="1">
+      <c r="V51" s="26"/>
+      <c r="W51" s="27"/>
+      <c r="X51" s="17"/>
+    </row>
+    <row r="52" spans="1:24" ht="15" thickTop="1" thickBot="1">
       <c r="A52" s="18"/>
       <c r="B52" s="18"/>
       <c r="C52" s="18"/>
@@ -5426,33 +5483,34 @@
       <c r="T52" s="18"/>
       <c r="U52" s="18"/>
       <c r="V52" s="18"/>
+      <c r="W52" s="18"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
-  <dataValidations count="16">
-    <dataValidation type="whole" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Please check your entry" error="You must enter the volume of fuel in liters used during this trip (0-1000)." sqref="N2:N51">
+  <dataValidations count="17">
+    <dataValidation type="whole" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Please check your entry" error="You must enter the volume of fuel in liters used during this trip (0-1000)." sqref="O2:O51">
       <formula1>0</formula1>
       <formula2>1000</formula2>
     </dataValidation>
-    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Please check your entry" error="You must indicate whether a sail was used on this trip. Permitted values are:_x000d__x000d_Y : Yes_x000d_N: N" sqref="M2:M51">
+    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Please check your entry" error="You must indicate whether a sail was used on this trip. Permitted values are:_x000d__x000d_Y : Yes_x000d_N: N" sqref="N2:N51">
       <formula1>"Y,N"</formula1>
     </dataValidation>
-    <dataValidation type="whole" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Please check your entry" error="You must enter the total number of people onboard during thsi trip (1-20)." sqref="O2:O51">
+    <dataValidation type="whole" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Please check your entry" error="You must enter the total number of people onboard during thsi trip (1-20)." sqref="P2:P51">
       <formula1>1</formula1>
       <formula2>20</formula2>
     </dataValidation>
-    <dataValidation type="whole" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Please check your entry" error="You must enter the total number of fish landed (0-10000). Leave blank if not known." sqref="U2:U51">
+    <dataValidation type="whole" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Please check your entry" error="You must enter the total number of fish landed (0-10000). Leave blank if not known." sqref="V2:V51">
       <formula1>0</formula1>
       <formula2>10000</formula2>
     </dataValidation>
-    <dataValidation type="whole" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Please check your entry" error="You must enter the total value of the catch in Rupia (0-100000000). Leave blank if not known." sqref="V2:V51">
+    <dataValidation type="whole" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Please check your entry" error="You must enter the total value of the catch in Rupia (0-100000000). Leave blank if not known." sqref="W2:W51">
       <formula1>0</formula1>
       <formula2>100000000</formula2>
     </dataValidation>
     <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Please check your entry" error="You must enter a valid engine type. Permitted values are:_x000d__x000d_OB : Outboard_x000d_IB : Inboard_x000d_LT : Longtail" sqref="E2:E51">
       <formula1>"OB,LT,IB"</formula1>
     </dataValidation>
-    <dataValidation type="whole" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Please check your entry" error="You must enter the vessel length in meters (1-100)" sqref="G2:G51">
+    <dataValidation type="decimal" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Please check your entry" error="You must enter the vessel length in meters (1-100)" sqref="G2:G51">
       <formula1>1</formula1>
       <formula2>100</formula2>
     </dataValidation>
@@ -5460,16 +5518,16 @@
       <formula1>0</formula1>
       <formula2>1000</formula2>
     </dataValidation>
-    <dataValidation type="time" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Please check your entry" error="You must enter a valid time." sqref="J2:J51">
+    <dataValidation type="time" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Please check your entry" error="You must enter a valid time." sqref="J2:J51 K3:K51">
       <formula1>0</formula1>
       <formula2>0.999305555555556</formula2>
     </dataValidation>
-    <dataValidation type="whole" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Please check your entry" error="You must enter the total weight of the catch in kilograms (0-10000). Leave blank if not known." sqref="T2:T51">
+    <dataValidation type="whole" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Please check your entry" error="You must enter the total weight of the catch in kilograms (0-10000). Leave blank if not known." sqref="U2:U51">
       <formula1>0</formula1>
       <formula2>10000</formula2>
     </dataValidation>
-    <dataValidation type="time" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Please check your entry" error="You must enter a valid arrival time that is after the departure time." sqref="K2:K51">
-      <formula1>J2</formula1>
+    <dataValidation type="time" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Please check your entry" error="You must enter a valid arrival time that is after the departure time." sqref="L2:L51">
+      <formula1>0</formula1>
       <formula2>0.999305555555556</formula2>
     </dataValidation>
     <dataValidation type="date" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Please check your entry" error="You must enter a valid date" sqref="I2:I51">
@@ -5479,15 +5537,19 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Please check your entry" error="The following values are allowed:_x000d__x000d_OC - outrigger canoe" sqref="D2:D51">
       <formula1>"OC"</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Please check your entry" error="Please select a value from the list:_x000d__x000d_0 = No fish caught_x000d_R = Rusak (mechanical problem)_x000d_H = Hilang (gear lost)_x000d_C = cuaca (bad weather)" sqref="L2:L51">
+    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Please check your entry" error="Please select a value from the list:_x000d__x000d_0 = No fish caught_x000d_R = Rusak (mechanical problem)_x000d_H = Hilang (gear lost)_x000d_C = cuaca (bad weather)" sqref="M2:M51">
       <formula1>"0,R,H,C"</formula1>
     </dataValidation>
-    <dataValidation type="whole" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Please check your entry" error="You must enter the weight of ice in kg." sqref="Q2:Q51">
+    <dataValidation type="whole" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Please check your entry" error="You must enter the weight of ice in kg." sqref="R2:R51">
       <formula1>0</formula1>
       <formula2>99</formula2>
     </dataValidation>
-    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Please check your entry" error="You must enter a recognized code for the sea conditions. Permitted values are:_x000d__x000d_1: Calm_x000d_2: Moderate_x000d_3: Rough" sqref="R2:R51">
+    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Please check your entry" error="You must enter a recognized code for the sea conditions. Permitted values are:_x000d__x000d_1: Calm_x000d_2: Moderate_x000d_3: Rough" sqref="S2:S51">
       <formula1>"1,2,3"</formula1>
+    </dataValidation>
+    <dataValidation type="date" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Please check your entry" error="You must enter a valid time." sqref="K2">
+      <formula1>I2</formula1>
+      <formula2>55153</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -5505,13 +5567,13 @@
           <x14:formula1>
             <xm:f>'Gear Codes'!$A$2:$A$62</xm:f>
           </x14:formula1>
-          <xm:sqref>P2:P51</xm:sqref>
+          <xm:sqref>Q2:Q51</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Please check your entry" error="You must enter a valid fish ID code. Please check the &quot;Fish Codes&quot; tab.">
           <x14:formula1>
             <xm:f>'Species Codes'!A1:A1000</xm:f>
           </x14:formula1>
-          <xm:sqref>S2:S51</xm:sqref>
+          <xm:sqref>T2:T51</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/public/Database.template.xlsx
+++ b/public/Database.template.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="847">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="846">
   <si>
     <t>Form A</t>
   </si>
@@ -2566,9 +2566,6 @@
   </si>
   <si>
     <t>Wave</t>
-  </si>
-  <si>
-    <t>Arr. Date</t>
   </si>
 </sst>
 </file>
@@ -3973,7 +3970,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X52"/>
+  <dimension ref="A1:W52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -3984,11 +3981,10 @@
     <col min="1" max="1" width="4" style="16" bestFit="1" customWidth="1"/>
     <col min="2" max="9" width="10.83203125" style="16"/>
     <col min="10" max="10" width="15.5" style="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5" style="16" customWidth="1"/>
-    <col min="12" max="16384" width="10.83203125" style="16"/>
+    <col min="11" max="16384" width="10.83203125" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15" thickTop="1" thickBot="1">
+    <row r="1" spans="1:23" ht="15" thickTop="1" thickBot="1">
       <c r="A1" s="19" t="s">
         <v>45</v>
       </c>
@@ -4020,47 +4016,44 @@
         <v>13</v>
       </c>
       <c r="K1" s="20" t="s">
-        <v>846</v>
+        <v>15</v>
       </c>
       <c r="L1" s="20" t="s">
-        <v>15</v>
+        <v>834</v>
       </c>
       <c r="M1" s="20" t="s">
-        <v>834</v>
+        <v>17</v>
       </c>
       <c r="N1" s="20" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O1" s="20" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P1" s="20" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q1" s="20" t="s">
-        <v>23</v>
+        <v>833</v>
       </c>
       <c r="R1" s="20" t="s">
-        <v>833</v>
+        <v>845</v>
       </c>
       <c r="S1" s="20" t="s">
-        <v>845</v>
+        <v>805</v>
       </c>
       <c r="T1" s="20" t="s">
-        <v>805</v>
+        <v>25</v>
       </c>
       <c r="U1" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="V1" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="W1" s="21" t="s">
+      <c r="V1" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="X1" s="17"/>
-    </row>
-    <row r="2" spans="1:24" thickBot="1">
+      <c r="W1" s="17"/>
+    </row>
+    <row r="2" spans="1:23" thickBot="1">
       <c r="A2" s="22">
         <v>1</v>
       </c>
@@ -4073,9 +4066,9 @@
       <c r="H2" s="24"/>
       <c r="I2" s="54"/>
       <c r="J2" s="49"/>
-      <c r="K2" s="54"/>
+      <c r="K2" s="49"/>
       <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
+      <c r="M2" s="24"/>
       <c r="N2" s="24"/>
       <c r="O2" s="24"/>
       <c r="P2" s="24"/>
@@ -4084,11 +4077,10 @@
       <c r="S2" s="24"/>
       <c r="T2" s="24"/>
       <c r="U2" s="24"/>
-      <c r="V2" s="24"/>
-      <c r="W2" s="25"/>
-      <c r="X2" s="17"/>
-    </row>
-    <row r="3" spans="1:24" thickBot="1">
+      <c r="V2" s="25"/>
+      <c r="W2" s="17"/>
+    </row>
+    <row r="3" spans="1:23" thickBot="1">
       <c r="A3" s="22">
         <v>2</v>
       </c>
@@ -4101,9 +4093,9 @@
       <c r="H3" s="24"/>
       <c r="I3" s="54"/>
       <c r="J3" s="49"/>
-      <c r="K3" s="54"/>
+      <c r="K3" s="49"/>
       <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
+      <c r="M3" s="24"/>
       <c r="N3" s="24"/>
       <c r="O3" s="24"/>
       <c r="P3" s="24"/>
@@ -4112,11 +4104,10 @@
       <c r="S3" s="24"/>
       <c r="T3" s="24"/>
       <c r="U3" s="24"/>
-      <c r="V3" s="24"/>
-      <c r="W3" s="25"/>
-      <c r="X3" s="17"/>
-    </row>
-    <row r="4" spans="1:24" thickBot="1">
+      <c r="V3" s="25"/>
+      <c r="W3" s="17"/>
+    </row>
+    <row r="4" spans="1:23" thickBot="1">
       <c r="A4" s="22">
         <v>3</v>
       </c>
@@ -4129,9 +4120,9 @@
       <c r="H4" s="24"/>
       <c r="I4" s="54"/>
       <c r="J4" s="49"/>
-      <c r="K4" s="54"/>
+      <c r="K4" s="49"/>
       <c r="L4" s="49"/>
-      <c r="M4" s="49"/>
+      <c r="M4" s="24"/>
       <c r="N4" s="24"/>
       <c r="O4" s="24"/>
       <c r="P4" s="24"/>
@@ -4140,11 +4131,10 @@
       <c r="S4" s="24"/>
       <c r="T4" s="24"/>
       <c r="U4" s="24"/>
-      <c r="V4" s="24"/>
-      <c r="W4" s="25"/>
-      <c r="X4" s="17"/>
-    </row>
-    <row r="5" spans="1:24" thickBot="1">
+      <c r="V4" s="25"/>
+      <c r="W4" s="17"/>
+    </row>
+    <row r="5" spans="1:23" thickBot="1">
       <c r="A5" s="22">
         <v>4</v>
       </c>
@@ -4157,7 +4147,7 @@
       <c r="H5" s="24"/>
       <c r="I5" s="54"/>
       <c r="J5" s="24"/>
-      <c r="K5" s="54"/>
+      <c r="K5" s="24"/>
       <c r="L5" s="24"/>
       <c r="M5" s="24"/>
       <c r="N5" s="24"/>
@@ -4168,11 +4158,10 @@
       <c r="S5" s="24"/>
       <c r="T5" s="24"/>
       <c r="U5" s="24"/>
-      <c r="V5" s="24"/>
-      <c r="W5" s="25"/>
-      <c r="X5" s="17"/>
-    </row>
-    <row r="6" spans="1:24" thickBot="1">
+      <c r="V5" s="25"/>
+      <c r="W5" s="17"/>
+    </row>
+    <row r="6" spans="1:23" thickBot="1">
       <c r="A6" s="22">
         <v>5</v>
       </c>
@@ -4185,7 +4174,7 @@
       <c r="H6" s="24"/>
       <c r="I6" s="54"/>
       <c r="J6" s="24"/>
-      <c r="K6" s="54"/>
+      <c r="K6" s="24"/>
       <c r="L6" s="24"/>
       <c r="M6" s="24"/>
       <c r="N6" s="24"/>
@@ -4196,11 +4185,10 @@
       <c r="S6" s="24"/>
       <c r="T6" s="24"/>
       <c r="U6" s="24"/>
-      <c r="V6" s="24"/>
-      <c r="W6" s="25"/>
-      <c r="X6" s="17"/>
-    </row>
-    <row r="7" spans="1:24" thickBot="1">
+      <c r="V6" s="25"/>
+      <c r="W6" s="17"/>
+    </row>
+    <row r="7" spans="1:23" thickBot="1">
       <c r="A7" s="22">
         <v>6</v>
       </c>
@@ -4213,7 +4201,7 @@
       <c r="H7" s="24"/>
       <c r="I7" s="54"/>
       <c r="J7" s="24"/>
-      <c r="K7" s="54"/>
+      <c r="K7" s="24"/>
       <c r="L7" s="24"/>
       <c r="M7" s="24"/>
       <c r="N7" s="24"/>
@@ -4224,11 +4212,10 @@
       <c r="S7" s="24"/>
       <c r="T7" s="24"/>
       <c r="U7" s="24"/>
-      <c r="V7" s="24"/>
-      <c r="W7" s="25"/>
-      <c r="X7" s="17"/>
-    </row>
-    <row r="8" spans="1:24" thickBot="1">
+      <c r="V7" s="25"/>
+      <c r="W7" s="17"/>
+    </row>
+    <row r="8" spans="1:23" thickBot="1">
       <c r="A8" s="22">
         <v>7</v>
       </c>
@@ -4241,7 +4228,7 @@
       <c r="H8" s="24"/>
       <c r="I8" s="54"/>
       <c r="J8" s="24"/>
-      <c r="K8" s="54"/>
+      <c r="K8" s="24"/>
       <c r="L8" s="24"/>
       <c r="M8" s="24"/>
       <c r="N8" s="24"/>
@@ -4252,11 +4239,10 @@
       <c r="S8" s="24"/>
       <c r="T8" s="24"/>
       <c r="U8" s="24"/>
-      <c r="V8" s="24"/>
-      <c r="W8" s="25"/>
-      <c r="X8" s="17"/>
-    </row>
-    <row r="9" spans="1:24" thickBot="1">
+      <c r="V8" s="25"/>
+      <c r="W8" s="17"/>
+    </row>
+    <row r="9" spans="1:23" thickBot="1">
       <c r="A9" s="22">
         <v>8</v>
       </c>
@@ -4269,7 +4255,7 @@
       <c r="H9" s="24"/>
       <c r="I9" s="54"/>
       <c r="J9" s="24"/>
-      <c r="K9" s="54"/>
+      <c r="K9" s="24"/>
       <c r="L9" s="24"/>
       <c r="M9" s="24"/>
       <c r="N9" s="24"/>
@@ -4280,11 +4266,10 @@
       <c r="S9" s="24"/>
       <c r="T9" s="24"/>
       <c r="U9" s="24"/>
-      <c r="V9" s="24"/>
-      <c r="W9" s="25"/>
-      <c r="X9" s="17"/>
-    </row>
-    <row r="10" spans="1:24" thickBot="1">
+      <c r="V9" s="25"/>
+      <c r="W9" s="17"/>
+    </row>
+    <row r="10" spans="1:23" thickBot="1">
       <c r="A10" s="22">
         <v>9</v>
       </c>
@@ -4297,7 +4282,7 @@
       <c r="H10" s="24"/>
       <c r="I10" s="54"/>
       <c r="J10" s="24"/>
-      <c r="K10" s="54"/>
+      <c r="K10" s="24"/>
       <c r="L10" s="24"/>
       <c r="M10" s="24"/>
       <c r="N10" s="24"/>
@@ -4308,11 +4293,10 @@
       <c r="S10" s="24"/>
       <c r="T10" s="24"/>
       <c r="U10" s="24"/>
-      <c r="V10" s="24"/>
-      <c r="W10" s="25"/>
-      <c r="X10" s="17"/>
-    </row>
-    <row r="11" spans="1:24" thickBot="1">
+      <c r="V10" s="25"/>
+      <c r="W10" s="17"/>
+    </row>
+    <row r="11" spans="1:23" thickBot="1">
       <c r="A11" s="22">
         <v>10</v>
       </c>
@@ -4325,7 +4309,7 @@
       <c r="H11" s="24"/>
       <c r="I11" s="54"/>
       <c r="J11" s="24"/>
-      <c r="K11" s="54"/>
+      <c r="K11" s="24"/>
       <c r="L11" s="24"/>
       <c r="M11" s="24"/>
       <c r="N11" s="24"/>
@@ -4336,11 +4320,10 @@
       <c r="S11" s="24"/>
       <c r="T11" s="24"/>
       <c r="U11" s="24"/>
-      <c r="V11" s="24"/>
-      <c r="W11" s="25"/>
-      <c r="X11" s="17"/>
-    </row>
-    <row r="12" spans="1:24" thickBot="1">
+      <c r="V11" s="25"/>
+      <c r="W11" s="17"/>
+    </row>
+    <row r="12" spans="1:23" thickBot="1">
       <c r="A12" s="22">
         <v>11</v>
       </c>
@@ -4353,7 +4336,7 @@
       <c r="H12" s="24"/>
       <c r="I12" s="54"/>
       <c r="J12" s="24"/>
-      <c r="K12" s="54"/>
+      <c r="K12" s="24"/>
       <c r="L12" s="24"/>
       <c r="M12" s="24"/>
       <c r="N12" s="24"/>
@@ -4364,11 +4347,10 @@
       <c r="S12" s="24"/>
       <c r="T12" s="24"/>
       <c r="U12" s="24"/>
-      <c r="V12" s="24"/>
-      <c r="W12" s="25"/>
-      <c r="X12" s="17"/>
-    </row>
-    <row r="13" spans="1:24" thickBot="1">
+      <c r="V12" s="25"/>
+      <c r="W12" s="17"/>
+    </row>
+    <row r="13" spans="1:23" thickBot="1">
       <c r="A13" s="22">
         <v>12</v>
       </c>
@@ -4381,7 +4363,7 @@
       <c r="H13" s="24"/>
       <c r="I13" s="54"/>
       <c r="J13" s="24"/>
-      <c r="K13" s="54"/>
+      <c r="K13" s="24"/>
       <c r="L13" s="24"/>
       <c r="M13" s="24"/>
       <c r="N13" s="24"/>
@@ -4392,11 +4374,10 @@
       <c r="S13" s="24"/>
       <c r="T13" s="24"/>
       <c r="U13" s="24"/>
-      <c r="V13" s="24"/>
-      <c r="W13" s="25"/>
-      <c r="X13" s="17"/>
-    </row>
-    <row r="14" spans="1:24" thickBot="1">
+      <c r="V13" s="25"/>
+      <c r="W13" s="17"/>
+    </row>
+    <row r="14" spans="1:23" thickBot="1">
       <c r="A14" s="22">
         <v>13</v>
       </c>
@@ -4409,7 +4390,7 @@
       <c r="H14" s="24"/>
       <c r="I14" s="54"/>
       <c r="J14" s="24"/>
-      <c r="K14" s="54"/>
+      <c r="K14" s="24"/>
       <c r="L14" s="24"/>
       <c r="M14" s="24"/>
       <c r="N14" s="24"/>
@@ -4420,11 +4401,10 @@
       <c r="S14" s="24"/>
       <c r="T14" s="24"/>
       <c r="U14" s="24"/>
-      <c r="V14" s="24"/>
-      <c r="W14" s="25"/>
-      <c r="X14" s="17"/>
-    </row>
-    <row r="15" spans="1:24" thickBot="1">
+      <c r="V14" s="25"/>
+      <c r="W14" s="17"/>
+    </row>
+    <row r="15" spans="1:23" thickBot="1">
       <c r="A15" s="22">
         <v>14</v>
       </c>
@@ -4437,7 +4417,7 @@
       <c r="H15" s="24"/>
       <c r="I15" s="54"/>
       <c r="J15" s="24"/>
-      <c r="K15" s="54"/>
+      <c r="K15" s="24"/>
       <c r="L15" s="24"/>
       <c r="M15" s="24"/>
       <c r="N15" s="24"/>
@@ -4448,11 +4428,10 @@
       <c r="S15" s="24"/>
       <c r="T15" s="24"/>
       <c r="U15" s="24"/>
-      <c r="V15" s="24"/>
-      <c r="W15" s="25"/>
-      <c r="X15" s="17"/>
-    </row>
-    <row r="16" spans="1:24" thickBot="1">
+      <c r="V15" s="25"/>
+      <c r="W15" s="17"/>
+    </row>
+    <row r="16" spans="1:23" thickBot="1">
       <c r="A16" s="22">
         <v>15</v>
       </c>
@@ -4465,7 +4444,7 @@
       <c r="H16" s="24"/>
       <c r="I16" s="54"/>
       <c r="J16" s="24"/>
-      <c r="K16" s="54"/>
+      <c r="K16" s="24"/>
       <c r="L16" s="24"/>
       <c r="M16" s="24"/>
       <c r="N16" s="24"/>
@@ -4476,11 +4455,10 @@
       <c r="S16" s="24"/>
       <c r="T16" s="24"/>
       <c r="U16" s="24"/>
-      <c r="V16" s="24"/>
-      <c r="W16" s="25"/>
-      <c r="X16" s="17"/>
-    </row>
-    <row r="17" spans="1:24" thickBot="1">
+      <c r="V16" s="25"/>
+      <c r="W16" s="17"/>
+    </row>
+    <row r="17" spans="1:23" thickBot="1">
       <c r="A17" s="22">
         <v>16</v>
       </c>
@@ -4493,7 +4471,7 @@
       <c r="H17" s="24"/>
       <c r="I17" s="54"/>
       <c r="J17" s="24"/>
-      <c r="K17" s="54"/>
+      <c r="K17" s="24"/>
       <c r="L17" s="24"/>
       <c r="M17" s="24"/>
       <c r="N17" s="24"/>
@@ -4504,11 +4482,10 @@
       <c r="S17" s="24"/>
       <c r="T17" s="24"/>
       <c r="U17" s="24"/>
-      <c r="V17" s="24"/>
-      <c r="W17" s="25"/>
-      <c r="X17" s="17"/>
-    </row>
-    <row r="18" spans="1:24" thickBot="1">
+      <c r="V17" s="25"/>
+      <c r="W17" s="17"/>
+    </row>
+    <row r="18" spans="1:23" thickBot="1">
       <c r="A18" s="22">
         <v>17</v>
       </c>
@@ -4521,7 +4498,7 @@
       <c r="H18" s="24"/>
       <c r="I18" s="54"/>
       <c r="J18" s="24"/>
-      <c r="K18" s="54"/>
+      <c r="K18" s="24"/>
       <c r="L18" s="24"/>
       <c r="M18" s="24"/>
       <c r="N18" s="24"/>
@@ -4532,11 +4509,10 @@
       <c r="S18" s="24"/>
       <c r="T18" s="24"/>
       <c r="U18" s="24"/>
-      <c r="V18" s="24"/>
-      <c r="W18" s="25"/>
-      <c r="X18" s="17"/>
-    </row>
-    <row r="19" spans="1:24" thickBot="1">
+      <c r="V18" s="25"/>
+      <c r="W18" s="17"/>
+    </row>
+    <row r="19" spans="1:23" thickBot="1">
       <c r="A19" s="22">
         <v>18</v>
       </c>
@@ -4549,7 +4525,7 @@
       <c r="H19" s="24"/>
       <c r="I19" s="54"/>
       <c r="J19" s="24"/>
-      <c r="K19" s="54"/>
+      <c r="K19" s="24"/>
       <c r="L19" s="24"/>
       <c r="M19" s="24"/>
       <c r="N19" s="24"/>
@@ -4560,11 +4536,10 @@
       <c r="S19" s="24"/>
       <c r="T19" s="24"/>
       <c r="U19" s="24"/>
-      <c r="V19" s="24"/>
-      <c r="W19" s="25"/>
-      <c r="X19" s="17"/>
-    </row>
-    <row r="20" spans="1:24" thickBot="1">
+      <c r="V19" s="25"/>
+      <c r="W19" s="17"/>
+    </row>
+    <row r="20" spans="1:23" thickBot="1">
       <c r="A20" s="22">
         <v>19</v>
       </c>
@@ -4577,7 +4552,7 @@
       <c r="H20" s="24"/>
       <c r="I20" s="54"/>
       <c r="J20" s="24"/>
-      <c r="K20" s="54"/>
+      <c r="K20" s="24"/>
       <c r="L20" s="24"/>
       <c r="M20" s="24"/>
       <c r="N20" s="24"/>
@@ -4588,11 +4563,10 @@
       <c r="S20" s="24"/>
       <c r="T20" s="24"/>
       <c r="U20" s="24"/>
-      <c r="V20" s="24"/>
-      <c r="W20" s="25"/>
-      <c r="X20" s="17"/>
-    </row>
-    <row r="21" spans="1:24" thickBot="1">
+      <c r="V20" s="25"/>
+      <c r="W20" s="17"/>
+    </row>
+    <row r="21" spans="1:23" thickBot="1">
       <c r="A21" s="22">
         <v>20</v>
       </c>
@@ -4605,7 +4579,7 @@
       <c r="H21" s="24"/>
       <c r="I21" s="54"/>
       <c r="J21" s="24"/>
-      <c r="K21" s="54"/>
+      <c r="K21" s="24"/>
       <c r="L21" s="24"/>
       <c r="M21" s="24"/>
       <c r="N21" s="24"/>
@@ -4616,11 +4590,10 @@
       <c r="S21" s="24"/>
       <c r="T21" s="24"/>
       <c r="U21" s="24"/>
-      <c r="V21" s="24"/>
-      <c r="W21" s="25"/>
-      <c r="X21" s="17"/>
-    </row>
-    <row r="22" spans="1:24" thickBot="1">
+      <c r="V21" s="25"/>
+      <c r="W21" s="17"/>
+    </row>
+    <row r="22" spans="1:23" thickBot="1">
       <c r="A22" s="22">
         <v>21</v>
       </c>
@@ -4633,7 +4606,7 @@
       <c r="H22" s="24"/>
       <c r="I22" s="54"/>
       <c r="J22" s="24"/>
-      <c r="K22" s="54"/>
+      <c r="K22" s="24"/>
       <c r="L22" s="24"/>
       <c r="M22" s="24"/>
       <c r="N22" s="24"/>
@@ -4644,11 +4617,10 @@
       <c r="S22" s="24"/>
       <c r="T22" s="24"/>
       <c r="U22" s="24"/>
-      <c r="V22" s="24"/>
-      <c r="W22" s="25"/>
-      <c r="X22" s="17"/>
-    </row>
-    <row r="23" spans="1:24" thickBot="1">
+      <c r="V22" s="25"/>
+      <c r="W22" s="17"/>
+    </row>
+    <row r="23" spans="1:23" thickBot="1">
       <c r="A23" s="22">
         <v>22</v>
       </c>
@@ -4661,7 +4633,7 @@
       <c r="H23" s="24"/>
       <c r="I23" s="54"/>
       <c r="J23" s="24"/>
-      <c r="K23" s="54"/>
+      <c r="K23" s="24"/>
       <c r="L23" s="24"/>
       <c r="M23" s="24"/>
       <c r="N23" s="24"/>
@@ -4672,11 +4644,10 @@
       <c r="S23" s="24"/>
       <c r="T23" s="24"/>
       <c r="U23" s="24"/>
-      <c r="V23" s="24"/>
-      <c r="W23" s="25"/>
-      <c r="X23" s="17"/>
-    </row>
-    <row r="24" spans="1:24" thickBot="1">
+      <c r="V23" s="25"/>
+      <c r="W23" s="17"/>
+    </row>
+    <row r="24" spans="1:23" thickBot="1">
       <c r="A24" s="22">
         <v>23</v>
       </c>
@@ -4689,7 +4660,7 @@
       <c r="H24" s="24"/>
       <c r="I24" s="54"/>
       <c r="J24" s="24"/>
-      <c r="K24" s="54"/>
+      <c r="K24" s="24"/>
       <c r="L24" s="24"/>
       <c r="M24" s="24"/>
       <c r="N24" s="24"/>
@@ -4700,11 +4671,10 @@
       <c r="S24" s="24"/>
       <c r="T24" s="24"/>
       <c r="U24" s="24"/>
-      <c r="V24" s="24"/>
-      <c r="W24" s="25"/>
-      <c r="X24" s="17"/>
-    </row>
-    <row r="25" spans="1:24" thickBot="1">
+      <c r="V24" s="25"/>
+      <c r="W24" s="17"/>
+    </row>
+    <row r="25" spans="1:23" thickBot="1">
       <c r="A25" s="22">
         <v>24</v>
       </c>
@@ -4717,7 +4687,7 @@
       <c r="H25" s="24"/>
       <c r="I25" s="54"/>
       <c r="J25" s="24"/>
-      <c r="K25" s="54"/>
+      <c r="K25" s="24"/>
       <c r="L25" s="24"/>
       <c r="M25" s="24"/>
       <c r="N25" s="24"/>
@@ -4728,11 +4698,10 @@
       <c r="S25" s="24"/>
       <c r="T25" s="24"/>
       <c r="U25" s="24"/>
-      <c r="V25" s="24"/>
-      <c r="W25" s="25"/>
-      <c r="X25" s="17"/>
-    </row>
-    <row r="26" spans="1:24" thickBot="1">
+      <c r="V25" s="25"/>
+      <c r="W25" s="17"/>
+    </row>
+    <row r="26" spans="1:23" thickBot="1">
       <c r="A26" s="22">
         <v>25</v>
       </c>
@@ -4745,7 +4714,7 @@
       <c r="H26" s="24"/>
       <c r="I26" s="54"/>
       <c r="J26" s="24"/>
-      <c r="K26" s="54"/>
+      <c r="K26" s="24"/>
       <c r="L26" s="24"/>
       <c r="M26" s="24"/>
       <c r="N26" s="24"/>
@@ -4756,11 +4725,10 @@
       <c r="S26" s="24"/>
       <c r="T26" s="24"/>
       <c r="U26" s="24"/>
-      <c r="V26" s="24"/>
-      <c r="W26" s="25"/>
-      <c r="X26" s="17"/>
-    </row>
-    <row r="27" spans="1:24" thickBot="1">
+      <c r="V26" s="25"/>
+      <c r="W26" s="17"/>
+    </row>
+    <row r="27" spans="1:23" thickBot="1">
       <c r="A27" s="22">
         <v>26</v>
       </c>
@@ -4773,7 +4741,7 @@
       <c r="H27" s="24"/>
       <c r="I27" s="54"/>
       <c r="J27" s="24"/>
-      <c r="K27" s="54"/>
+      <c r="K27" s="24"/>
       <c r="L27" s="24"/>
       <c r="M27" s="24"/>
       <c r="N27" s="24"/>
@@ -4784,11 +4752,10 @@
       <c r="S27" s="24"/>
       <c r="T27" s="24"/>
       <c r="U27" s="24"/>
-      <c r="V27" s="24"/>
-      <c r="W27" s="25"/>
-      <c r="X27" s="17"/>
-    </row>
-    <row r="28" spans="1:24" thickBot="1">
+      <c r="V27" s="25"/>
+      <c r="W27" s="17"/>
+    </row>
+    <row r="28" spans="1:23" thickBot="1">
       <c r="A28" s="22">
         <v>27</v>
       </c>
@@ -4801,7 +4768,7 @@
       <c r="H28" s="24"/>
       <c r="I28" s="54"/>
       <c r="J28" s="24"/>
-      <c r="K28" s="54"/>
+      <c r="K28" s="24"/>
       <c r="L28" s="24"/>
       <c r="M28" s="24"/>
       <c r="N28" s="24"/>
@@ -4812,11 +4779,10 @@
       <c r="S28" s="24"/>
       <c r="T28" s="24"/>
       <c r="U28" s="24"/>
-      <c r="V28" s="24"/>
-      <c r="W28" s="25"/>
-      <c r="X28" s="17"/>
-    </row>
-    <row r="29" spans="1:24" thickBot="1">
+      <c r="V28" s="25"/>
+      <c r="W28" s="17"/>
+    </row>
+    <row r="29" spans="1:23" thickBot="1">
       <c r="A29" s="22">
         <v>28</v>
       </c>
@@ -4829,7 +4795,7 @@
       <c r="H29" s="24"/>
       <c r="I29" s="54"/>
       <c r="J29" s="24"/>
-      <c r="K29" s="54"/>
+      <c r="K29" s="24"/>
       <c r="L29" s="24"/>
       <c r="M29" s="24"/>
       <c r="N29" s="24"/>
@@ -4840,11 +4806,10 @@
       <c r="S29" s="24"/>
       <c r="T29" s="24"/>
       <c r="U29" s="24"/>
-      <c r="V29" s="24"/>
-      <c r="W29" s="25"/>
-      <c r="X29" s="17"/>
-    </row>
-    <row r="30" spans="1:24" thickBot="1">
+      <c r="V29" s="25"/>
+      <c r="W29" s="17"/>
+    </row>
+    <row r="30" spans="1:23" thickBot="1">
       <c r="A30" s="22">
         <v>29</v>
       </c>
@@ -4857,7 +4822,7 @@
       <c r="H30" s="24"/>
       <c r="I30" s="54"/>
       <c r="J30" s="24"/>
-      <c r="K30" s="54"/>
+      <c r="K30" s="24"/>
       <c r="L30" s="24"/>
       <c r="M30" s="24"/>
       <c r="N30" s="24"/>
@@ -4868,11 +4833,10 @@
       <c r="S30" s="24"/>
       <c r="T30" s="24"/>
       <c r="U30" s="24"/>
-      <c r="V30" s="24"/>
-      <c r="W30" s="25"/>
-      <c r="X30" s="17"/>
-    </row>
-    <row r="31" spans="1:24" thickBot="1">
+      <c r="V30" s="25"/>
+      <c r="W30" s="17"/>
+    </row>
+    <row r="31" spans="1:23" thickBot="1">
       <c r="A31" s="22">
         <v>30</v>
       </c>
@@ -4885,7 +4849,7 @@
       <c r="H31" s="24"/>
       <c r="I31" s="54"/>
       <c r="J31" s="24"/>
-      <c r="K31" s="54"/>
+      <c r="K31" s="24"/>
       <c r="L31" s="24"/>
       <c r="M31" s="24"/>
       <c r="N31" s="24"/>
@@ -4896,11 +4860,10 @@
       <c r="S31" s="24"/>
       <c r="T31" s="24"/>
       <c r="U31" s="24"/>
-      <c r="V31" s="24"/>
-      <c r="W31" s="25"/>
-      <c r="X31" s="17"/>
-    </row>
-    <row r="32" spans="1:24" thickBot="1">
+      <c r="V31" s="25"/>
+      <c r="W31" s="17"/>
+    </row>
+    <row r="32" spans="1:23" thickBot="1">
       <c r="A32" s="22">
         <v>31</v>
       </c>
@@ -4913,7 +4876,7 @@
       <c r="H32" s="24"/>
       <c r="I32" s="54"/>
       <c r="J32" s="24"/>
-      <c r="K32" s="54"/>
+      <c r="K32" s="24"/>
       <c r="L32" s="24"/>
       <c r="M32" s="24"/>
       <c r="N32" s="24"/>
@@ -4924,11 +4887,10 @@
       <c r="S32" s="24"/>
       <c r="T32" s="24"/>
       <c r="U32" s="24"/>
-      <c r="V32" s="24"/>
-      <c r="W32" s="25"/>
-      <c r="X32" s="17"/>
-    </row>
-    <row r="33" spans="1:24" thickBot="1">
+      <c r="V32" s="25"/>
+      <c r="W32" s="17"/>
+    </row>
+    <row r="33" spans="1:23" thickBot="1">
       <c r="A33" s="22">
         <v>32</v>
       </c>
@@ -4941,7 +4903,7 @@
       <c r="H33" s="24"/>
       <c r="I33" s="54"/>
       <c r="J33" s="24"/>
-      <c r="K33" s="54"/>
+      <c r="K33" s="24"/>
       <c r="L33" s="24"/>
       <c r="M33" s="24"/>
       <c r="N33" s="24"/>
@@ -4952,11 +4914,10 @@
       <c r="S33" s="24"/>
       <c r="T33" s="24"/>
       <c r="U33" s="24"/>
-      <c r="V33" s="24"/>
-      <c r="W33" s="25"/>
-      <c r="X33" s="17"/>
-    </row>
-    <row r="34" spans="1:24" thickBot="1">
+      <c r="V33" s="25"/>
+      <c r="W33" s="17"/>
+    </row>
+    <row r="34" spans="1:23" thickBot="1">
       <c r="A34" s="22">
         <v>33</v>
       </c>
@@ -4969,7 +4930,7 @@
       <c r="H34" s="24"/>
       <c r="I34" s="54"/>
       <c r="J34" s="24"/>
-      <c r="K34" s="54"/>
+      <c r="K34" s="24"/>
       <c r="L34" s="24"/>
       <c r="M34" s="24"/>
       <c r="N34" s="24"/>
@@ -4980,11 +4941,10 @@
       <c r="S34" s="24"/>
       <c r="T34" s="24"/>
       <c r="U34" s="24"/>
-      <c r="V34" s="24"/>
-      <c r="W34" s="25"/>
-      <c r="X34" s="17"/>
-    </row>
-    <row r="35" spans="1:24" thickBot="1">
+      <c r="V34" s="25"/>
+      <c r="W34" s="17"/>
+    </row>
+    <row r="35" spans="1:23" thickBot="1">
       <c r="A35" s="22">
         <v>34</v>
       </c>
@@ -4997,7 +4957,7 @@
       <c r="H35" s="24"/>
       <c r="I35" s="54"/>
       <c r="J35" s="24"/>
-      <c r="K35" s="54"/>
+      <c r="K35" s="24"/>
       <c r="L35" s="24"/>
       <c r="M35" s="24"/>
       <c r="N35" s="24"/>
@@ -5008,11 +4968,10 @@
       <c r="S35" s="24"/>
       <c r="T35" s="24"/>
       <c r="U35" s="24"/>
-      <c r="V35" s="24"/>
-      <c r="W35" s="25"/>
-      <c r="X35" s="17"/>
-    </row>
-    <row r="36" spans="1:24" thickBot="1">
+      <c r="V35" s="25"/>
+      <c r="W35" s="17"/>
+    </row>
+    <row r="36" spans="1:23" thickBot="1">
       <c r="A36" s="22">
         <v>35</v>
       </c>
@@ -5025,7 +4984,7 @@
       <c r="H36" s="24"/>
       <c r="I36" s="54"/>
       <c r="J36" s="24"/>
-      <c r="K36" s="54"/>
+      <c r="K36" s="24"/>
       <c r="L36" s="24"/>
       <c r="M36" s="24"/>
       <c r="N36" s="24"/>
@@ -5036,11 +4995,10 @@
       <c r="S36" s="24"/>
       <c r="T36" s="24"/>
       <c r="U36" s="24"/>
-      <c r="V36" s="24"/>
-      <c r="W36" s="25"/>
-      <c r="X36" s="17"/>
-    </row>
-    <row r="37" spans="1:24" thickBot="1">
+      <c r="V36" s="25"/>
+      <c r="W36" s="17"/>
+    </row>
+    <row r="37" spans="1:23" thickBot="1">
       <c r="A37" s="22">
         <v>36</v>
       </c>
@@ -5053,7 +5011,7 @@
       <c r="H37" s="24"/>
       <c r="I37" s="54"/>
       <c r="J37" s="24"/>
-      <c r="K37" s="54"/>
+      <c r="K37" s="24"/>
       <c r="L37" s="24"/>
       <c r="M37" s="24"/>
       <c r="N37" s="24"/>
@@ -5064,11 +5022,10 @@
       <c r="S37" s="24"/>
       <c r="T37" s="24"/>
       <c r="U37" s="24"/>
-      <c r="V37" s="24"/>
-      <c r="W37" s="25"/>
-      <c r="X37" s="17"/>
-    </row>
-    <row r="38" spans="1:24" thickBot="1">
+      <c r="V37" s="25"/>
+      <c r="W37" s="17"/>
+    </row>
+    <row r="38" spans="1:23" thickBot="1">
       <c r="A38" s="22">
         <v>37</v>
       </c>
@@ -5081,7 +5038,7 @@
       <c r="H38" s="24"/>
       <c r="I38" s="54"/>
       <c r="J38" s="24"/>
-      <c r="K38" s="54"/>
+      <c r="K38" s="24"/>
       <c r="L38" s="24"/>
       <c r="M38" s="24"/>
       <c r="N38" s="24"/>
@@ -5092,11 +5049,10 @@
       <c r="S38" s="24"/>
       <c r="T38" s="24"/>
       <c r="U38" s="24"/>
-      <c r="V38" s="24"/>
-      <c r="W38" s="25"/>
-      <c r="X38" s="17"/>
-    </row>
-    <row r="39" spans="1:24" thickBot="1">
+      <c r="V38" s="25"/>
+      <c r="W38" s="17"/>
+    </row>
+    <row r="39" spans="1:23" thickBot="1">
       <c r="A39" s="22">
         <v>38</v>
       </c>
@@ -5109,7 +5065,7 @@
       <c r="H39" s="24"/>
       <c r="I39" s="54"/>
       <c r="J39" s="24"/>
-      <c r="K39" s="54"/>
+      <c r="K39" s="24"/>
       <c r="L39" s="24"/>
       <c r="M39" s="24"/>
       <c r="N39" s="24"/>
@@ -5120,11 +5076,10 @@
       <c r="S39" s="24"/>
       <c r="T39" s="24"/>
       <c r="U39" s="24"/>
-      <c r="V39" s="24"/>
-      <c r="W39" s="25"/>
-      <c r="X39" s="17"/>
-    </row>
-    <row r="40" spans="1:24" thickBot="1">
+      <c r="V39" s="25"/>
+      <c r="W39" s="17"/>
+    </row>
+    <row r="40" spans="1:23" thickBot="1">
       <c r="A40" s="22">
         <v>39</v>
       </c>
@@ -5137,7 +5092,7 @@
       <c r="H40" s="24"/>
       <c r="I40" s="54"/>
       <c r="J40" s="24"/>
-      <c r="K40" s="54"/>
+      <c r="K40" s="24"/>
       <c r="L40" s="24"/>
       <c r="M40" s="24"/>
       <c r="N40" s="24"/>
@@ -5148,11 +5103,10 @@
       <c r="S40" s="24"/>
       <c r="T40" s="24"/>
       <c r="U40" s="24"/>
-      <c r="V40" s="24"/>
-      <c r="W40" s="25"/>
-      <c r="X40" s="17"/>
-    </row>
-    <row r="41" spans="1:24" thickBot="1">
+      <c r="V40" s="25"/>
+      <c r="W40" s="17"/>
+    </row>
+    <row r="41" spans="1:23" thickBot="1">
       <c r="A41" s="22">
         <v>40</v>
       </c>
@@ -5165,7 +5119,7 @@
       <c r="H41" s="24"/>
       <c r="I41" s="54"/>
       <c r="J41" s="24"/>
-      <c r="K41" s="54"/>
+      <c r="K41" s="24"/>
       <c r="L41" s="24"/>
       <c r="M41" s="24"/>
       <c r="N41" s="24"/>
@@ -5176,11 +5130,10 @@
       <c r="S41" s="24"/>
       <c r="T41" s="24"/>
       <c r="U41" s="24"/>
-      <c r="V41" s="24"/>
-      <c r="W41" s="25"/>
-      <c r="X41" s="17"/>
-    </row>
-    <row r="42" spans="1:24" thickBot="1">
+      <c r="V41" s="25"/>
+      <c r="W41" s="17"/>
+    </row>
+    <row r="42" spans="1:23" thickBot="1">
       <c r="A42" s="22">
         <v>41</v>
       </c>
@@ -5193,7 +5146,7 @@
       <c r="H42" s="24"/>
       <c r="I42" s="54"/>
       <c r="J42" s="24"/>
-      <c r="K42" s="54"/>
+      <c r="K42" s="24"/>
       <c r="L42" s="24"/>
       <c r="M42" s="24"/>
       <c r="N42" s="24"/>
@@ -5204,11 +5157,10 @@
       <c r="S42" s="24"/>
       <c r="T42" s="24"/>
       <c r="U42" s="24"/>
-      <c r="V42" s="24"/>
-      <c r="W42" s="25"/>
-      <c r="X42" s="17"/>
-    </row>
-    <row r="43" spans="1:24" thickBot="1">
+      <c r="V42" s="25"/>
+      <c r="W42" s="17"/>
+    </row>
+    <row r="43" spans="1:23" thickBot="1">
       <c r="A43" s="22">
         <v>42</v>
       </c>
@@ -5221,7 +5173,7 @@
       <c r="H43" s="24"/>
       <c r="I43" s="54"/>
       <c r="J43" s="24"/>
-      <c r="K43" s="54"/>
+      <c r="K43" s="24"/>
       <c r="L43" s="24"/>
       <c r="M43" s="24"/>
       <c r="N43" s="24"/>
@@ -5232,11 +5184,10 @@
       <c r="S43" s="24"/>
       <c r="T43" s="24"/>
       <c r="U43" s="24"/>
-      <c r="V43" s="24"/>
-      <c r="W43" s="25"/>
-      <c r="X43" s="17"/>
-    </row>
-    <row r="44" spans="1:24" thickBot="1">
+      <c r="V43" s="25"/>
+      <c r="W43" s="17"/>
+    </row>
+    <row r="44" spans="1:23" thickBot="1">
       <c r="A44" s="22">
         <v>43</v>
       </c>
@@ -5249,7 +5200,7 @@
       <c r="H44" s="24"/>
       <c r="I44" s="54"/>
       <c r="J44" s="24"/>
-      <c r="K44" s="54"/>
+      <c r="K44" s="24"/>
       <c r="L44" s="24"/>
       <c r="M44" s="24"/>
       <c r="N44" s="24"/>
@@ -5260,11 +5211,10 @@
       <c r="S44" s="24"/>
       <c r="T44" s="24"/>
       <c r="U44" s="24"/>
-      <c r="V44" s="24"/>
-      <c r="W44" s="25"/>
-      <c r="X44" s="17"/>
-    </row>
-    <row r="45" spans="1:24" thickBot="1">
+      <c r="V44" s="25"/>
+      <c r="W44" s="17"/>
+    </row>
+    <row r="45" spans="1:23" thickBot="1">
       <c r="A45" s="22">
         <v>44</v>
       </c>
@@ -5277,7 +5227,7 @@
       <c r="H45" s="24"/>
       <c r="I45" s="54"/>
       <c r="J45" s="24"/>
-      <c r="K45" s="54"/>
+      <c r="K45" s="24"/>
       <c r="L45" s="24"/>
       <c r="M45" s="24"/>
       <c r="N45" s="24"/>
@@ -5288,11 +5238,10 @@
       <c r="S45" s="24"/>
       <c r="T45" s="24"/>
       <c r="U45" s="24"/>
-      <c r="V45" s="24"/>
-      <c r="W45" s="25"/>
-      <c r="X45" s="17"/>
-    </row>
-    <row r="46" spans="1:24" thickBot="1">
+      <c r="V45" s="25"/>
+      <c r="W45" s="17"/>
+    </row>
+    <row r="46" spans="1:23" thickBot="1">
       <c r="A46" s="22">
         <v>45</v>
       </c>
@@ -5305,7 +5254,7 @@
       <c r="H46" s="24"/>
       <c r="I46" s="54"/>
       <c r="J46" s="24"/>
-      <c r="K46" s="54"/>
+      <c r="K46" s="24"/>
       <c r="L46" s="24"/>
       <c r="M46" s="24"/>
       <c r="N46" s="24"/>
@@ -5316,11 +5265,10 @@
       <c r="S46" s="24"/>
       <c r="T46" s="24"/>
       <c r="U46" s="24"/>
-      <c r="V46" s="24"/>
-      <c r="W46" s="25"/>
-      <c r="X46" s="17"/>
-    </row>
-    <row r="47" spans="1:24" thickBot="1">
+      <c r="V46" s="25"/>
+      <c r="W46" s="17"/>
+    </row>
+    <row r="47" spans="1:23" thickBot="1">
       <c r="A47" s="22">
         <v>46</v>
       </c>
@@ -5333,7 +5281,7 @@
       <c r="H47" s="24"/>
       <c r="I47" s="54"/>
       <c r="J47" s="24"/>
-      <c r="K47" s="54"/>
+      <c r="K47" s="24"/>
       <c r="L47" s="24"/>
       <c r="M47" s="24"/>
       <c r="N47" s="24"/>
@@ -5344,11 +5292,10 @@
       <c r="S47" s="24"/>
       <c r="T47" s="24"/>
       <c r="U47" s="24"/>
-      <c r="V47" s="24"/>
-      <c r="W47" s="25"/>
-      <c r="X47" s="17"/>
-    </row>
-    <row r="48" spans="1:24" thickBot="1">
+      <c r="V47" s="25"/>
+      <c r="W47" s="17"/>
+    </row>
+    <row r="48" spans="1:23" thickBot="1">
       <c r="A48" s="22">
         <v>47</v>
       </c>
@@ -5361,7 +5308,7 @@
       <c r="H48" s="24"/>
       <c r="I48" s="54"/>
       <c r="J48" s="24"/>
-      <c r="K48" s="54"/>
+      <c r="K48" s="24"/>
       <c r="L48" s="24"/>
       <c r="M48" s="24"/>
       <c r="N48" s="24"/>
@@ -5372,11 +5319,10 @@
       <c r="S48" s="24"/>
       <c r="T48" s="24"/>
       <c r="U48" s="24"/>
-      <c r="V48" s="24"/>
-      <c r="W48" s="25"/>
-      <c r="X48" s="17"/>
-    </row>
-    <row r="49" spans="1:24" thickBot="1">
+      <c r="V48" s="25"/>
+      <c r="W48" s="17"/>
+    </row>
+    <row r="49" spans="1:23" thickBot="1">
       <c r="A49" s="22">
         <v>48</v>
       </c>
@@ -5389,7 +5335,7 @@
       <c r="H49" s="24"/>
       <c r="I49" s="54"/>
       <c r="J49" s="24"/>
-      <c r="K49" s="54"/>
+      <c r="K49" s="24"/>
       <c r="L49" s="24"/>
       <c r="M49" s="24"/>
       <c r="N49" s="24"/>
@@ -5400,11 +5346,10 @@
       <c r="S49" s="24"/>
       <c r="T49" s="24"/>
       <c r="U49" s="24"/>
-      <c r="V49" s="24"/>
-      <c r="W49" s="25"/>
-      <c r="X49" s="17"/>
-    </row>
-    <row r="50" spans="1:24" thickBot="1">
+      <c r="V49" s="25"/>
+      <c r="W49" s="17"/>
+    </row>
+    <row r="50" spans="1:23" thickBot="1">
       <c r="A50" s="22">
         <v>49</v>
       </c>
@@ -5417,7 +5362,7 @@
       <c r="H50" s="24"/>
       <c r="I50" s="54"/>
       <c r="J50" s="24"/>
-      <c r="K50" s="54"/>
+      <c r="K50" s="24"/>
       <c r="L50" s="24"/>
       <c r="M50" s="24"/>
       <c r="N50" s="24"/>
@@ -5428,11 +5373,10 @@
       <c r="S50" s="24"/>
       <c r="T50" s="24"/>
       <c r="U50" s="24"/>
-      <c r="V50" s="24"/>
-      <c r="W50" s="25"/>
-      <c r="X50" s="17"/>
-    </row>
-    <row r="51" spans="1:24" thickBot="1">
+      <c r="V50" s="25"/>
+      <c r="W50" s="17"/>
+    </row>
+    <row r="51" spans="1:23" thickBot="1">
       <c r="A51" s="23">
         <v>50</v>
       </c>
@@ -5445,7 +5389,7 @@
       <c r="H51" s="26"/>
       <c r="I51" s="55"/>
       <c r="J51" s="26"/>
-      <c r="K51" s="55"/>
+      <c r="K51" s="26"/>
       <c r="L51" s="26"/>
       <c r="M51" s="26"/>
       <c r="N51" s="26"/>
@@ -5456,11 +5400,10 @@
       <c r="S51" s="26"/>
       <c r="T51" s="26"/>
       <c r="U51" s="26"/>
-      <c r="V51" s="26"/>
-      <c r="W51" s="27"/>
-      <c r="X51" s="17"/>
-    </row>
-    <row r="52" spans="1:24" ht="15" thickTop="1" thickBot="1">
+      <c r="V51" s="27"/>
+      <c r="W51" s="17"/>
+    </row>
+    <row r="52" spans="1:23" ht="15" thickTop="1" thickBot="1">
       <c r="A52" s="18"/>
       <c r="B52" s="18"/>
       <c r="C52" s="18"/>
@@ -5483,27 +5426,26 @@
       <c r="T52" s="18"/>
       <c r="U52" s="18"/>
       <c r="V52" s="18"/>
-      <c r="W52" s="18"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
-  <dataValidations count="17">
-    <dataValidation type="whole" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Please check your entry" error="You must enter the volume of fuel in liters used during this trip (0-1000)." sqref="O2:O51">
+  <dataValidations count="16">
+    <dataValidation type="whole" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Please check your entry" error="You must enter the volume of fuel in liters used during this trip (0-1000)." sqref="N2:N51">
       <formula1>0</formula1>
       <formula2>1000</formula2>
     </dataValidation>
-    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Please check your entry" error="You must indicate whether a sail was used on this trip. Permitted values are:_x000d__x000d_Y : Yes_x000d_N: N" sqref="N2:N51">
+    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Please check your entry" error="You must indicate whether a sail was used on this trip. Permitted values are:_x000d__x000d_Y : Yes_x000d_N: N" sqref="M2:M51">
       <formula1>"Y,N"</formula1>
     </dataValidation>
-    <dataValidation type="whole" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Please check your entry" error="You must enter the total number of people onboard during thsi trip (1-20)." sqref="P2:P51">
+    <dataValidation type="whole" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Please check your entry" error="You must enter the total number of people onboard during thsi trip (1-20)." sqref="O2:O51">
       <formula1>1</formula1>
       <formula2>20</formula2>
     </dataValidation>
-    <dataValidation type="whole" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Please check your entry" error="You must enter the total number of fish landed (0-10000). Leave blank if not known." sqref="V2:V51">
+    <dataValidation type="whole" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Please check your entry" error="You must enter the total number of fish landed (0-10000). Leave blank if not known." sqref="U2:U51">
       <formula1>0</formula1>
       <formula2>10000</formula2>
     </dataValidation>
-    <dataValidation type="whole" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Please check your entry" error="You must enter the total value of the catch in Rupia (0-100000000). Leave blank if not known." sqref="W2:W51">
+    <dataValidation type="whole" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Please check your entry" error="You must enter the total value of the catch in Rupia (0-100000000). Leave blank if not known." sqref="V2:V51">
       <formula1>0</formula1>
       <formula2>100000000</formula2>
     </dataValidation>
@@ -5518,15 +5460,15 @@
       <formula1>0</formula1>
       <formula2>1000</formula2>
     </dataValidation>
-    <dataValidation type="time" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Please check your entry" error="You must enter a valid time." sqref="J2:J51 K3:K51">
+    <dataValidation type="time" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Please check your entry" error="You must enter a valid time." sqref="J2:J51">
       <formula1>0</formula1>
       <formula2>0.999305555555556</formula2>
     </dataValidation>
-    <dataValidation type="whole" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Please check your entry" error="You must enter the total weight of the catch in kilograms (0-10000). Leave blank if not known." sqref="U2:U51">
+    <dataValidation type="whole" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Please check your entry" error="You must enter the total weight of the catch in kilograms (0-10000). Leave blank if not known." sqref="T2:T51">
       <formula1>0</formula1>
       <formula2>10000</formula2>
     </dataValidation>
-    <dataValidation type="time" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Please check your entry" error="You must enter a valid arrival time that is after the departure time." sqref="L2:L51">
+    <dataValidation type="time" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Please check your entry" error="You must enter a valid arrival time that is after the departure time." sqref="K2:K51">
       <formula1>0</formula1>
       <formula2>0.999305555555556</formula2>
     </dataValidation>
@@ -5537,19 +5479,15 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Please check your entry" error="The following values are allowed:_x000d__x000d_OC - outrigger canoe" sqref="D2:D51">
       <formula1>"OC"</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Please check your entry" error="Please select a value from the list:_x000d__x000d_0 = No fish caught_x000d_R = Rusak (mechanical problem)_x000d_H = Hilang (gear lost)_x000d_C = cuaca (bad weather)" sqref="M2:M51">
+    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Please check your entry" error="Please select a value from the list:_x000d__x000d_0 = No fish caught_x000d_R = Rusak (mechanical problem)_x000d_H = Hilang (gear lost)_x000d_C = cuaca (bad weather)" sqref="L2:L51">
       <formula1>"0,R,H,C"</formula1>
     </dataValidation>
-    <dataValidation type="whole" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Please check your entry" error="You must enter the weight of ice in kg." sqref="R2:R51">
+    <dataValidation type="whole" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Please check your entry" error="You must enter the weight of ice in kg." sqref="Q2:Q51">
       <formula1>0</formula1>
       <formula2>99</formula2>
     </dataValidation>
-    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Please check your entry" error="You must enter a recognized code for the sea conditions. Permitted values are:_x000d__x000d_1: Calm_x000d_2: Moderate_x000d_3: Rough" sqref="S2:S51">
+    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Please check your entry" error="You must enter a recognized code for the sea conditions. Permitted values are:_x000d__x000d_1: Calm_x000d_2: Moderate_x000d_3: Rough" sqref="R2:R51">
       <formula1>"1,2,3"</formula1>
-    </dataValidation>
-    <dataValidation type="date" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Please check your entry" error="You must enter a valid time." sqref="K2">
-      <formula1>I2</formula1>
-      <formula2>55153</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -5567,13 +5505,13 @@
           <x14:formula1>
             <xm:f>'Gear Codes'!$A$2:$A$62</xm:f>
           </x14:formula1>
-          <xm:sqref>Q2:Q51</xm:sqref>
+          <xm:sqref>P2:P51</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Please check your entry" error="You must enter a valid fish ID code. Please check the &quot;Fish Codes&quot; tab.">
           <x14:formula1>
             <xm:f>'Species Codes'!A1:A1000</xm:f>
           </x14:formula1>
-          <xm:sqref>T2:T51</xm:sqref>
+          <xm:sqref>S2:S51</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
